--- a/list.xlsx
+++ b/list.xlsx
@@ -6,19 +6,19 @@
     <sheet name="all" r:id="rId1" sheetId="1" state="visible"/>
   </sheets>
   <definedNames>
-    <definedName hidden="false" localSheetId="0" name="_Toc153527119">'all'!$A$34</definedName>
-    <definedName hidden="false" localSheetId="0" name="_Toc158295177">'all'!$A$39</definedName>
-    <definedName hidden="false" localSheetId="0" name="_Toc153527131">'all'!$A$88</definedName>
-    <definedName hidden="false" localSheetId="0" name="_Toc153527129">'all'!$A$82</definedName>
-    <definedName hidden="false" localSheetId="0" name="_Toc158295173">'all'!$A$9</definedName>
-    <definedName hidden="false" localSheetId="0" name="_Toc153527128">'all'!$A$77</definedName>
-    <definedName hidden="false" localSheetId="0" name="_Toc151731930">'all'!$A$87</definedName>
-    <definedName hidden="false" localSheetId="0" name="_Toc158295172">'all'!$A$2</definedName>
-    <definedName hidden="false" localSheetId="0" name="_Toc153527117">'all'!$A$21</definedName>
-    <definedName hidden="false" localSheetId="0" name="_Toc153527125">'all'!$A$65</definedName>
-    <definedName hidden="false" localSheetId="0" name="_Toc158295181">'all'!$A$60</definedName>
-    <definedName hidden="false" localSheetId="0" name="_Toc152235560">'all'!$A$48</definedName>
-    <definedName hidden="false" localSheetId="0" name="_Toc158295175">'all'!$A$24</definedName>
+    <definedName hidden="false" localSheetId="0" name="_Toc153527129">'all'!$A$83</definedName>
+    <definedName hidden="false" localSheetId="0" name="_Toc158295175">'all'!$A$25</definedName>
+    <definedName hidden="false" localSheetId="0" name="_Toc151731930">'all'!$A$88</definedName>
+    <definedName hidden="false" localSheetId="0" name="_Toc158295181">'all'!$A$61</definedName>
+    <definedName hidden="false" localSheetId="0" name="_Toc153527125">'all'!$A$66</definedName>
+    <definedName hidden="false" localSheetId="0" name="_Toc158295177">'all'!$A$40</definedName>
+    <definedName hidden="false" localSheetId="0" name="_Toc153527117">'all'!$A$22</definedName>
+    <definedName hidden="false" localSheetId="0" name="_Toc153527119">'all'!$A$35</definedName>
+    <definedName hidden="false" localSheetId="0" name="_Toc153527128">'all'!$A$78</definedName>
+    <definedName hidden="false" localSheetId="0" name="_Toc152235560">'all'!$A$49</definedName>
+    <definedName hidden="false" localSheetId="0" name="_Toc158295172">'all'!$A$3</definedName>
+    <definedName hidden="false" localSheetId="0" name="_Toc158295173">'all'!$A$10</definedName>
+    <definedName hidden="false" localSheetId="0" name="_Toc153527131">'all'!$A$89</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -35,6 +35,9 @@
     <t>Изображение</t>
   </si>
   <si>
+    <t>Поиск</t>
+  </si>
+  <si>
     <t>СОЗДАНИЕ ПАРТНЕРА И КОНТРАГЕНТА</t>
   </si>
   <si>
@@ -5158,7 +5161,7 @@
         <color theme="1" tint="0"/>
         <sz val="11"/>
       </rPr>
-      <t xml:space="preserve">ПРИЛОЖЕНИЕ 2. </t>
+      <t xml:space="preserve">ПРИЛОЖЕНИЕ 2.1. </t>
     </r>
     <r>
       <rPr>
@@ -5396,7 +5399,7 @@
         <color theme="1" tint="0"/>
         <sz val="11"/>
       </rPr>
-      <t xml:space="preserve">ПРИЛОЖЕНИЕ 2. </t>
+      <t xml:space="preserve">ПРИЛОЖЕНИЕ 2.2. </t>
     </r>
     <r>
       <rPr>
@@ -5724,7 +5727,7 @@
         <color theme="1" tint="0"/>
         <sz val="11"/>
       </rPr>
-      <t xml:space="preserve">ПРИЛОЖЕНИЕ 2. </t>
+      <t xml:space="preserve">ПРИЛОЖЕНИЕ 2.3. </t>
     </r>
     <r>
       <rPr>
@@ -6042,7 +6045,7 @@
         <color theme="1" tint="0"/>
         <sz val="11"/>
       </rPr>
-      <t xml:space="preserve">ПРИЛОЖЕНИЕ 2. </t>
+      <t xml:space="preserve">ПРИЛОЖЕНИЕ 2.4. </t>
     </r>
     <r>
       <rPr>
@@ -6226,7 +6229,7 @@
         <color theme="1" tint="0"/>
         <sz val="11"/>
       </rPr>
-      <t xml:space="preserve">ПРИЛОЖЕНИЕ 2. </t>
+      <t xml:space="preserve">ПРИЛОЖЕНИЕ 2.5. </t>
     </r>
     <r>
       <rPr>
@@ -6386,7 +6389,7 @@
         <color theme="1" tint="0"/>
         <sz val="11"/>
       </rPr>
-      <t xml:space="preserve">ПРИЛОЖЕНИЕ 2. </t>
+      <t xml:space="preserve">ПРИЛОЖЕНИЕ 2.6. </t>
     </r>
     <r>
       <rPr>
@@ -6550,7 +6553,7 @@
         <color theme="1" tint="0"/>
         <sz val="11"/>
       </rPr>
-      <t xml:space="preserve">ПРИЛОЖЕНИЕ 2. </t>
+      <t xml:space="preserve">ПРИЛОЖЕНИЕ 2.7. </t>
     </r>
     <r>
       <rPr>
@@ -6739,7 +6742,7 @@
         <color theme="1" tint="0"/>
         <sz val="11"/>
       </rPr>
-      <t xml:space="preserve">ПРИЛОЖЕНИЕ 2. </t>
+      <t xml:space="preserve">ПРИЛОЖЕНИЕ 2.8. </t>
     </r>
     <r>
       <rPr>
@@ -6917,7 +6920,7 @@
         <color theme="1" tint="0"/>
         <sz val="11"/>
       </rPr>
-      <t xml:space="preserve">ПРИЛОЖЕНИЕ 2. </t>
+      <t xml:space="preserve">ПРИЛОЖЕНИЕ 2.9. </t>
     </r>
     <r>
       <rPr>
@@ -7617,7 +7620,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="10" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" borderId="0" fillId="0" fontId="0" quotePrefix="false">
+    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="0" quotePrefix="false">
       <alignment horizontal="left"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="11" numFmtId="1000" quotePrefix="false">
@@ -7843,7 +7846,7 @@
   <sheetPr>
     <outlinePr summaryBelow="true" summaryRight="true"/>
   </sheetPr>
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView showZeros="true" workbookViewId="0"/>
   </sheetViews>
@@ -7869,1136 +7872,1143 @@
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="8" t="n"/>
+      <c r="C2" s="9" t="n"/>
+    </row>
+    <row ht="34.7999992370605" outlineLevel="0" r="3">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row ht="281.399993896484" outlineLevel="0" r="3">
-      <c r="A3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+    </row>
+    <row ht="281.399993896484" outlineLevel="0" r="4">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row ht="46.7999992370605" outlineLevel="0" r="4">
-      <c r="A4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9" t="s">
+    </row>
+    <row ht="46.7999992370605" outlineLevel="0" r="5">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row ht="187.199996948242" outlineLevel="0" r="5">
-      <c r="A5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9" t="s">
+    </row>
+    <row ht="187.199996948242" outlineLevel="0" r="6">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row ht="62.4000015258789" outlineLevel="0" r="6">
-      <c r="A6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9" t="s">
+    </row>
+    <row ht="62.4000015258789" outlineLevel="0" r="7">
+      <c r="A7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row ht="34.7999992370605" outlineLevel="0" r="7">
-      <c r="A7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="9" t="n"/>
-    </row>
-    <row ht="63" outlineLevel="0" r="8">
+    </row>
+    <row ht="34.7999992370605" outlineLevel="0" r="8">
       <c r="A8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="9" t="n"/>
+    </row>
+    <row ht="63" outlineLevel="0" r="9">
+      <c r="A9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row ht="31.2000007629395" outlineLevel="0" r="9">
-      <c r="A9" s="7" t="s">
+      <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="12" t="s">
+    </row>
+    <row ht="31.2000007629395" outlineLevel="0" r="10">
+      <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="B10" s="12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row ht="156" outlineLevel="0" r="10">
-      <c r="A10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9" t="s">
+    </row>
+    <row ht="156" outlineLevel="0" r="11">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row ht="17.3999996185303" outlineLevel="0" r="11">
-      <c r="A11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="9" t="s">
+    </row>
+    <row ht="17.3999996185303" outlineLevel="0" r="12">
+      <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row ht="156" outlineLevel="0" r="12">
-      <c r="A12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="12" t="s">
+      <c r="C12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="9" t="s">
+    </row>
+    <row ht="156" outlineLevel="0" r="13">
+      <c r="A13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row ht="31.2000007629395" outlineLevel="0" r="13">
-      <c r="A13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="13" t="s">
+      <c r="C13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="9" t="s">
+    </row>
+    <row ht="31.2000007629395" outlineLevel="0" r="14">
+      <c r="A14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row ht="78" outlineLevel="0" r="14">
-      <c r="A14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="12" t="s">
+      <c r="C14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="9" t="s">
+    </row>
+    <row ht="78" outlineLevel="0" r="15">
+      <c r="A15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row ht="140.399993896484" outlineLevel="0" r="15">
-      <c r="A15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="C15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="9" t="s">
+    </row>
+    <row ht="140.399993896484" outlineLevel="0" r="16">
+      <c r="A16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row ht="31.2000007629395" outlineLevel="0" r="16">
-      <c r="A16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="9" t="s">
+    </row>
+    <row ht="31.2000007629395" outlineLevel="0" r="17">
+      <c r="A17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row ht="78" outlineLevel="0" r="17">
-      <c r="A17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="9" t="s">
+    </row>
+    <row ht="78" outlineLevel="0" r="18">
+      <c r="A18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row ht="31.2000007629395" outlineLevel="0" r="18">
-      <c r="A18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="14" t="s">
+      <c r="C18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="9" t="s">
+    </row>
+    <row ht="31.2000007629395" outlineLevel="0" r="19">
+      <c r="A19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row ht="17.3999996185303" outlineLevel="0" r="19">
-      <c r="A19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="9" t="s">
+    </row>
+    <row ht="17.3999996185303" outlineLevel="0" r="20">
+      <c r="A20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row ht="140.399993896484" outlineLevel="0" r="20">
-      <c r="A20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="9" t="s">
+    </row>
+    <row ht="140.399993896484" outlineLevel="0" r="21">
+      <c r="A21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row ht="17.3999996185303" outlineLevel="0" r="21">
-      <c r="A21" s="15" t="s">
+      <c r="C21" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="16" t="s">
+    </row>
+    <row ht="17.3999996185303" outlineLevel="0" r="22">
+      <c r="A22" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="B22" s="16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row ht="46.7999992370605" outlineLevel="0" r="22">
-      <c r="A22" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="9" t="s">
+    </row>
+    <row ht="46.7999992370605" outlineLevel="0" r="23">
+      <c r="A23" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row ht="31.2000007629395" outlineLevel="0" r="23">
-      <c r="A23" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="9" t="s">
+    </row>
+    <row ht="31.2000007629395" outlineLevel="0" r="24">
+      <c r="A24" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row ht="17.3999996185303" outlineLevel="0" r="24">
-      <c r="A24" s="17" t="s">
+      <c r="C24" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row ht="17.3999996185303" outlineLevel="0" r="25">
       <c r="A25" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="9" t="s">
+    </row>
+    <row ht="17.3999996185303" outlineLevel="0" r="26">
+      <c r="A26" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row ht="31.2000007629395" outlineLevel="0" r="26">
-      <c r="A26" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="11" t="s">
+      <c r="C26" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row ht="31.2000007629395" outlineLevel="0" r="27">
       <c r="A27" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="9" t="s">
+    </row>
+    <row ht="31.2000007629395" outlineLevel="0" r="28">
+      <c r="A28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row ht="17.3999996185303" outlineLevel="0" r="28">
-      <c r="A28" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="18" t="s">
+      <c r="C28" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row ht="17.3999996185303" outlineLevel="0" r="29">
       <c r="A29" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="9" t="s">
+    </row>
+    <row ht="17.3999996185303" outlineLevel="0" r="30">
+      <c r="A30" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row ht="62.4000015258789" outlineLevel="0" r="30">
-      <c r="A30" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="8" t="s">
+      <c r="C30" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="9" t="s">
+    </row>
+    <row ht="62.4000015258789" outlineLevel="0" r="31">
+      <c r="A31" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row ht="31.2000007629395" outlineLevel="0" r="31">
-      <c r="A31" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="11" t="s">
+      <c r="C31" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="9" t="s">
+    </row>
+    <row ht="31.2000007629395" outlineLevel="0" r="32">
+      <c r="A32" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row ht="17.3999996185303" outlineLevel="0" r="32">
-      <c r="A32" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="18" t="s">
+      <c r="C32" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="9" t="s">
+    </row>
+    <row ht="17.3999996185303" outlineLevel="0" r="33">
+      <c r="A33" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row ht="31.2000007629395" outlineLevel="0" r="33">
-      <c r="A33" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="19" t="s">
+      <c r="C33" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="9" t="n"/>
-    </row>
-    <row ht="34.7999992370605" outlineLevel="0" r="34">
+    </row>
+    <row ht="31.2000007629395" outlineLevel="0" r="34">
       <c r="A34" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>71</v>
-      </c>
+      <c r="C34" s="9" t="n"/>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="35">
       <c r="A35" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B35" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>73</v>
       </c>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="36">
       <c r="A36" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B36" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="37">
       <c r="A37" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B37" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="38">
       <c r="A38" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="9" t="s">
+    </row>
+    <row ht="34.7999992370605" outlineLevel="0" r="39">
+      <c r="A39" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="20" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row ht="104.400001525879" outlineLevel="0" r="39">
-      <c r="A39" s="17" t="s">
+      <c r="C39" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>82</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="40">
       <c r="A40" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="41">
       <c r="A41" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>86</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="42">
       <c r="A42" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>88</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="43">
       <c r="A43" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>90</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="44">
       <c r="A44" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>92</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="45">
       <c r="A45" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>94</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="46">
       <c r="A46" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>96</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="47">
       <c r="A47" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B47" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="9" t="s">
+    </row>
+    <row ht="104.400001525879" outlineLevel="0" r="48">
+      <c r="A48" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row ht="104.400001525879" outlineLevel="0" r="48">
-      <c r="A48" s="22" t="s">
+      <c r="C48" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>101</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="49">
       <c r="A49" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>103</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="50">
       <c r="A50" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B50" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>105</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="51">
       <c r="A51" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>107</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="52">
       <c r="A52" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B52" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="9" t="n"/>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="53">
       <c r="A53" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>110</v>
-      </c>
+      <c r="C53" s="9" t="n"/>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="54">
       <c r="A54" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>113</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="55">
       <c r="A55" s="22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B55" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>115</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="56">
       <c r="A56" s="22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B56" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>117</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="57">
       <c r="A57" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="B57" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>119</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="58">
       <c r="A58" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="B58" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>121</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="59">
       <c r="A59" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="B59" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="9" t="n"/>
-    </row>
-    <row ht="34.7999992370605" outlineLevel="0" r="60">
-      <c r="A60" s="17" t="s">
+    </row>
+    <row ht="104.400001525879" outlineLevel="0" r="60">
+      <c r="A60" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="C60" s="9" t="n"/>
+    </row>
+    <row ht="34.7999992370605" outlineLevel="0" r="61">
+      <c r="A61" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="B61" s="23" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row ht="93.5999984741211" outlineLevel="0" r="61">
-      <c r="A61" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" s="8" t="s">
+      <c r="C61" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C61" s="9" t="s">
+    </row>
+    <row ht="93.5999984741211" outlineLevel="0" r="62">
+      <c r="A62" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row ht="62.4000015258789" outlineLevel="0" r="62">
-      <c r="A62" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B62" s="8" t="s">
+      <c r="C62" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="9" t="s">
+    </row>
+    <row ht="62.4000015258789" outlineLevel="0" r="63">
+      <c r="A63" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row ht="34.7999992370605" outlineLevel="0" r="63">
-      <c r="A63" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B63" s="8" t="s">
+      <c r="C63" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>131</v>
       </c>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="64">
       <c r="A64" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B64" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C64" s="9" t="n"/>
-    </row>
-    <row ht="87" outlineLevel="0" r="65">
-      <c r="A65" s="22" t="s">
+    </row>
+    <row ht="34.7999992370605" outlineLevel="0" r="65">
+      <c r="A65" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>135</v>
-      </c>
+      <c r="C65" s="9" t="n"/>
     </row>
     <row ht="87" outlineLevel="0" r="66">
       <c r="A66" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="B66" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>137</v>
       </c>
     </row>
     <row ht="87" outlineLevel="0" r="67">
       <c r="A67" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="B67" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>139</v>
       </c>
     </row>
     <row ht="87" outlineLevel="0" r="68">
       <c r="A68" s="22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B68" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>141</v>
       </c>
     </row>
     <row ht="87" outlineLevel="0" r="69">
       <c r="A69" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="B69" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C69" s="9" t="s">
+    </row>
+    <row ht="87" outlineLevel="0" r="70">
+      <c r="A70" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" s="25" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row ht="109.199996948242" outlineLevel="0" r="70">
-      <c r="A70" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="B70" s="8" t="s">
+      <c r="C70" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C70" s="9" t="s">
+    </row>
+    <row ht="109.199996948242" outlineLevel="0" r="71">
+      <c r="A71" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row ht="87" outlineLevel="0" r="71">
-      <c r="A71" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="B71" s="19" t="s">
+      <c r="C71" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C71" s="9" t="s">
+    </row>
+    <row ht="87" outlineLevel="0" r="72">
+      <c r="A72" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B72" s="19" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row ht="234" outlineLevel="0" r="72">
-      <c r="A72" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="B72" s="8" t="s">
+      <c r="C72" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C72" s="9" t="s">
+    </row>
+    <row ht="234" outlineLevel="0" r="73">
+      <c r="A73" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row ht="62.4000015258789" outlineLevel="0" r="73">
-      <c r="A73" s="22" t="s">
+      <c r="C73" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B73" s="11" t="s">
+    </row>
+    <row ht="62.4000015258789" outlineLevel="0" r="74">
+      <c r="A74" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="B74" s="11" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row ht="52.2000007629395" outlineLevel="0" r="74">
-      <c r="A74" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="B74" s="11" t="s">
+      <c r="C74" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C74" s="9" t="s">
+    </row>
+    <row ht="52.2000007629395" outlineLevel="0" r="75">
+      <c r="A75" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row ht="109.199996948242" outlineLevel="0" r="75">
-      <c r="A75" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="B75" s="12" t="s">
+      <c r="C75" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C75" s="9" t="s">
+    </row>
+    <row ht="109.199996948242" outlineLevel="0" r="76">
+      <c r="A76" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" s="12" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row ht="52.2000007629395" outlineLevel="0" r="76">
-      <c r="A76" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="B76" s="11" t="s">
+      <c r="C76" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C76" s="9" t="n"/>
-    </row>
-    <row ht="109.199996948242" outlineLevel="0" r="77">
-      <c r="A77" s="17" t="s">
+    </row>
+    <row ht="52.2000007629395" outlineLevel="0" r="77">
+      <c r="A77" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="C77" s="9" t="n"/>
+    </row>
+    <row ht="109.199996948242" outlineLevel="0" r="78">
+      <c r="A78" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="B78" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row ht="46.7999992370605" outlineLevel="0" r="78">
-      <c r="A78" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="B78" s="8" t="s">
+      <c r="C78" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C78" s="9" t="s">
+    </row>
+    <row ht="46.7999992370605" outlineLevel="0" r="79">
+      <c r="A79" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" s="8" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row ht="17.3999996185303" outlineLevel="0" r="79">
-      <c r="A79" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="B79" s="11" t="s">
+      <c r="C79" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C79" s="9" t="s">
+    </row>
+    <row ht="17.3999996185303" outlineLevel="0" r="80">
+      <c r="A80" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B80" s="11" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row ht="31.2000007629395" outlineLevel="0" r="80">
-      <c r="A80" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="B80" s="8" t="s">
+      <c r="C80" s="9" t="s">
         <v>165</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>166</v>
       </c>
     </row>
     <row ht="31.2000007629395" outlineLevel="0" r="81">
       <c r="A81" s="17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B81" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C81" s="9" t="s">
+    </row>
+    <row ht="31.2000007629395" outlineLevel="0" r="82">
+      <c r="A82" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row ht="34.7999992370605" outlineLevel="0" r="82">
-      <c r="A82" s="17" t="s">
+      <c r="C82" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B82" s="11" t="s">
+    </row>
+    <row ht="34.7999992370605" outlineLevel="0" r="83">
+      <c r="A83" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="B83" s="11" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row ht="46.7999992370605" outlineLevel="0" r="83">
-      <c r="A83" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="B83" s="8" t="s">
+      <c r="C83" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C83" s="9" t="s">
+    </row>
+    <row ht="46.7999992370605" outlineLevel="0" r="84">
+      <c r="A84" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row ht="34.7999992370605" outlineLevel="0" r="84">
-      <c r="A84" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="B84" s="11" t="s">
+      <c r="C84" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C84" s="9" t="s">
+    </row>
+    <row ht="34.7999992370605" outlineLevel="0" r="85">
+      <c r="A85" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" s="11" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row ht="109.199996948242" outlineLevel="0" r="85">
-      <c r="A85" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="B85" s="8" t="s">
+      <c r="C85" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C85" s="9" t="s">
+    </row>
+    <row ht="109.199996948242" outlineLevel="0" r="86">
+      <c r="A86" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="8" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row ht="409" outlineLevel="0" r="86">
-      <c r="A86" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="B86" s="8" t="s">
+      <c r="C86" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C86" s="9" t="n"/>
-    </row>
-    <row ht="52.2000007629395" outlineLevel="0" r="87">
+    </row>
+    <row ht="409" outlineLevel="0" r="87">
       <c r="A87" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="C87" s="9" t="n"/>
+    </row>
+    <row ht="52.2000007629395" outlineLevel="0" r="88">
+      <c r="A88" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="B88" s="11" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row ht="31.7999992370605" outlineLevel="0" r="88">
-      <c r="A88" s="17" t="s">
+      <c r="C88" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B88" s="25" t="s">
+    </row>
+    <row ht="31.7999992370605" outlineLevel="0" r="89">
+      <c r="A89" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="B89" s="25" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row ht="62.4000015258789" outlineLevel="0" r="89">
-      <c r="A89" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="B89" s="8" t="s">
+      <c r="C89" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C89" s="9" t="s">
+    </row>
+    <row ht="62.4000015258789" outlineLevel="0" r="90">
+      <c r="A90" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B90" s="8" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row ht="140.399993896484" outlineLevel="0" r="90">
-      <c r="A90" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="B90" s="8" t="s">
+      <c r="C90" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C90" s="9" t="s">
+    </row>
+    <row ht="140.399993896484" outlineLevel="0" r="91">
+      <c r="A91" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row ht="46.7999992370605" outlineLevel="0" r="91">
-      <c r="A91" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="B91" s="8" t="s">
+      <c r="C91" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C91" s="9" t="s">
+    </row>
+    <row ht="46.7999992370605" outlineLevel="0" r="92">
+      <c r="A92" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92" s="8" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row ht="34.7999992370605" outlineLevel="0" r="92">
-      <c r="A92" s="22" t="s">
+      <c r="C92" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>193</v>
       </c>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="93">
       <c r="A93" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="B93" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C93" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C93" s="9" t="s">
+    </row>
+    <row ht="34.7999992370605" outlineLevel="0" r="94">
+      <c r="A94" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="B94" s="25" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row ht="52.2000007629395" outlineLevel="0" r="94">
-      <c r="A94" s="22" t="s">
+      <c r="C94" s="9" t="s">
         <v>196</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>198</v>
       </c>
     </row>
     <row ht="52.2000007629395" outlineLevel="0" r="95">
       <c r="A95" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="B95" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C95" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>200</v>
       </c>
     </row>
     <row ht="52.2000007629395" outlineLevel="0" r="96">
       <c r="A96" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="B96" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C96" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C96" s="9" t="n"/>
-    </row>
-    <row outlineLevel="0" r="97">
-      <c r="A97" s="26" t="s">
+    </row>
+    <row ht="52.2000007629395" outlineLevel="0" r="97">
+      <c r="A97" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B97" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" s="9" t="n"/>
+    </row>
+    <row outlineLevel="0" r="98">
+      <c r="A98" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="C97" s="3" t="n"/>
-    </row>
-    <row outlineLevel="0" r="98">
-      <c r="A98" s="1" t="s">
+      <c r="B98" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>205</v>
-      </c>
+      <c r="C98" s="3" t="n"/>
     </row>
     <row outlineLevel="0" r="99">
       <c r="A99" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row outlineLevel="0" r="100">
       <c r="A100" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row outlineLevel="0" r="101">
       <c r="A101" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row outlineLevel="0" r="102">
       <c r="A102" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row outlineLevel="0" r="103">
       <c r="A103" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row outlineLevel="0" r="104">
       <c r="A104" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row outlineLevel="0" r="105">
       <c r="A105" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row outlineLevel="0" r="106">
       <c r="A106" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row outlineLevel="0" r="107">
       <c r="A107" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row outlineLevel="0" r="108">
       <c r="A108" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B108" s="2" t="s">
+    </row>
+    <row outlineLevel="0" r="109">
+      <c r="A109" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row outlineLevel="0" r="109">
-      <c r="A109" s="27" t="s">
+      <c r="B109" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B109" s="28" t="s">
+    </row>
+    <row outlineLevel="0" r="110">
+      <c r="A110" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="C109" s="29" t="n"/>
+      <c r="B110" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C110" s="29" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.300000011920929" header="0.300000011920929" left="0.700000047683716" right="0.700000047683716" top="0.75"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -6,19 +6,19 @@
     <sheet name="all" r:id="rId1" sheetId="1" state="visible"/>
   </sheets>
   <definedNames>
+    <definedName hidden="false" localSheetId="0" name="_Toc153527125">'all'!$A$66</definedName>
+    <definedName hidden="false" localSheetId="0" name="_Toc158295173">'all'!$A$10</definedName>
+    <definedName hidden="false" localSheetId="0" name="_Toc153527128">'all'!$A$78</definedName>
     <definedName hidden="false" localSheetId="0" name="_Toc153527129">'all'!$A$83</definedName>
     <definedName hidden="false" localSheetId="0" name="_Toc158295175">'all'!$A$25</definedName>
+    <definedName hidden="false" localSheetId="0" name="_Toc153527119">'all'!$A$35</definedName>
+    <definedName hidden="false" localSheetId="0" name="_Toc152235560">'all'!$A$49</definedName>
+    <definedName hidden="false" localSheetId="0" name="_Toc158295177">'all'!$A$40</definedName>
+    <definedName hidden="false" localSheetId="0" name="_Toc158295172">'all'!$A$3</definedName>
+    <definedName hidden="false" localSheetId="0" name="_Toc153527117">'all'!$A$22</definedName>
+    <definedName hidden="false" localSheetId="0" name="_Toc153527131">'all'!$A$89</definedName>
+    <definedName hidden="false" localSheetId="0" name="_Toc158295181">'all'!$A$61</definedName>
     <definedName hidden="false" localSheetId="0" name="_Toc151731930">'all'!$A$88</definedName>
-    <definedName hidden="false" localSheetId="0" name="_Toc158295181">'all'!$A$61</definedName>
-    <definedName hidden="false" localSheetId="0" name="_Toc153527125">'all'!$A$66</definedName>
-    <definedName hidden="false" localSheetId="0" name="_Toc158295177">'all'!$A$40</definedName>
-    <definedName hidden="false" localSheetId="0" name="_Toc153527117">'all'!$A$22</definedName>
-    <definedName hidden="false" localSheetId="0" name="_Toc153527119">'all'!$A$35</definedName>
-    <definedName hidden="false" localSheetId="0" name="_Toc153527128">'all'!$A$78</definedName>
-    <definedName hidden="false" localSheetId="0" name="_Toc152235560">'all'!$A$49</definedName>
-    <definedName hidden="false" localSheetId="0" name="_Toc158295172">'all'!$A$3</definedName>
-    <definedName hidden="false" localSheetId="0" name="_Toc158295173">'all'!$A$10</definedName>
-    <definedName hidden="false" localSheetId="0" name="_Toc153527131">'all'!$A$89</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -38,191 +38,14 @@
     <t>Поиск</t>
   </si>
   <si>
+    <t>Для поиска воспользуйтесь меню сверху</t>
+  </si>
+  <si>
     <t>СОЗДАНИЕ ПАРТНЕРА И КОНТРАГЕНТА</t>
   </si>
   <si>
-    <t>Справочник с клиентами находится в разделе Продажи:</t>
-  </si>
-  <si>
-    <t>/imgs/1_1.png</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">При создании нового партнера открывается помощник регистрации нового партнера. </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>На первом шаге помощника нужно указать, какого контрагента нужно создать:</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-  Компания с любой формой собственности (ИП, ООО, АО, ЗАО и т.п.)</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>- Частное лицо</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">Установленный флаг </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <i val="true"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Указать идентификационные данные партнера</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> позволяет создать одновременно и партнера, и контрагента. Указываются юридические особенности компании (юр. лицо, юр. лицо за пределами РФ, ИП или обособленное подразделение).</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>-	ИНН компании. Данное поле уникально, и не может повторяться у других клиентов, только в том случае если разное КПП. В прикладном решении есть возможность заполнить по ЕГРЮЛ/ЕГРИП поля:</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">-	КПП. Контрагент с неверно указанными ИНН/КПП попадает в сегмент клиентов, для которых отгрузка запрещена. </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>-	Код по ОКПО;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>-	Сокращенное юр. наименование с указанием формы собственности;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>-	Публичное наименование (может совпадать с названием) – это название бренда компании, указывается без формы собственности;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>-	Телефон или E-mail компании;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>-	Также обязательно нужно создать хотя бы одно контактное лицо (флаг «Указать данные контактного лица» установлен и заблокирован для изменения). Указывается:</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>-	ФИО контактного лица;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>-	Роль –должность контактного лица (не обязательно);</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>-	Телефон или E-mail контактного лица.</t>
-    </r>
-  </si>
-  <si>
-    <t>/imgs/1_2.png</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">На </t>
+    <r>
+      <t>Справочник с клиентами находится в разделе &lt;b&gt;</t>
     </r>
     <r>
       <rPr>
@@ -231,622 +54,176 @@
         <color theme="1" tint="0"/>
         <sz val="12"/>
       </rPr>
-      <t>втором шаге</t>
+      <t>Продажи&lt;/b&gt;</t>
+    </r>
+    <r>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>/imgs/1_1.png</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;При создании нового партнера открывается &lt;b&gt;помощник регистрации нового партнера.&lt;/b&gt; &lt;br /&gt;На &lt;b&gt;первом шаге&lt;/b&gt; помощника нужно указать, какого контрагента нужно создать:&lt;br /&gt;- &lt;b&gt;Компания&lt;/b&gt; с любой формой собственности (ИП, ООО, АО, ЗАО и т.п.)&lt;br /&gt;-&lt;b&gt; Частное лицо&lt;/b&gt;&lt;br /&gt;Установленный флаг &lt;b&gt;Указать идентификационные данные партнера&lt;/b&gt; позволяет создать одновременно и партнера, и контрагента. Указываются юридические особенности компании (юр. лицо, юр. лицо за пределами РФ, ИП или обособленное подразделение).&lt;br /&gt;- &lt;b&gt;ИНН&lt;/b&gt; компании. Данное поле уникально, и не может повторяться у других клиентов, только в том случае если разное &lt;b&gt;КПП.&lt;/b&gt; В прикладном решении есть возможность заполнить по ЕГРЮЛ/ЕГРИП поля:&lt;br /&gt;- &lt;b&gt;КПП.&lt;/b&gt; Контрагент с неверно указанными ИНН/КПП попадает в сегмент клиентов, для которых отгрузка запрещена. &lt;br /&gt;-&lt;b&gt; Код по ОКПО&lt;/b&gt;;&lt;br /&gt;-&lt;b&gt; Сокращенное юр. наименование&lt;/b&gt; с указанием формы собственности;&lt;br /&gt;- &lt;b&gt;Публичное наименование&lt;/b&gt; (может совпадать с названием) &amp;ndash; это название бренда компании, указывается без формы собственности;&lt;br /&gt;- &lt;b&gt;Телефон&lt;/b&gt; или &lt;b&gt;E-mail&lt;/b&gt; компании;&lt;br /&gt;- Также обязательно нужно создать хотя бы одно контактное лицо (флаг &amp;laquo;&lt;b&gt;Указать данные контактного лица&lt;/b&gt;&amp;raquo; установлен и заблокирован для изменения). Указывается:&lt;br /&gt;- &lt;b&gt;ФИО&lt;/b&gt; контактного лица;&lt;br /&gt;-&lt;b&gt; Роль &lt;/b&gt;&amp;ndash;должность контактного лица (не обязательно);&lt;br /&gt;- Телефон или E-mail контактного лица.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>/imgs/1_2.png</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;На &lt;b&gt;втором шаге&lt;/b&gt; помощника осуществляется поиск дублей по любой внесенной информации. Если клиент уже создан, то в нижней части экрана появляется информация о том, за каким отделом закреплен партнер. Для получения доступа нужно обратиться к директору по развитию ЭМК. Если дублей не обнаружено, то происходит переход на третий шаг помощника.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>/imgs/1_3.png</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;На &lt;b&gt;третьем шаге&lt;/b&gt; помощника система заполняет &lt;b&gt;Рабочее наименование&lt;/b&gt; партнера (то наименование, которое отображается в списке партнеров). Для упрощения работы рекомендуется не помещать наименование в кавычки и другие символы; форму собственности (если есть необходимость видеть ее в списке) переносить в конец строки. Данное наименование используется только в 1С и не выводится на печать.&lt;br /&gt;-&lt;b&gt; Основной менеджер &lt;/b&gt;подставляется автоматически пользователем, который создает карточку партнера и может быть изменена вручную. По данному полю может быть установлен отбор в списке партнеров.&lt;br /&gt;- &lt;b&gt;Основной менеджер Арма&lt;/b&gt; &amp;ndash; сотрудники коммерческого отдела (далее КО) не заполняют&lt;br /&gt;- &lt;b&gt;Головное предприятие&lt;/b&gt; &amp;ndash; сотрудники КО не заполняют&lt;br /&gt;- &lt;b&gt;Группа доступа&lt;/b&gt; заполняется обязательно. Менеджер выбирает ту группу, к которой у него есть доступ.&lt;br /&gt;- &lt;b&gt;Бизнес-регион&lt;/b&gt; также заполняется обязательно (по месту расположения КО) для того, чтобы можно было формировать отчеты в разрезе этих данных.&lt;br /&gt;- &lt;b&gt;Тип отношений&lt;/b&gt; &amp;ndash; обязательный реквизит &amp;ndash; клиент, конкурент, поставщик или прочие отношения.&lt;br /&gt;- &lt;b&gt;Юридический адрес&lt;/b&gt; может заполняться автоматически по ИНН. Менеджер КО заполняет &lt;b&gt;фактический адрес&lt;/b&gt;. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>/imgs/1_4.png</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;На &lt;b&gt;четвертом шаге&lt;/b&gt; помощника:&lt;br /&gt;- &lt;b&gt;Отрасль&lt;/b&gt; компании &amp;ndash; обязательно нужно заполнить, в разрезе этих данных формируются многие отчеты.&lt;br /&gt;- Поле &lt;b&gt;Основание (договор)&lt;/b&gt; не обязательно к заполнению&lt;br /&gt;- Флаг &lt;b&gt;Проектный институт&lt;/b&gt; - КО не устанавливают.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>/imgs/1_5.png</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;На &lt;b&gt;пятом шаге&lt;/b&gt; помощника возможно внести данные &lt;b&gt;банковского счета&lt;/b&gt;. Если этих данных на момент регистрации партнера нет, это можно сделать позже. Банковские реквизиты заполняются на основании данных, предоставленных партнером (карта партнера). &lt;/p&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;p&gt;На последнем, &lt;b&gt;шестом шаге&lt;/b&gt; помощника производится проверка внесенных ранее данных. Далее нужно оставить установленным флаг &amp;laquo;&lt;b&gt;Открыть форму вновь созданного партнера для указания дополнительной информации&lt;/b&gt;&amp;raquo;, и нажать кнопку &lt;b&gt;Создать&lt;/b&gt;. Откроется карточка вновь созданного партнера.&lt;/p&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>/imgs/1_6.png</t>
+  </si>
+  <si>
+    <t>ЗАКАЗ КЛИЕНТА</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;p&gt;Для создания заказа необходимо в разделе &lt;b&gt;Продажи&lt;/b&gt; &amp;ndash; &lt;b&gt;Дополнительные обработки&lt;/b&gt; открыть &lt;span style="text-decoration: underline;"&gt;&lt;b&gt;Мегапрайс: Рабочее место менеджера по продажам&lt;/b&gt;&lt;/span&gt;:&lt;/p&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>/imgs/2_1.png</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;p&gt;В шапке обработки указывается:&lt;br /&gt;- &lt;b&gt;Организация&lt;/b&gt; &amp;ndash; организация&amp;mdash;продавец, указанная в договоре и/или спецификации&lt;br /&gt;- &lt;b&gt;Партнер&lt;/b&gt; &lt;b </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
+        <rFont val="consolas"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="E3E3E3" tint="0"/>
+        <sz val="9"/>
       </rPr>
-      <t xml:space="preserve"> помощника осуществляется поиск дублей по любой внесенной информации. Если клиент уже создан, то в нижней части экрана появляется информация о том, за каким отделом закреплен партнер. Для получения доступа нужно обратиться к директору по развитию ЭМК. Если дублей не обнаружено, то происходит переход на третий шаг помощника.</t>
-    </r>
-  </si>
-  <si>
-    <t>/imgs/1_3.png</t>
-  </si>
-  <si>
-    <r>
-      <t>На третьем шаге помощника система заполняет Рабочее наименование партнера (то наименование, которое отображается в списке партнеров). Для упрощения работы рекомендуется не помещать наименование в кавычки и другие символы; форму собственности (если есть необходимость видеть ее в списке) переносить в конец строки. Данное наименование используется только в 1С и не выводится на печать.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	Основной менеджер подставляется автоматически пользователем, который создает карточку партнера и может быть изменена вручную. По данному полю может быть установлен отбор в списке партнеров.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	Основной менеджер Арма – сотрудники коммерческого отдела (далее КО) не заполняют</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	Головное предприятие – сотрудники КО не заполняют</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	Группа доступа заполняется обязательно. Менеджер выбирает ту группу, к которой у него есть доступ.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	Бизнес-регион также заполняется обязательно (по месту расположения КО) для того, чтобы можно было формировать отчеты в разрезе этих данных.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	Тип отношений – обязательный реквизит – клиент, конкурент, поставщик или прочие отношения.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">-	Юридический адрес может заполняться автоматически по ИНН. Менеджер КО заполняет фактический адрес. </t>
-    </r>
-  </si>
-  <si>
-    <t>/imgs/1_4.png</t>
-  </si>
-  <si>
-    <r>
-      <t>На четвертом шаге помощника:</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	Отрасль компании – обязательно нужно заполнить, в разрезе этих данных формируются многие отчеты.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	Поле Основание (договор) не обязательно к заполнению</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	Флаг Проектный институт - КО не устанавливают.</t>
-    </r>
-  </si>
-  <si>
-    <t>/imgs/1_5.png</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">На </t>
+      <t>style</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
+        <rFont val="consolas"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="E3E3E3" tint="0"/>
+        <sz val="9"/>
       </rPr>
-      <t>пятом шаге</t>
+      <t>="</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
+        <rFont val="consolas"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="E3E3E3" tint="0"/>
+        <sz val="9"/>
       </rPr>
-      <t xml:space="preserve"> помощника возможно внести данные </t>
+      <t>color: red;</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <i val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
+        <rFont val="consolas"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="E3E3E3" tint="0"/>
+        <sz val="9"/>
       </rPr>
-      <t>банковского счета</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">. Если этих данных на момент регистрации партнера нет, это можно сделать позже. Банковские реквизиты заполняются на основании данных, предоставленных партнером (карта партнера). </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">На последнем, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>шестом шаге</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> помощника производится проверка внесенных ранее данных. Далее нужно оставить установленным флаг «</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <i val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Открыть форму вновь созданного партнера для указания дополнительной информации»</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">, и нажать кнопку </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <i val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Создать</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">. Откроется карточка вновь созданного партнера. </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>/imgs/1_6.png</t>
-  </si>
-  <si>
-    <t>ЗАКАЗ КЛИЕНТА</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Для создания заказа необходимо в разделе </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Продажи</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> – </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Дополнительные обработки</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> открыть </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-        <u val="single"/>
-      </rPr>
-      <t>Мегапрайс: Рабочее место менеджера по продажам:</t>
-    </r>
-  </si>
-  <si>
-    <t>/imgs/2_1.png</t>
-  </si>
-  <si>
-    <r>
-      <t>В шапке обработки указывается:</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	Организация – организация—продавец, указанная в договоре и/или спецификации</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">-	Партнер ВАЖНО! Выбирать того партнера, которому будет производиться отгрузка. Если в карточке Партнера нет Визы клиента и нет возможности его выбрать в заказе, то в комментариях в заказе нужно указать наименование и ИНН верного контрагента. </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	Соглашение – Типовое соглашение по договорам или Предоплата 100%. При необходимости в заказе клиента его можно поменять.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	Склад продажи – склад или группа складов, с которых в дальнейшем будет оформлена отгрузка.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>В верхней табличной части обработки осуществляется поиск товара, на который нужно выставить счет. Двойной клик левой кнопки мыши переносит номенклатуру в корзину в нижней части обработки в одноименной закладке.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
+      <t>"</t>
+    </r>
+    <r>
+      <t>&gt;ВАЖНО!&lt;/b&gt; Выбирать того партнера, которому будет производиться отгрузка. Если в карточке &lt;b&gt;Партнера&lt;/b&gt; нет &lt;b&gt;Визы клиента &lt;/b&gt; и нет возможности его выбрать в заказе, то в комментариях в заказе нужно указать наименование и ИНН верного контрагента. &lt;br /&gt;- &lt;b&gt;Соглашение &lt;/b&gt; &amp;ndash; Типовое соглашение по договорам или Предоплата 100%. При необходимости в заказе клиента его можно поменять.&lt;br /&gt;- &lt;b&gt;Склад продажи&lt;/b&gt; &amp;ndash; склад или группа складов, с которых в дальнейшем будет оформлена отгрузка.&lt;br /&gt;В верхней табличной части обработки осуществляется поиск товара, на который нужно выставить счет. Двойной клик левой кнопки мыши переносит номенклатуру в корзину в нижней части обработки в одноименной закладке.&lt;/p&gt;</t>
     </r>
   </si>
   <si>
     <t>/imgs/2_2.png</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">После того, как сформирована </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>корзина,</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> нужно нажать кнопку </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Заказ</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> – создается документ, который по необходимости редактируется.</t>
-    </r>
+    <t>&lt;p&gt;После того, как сформирована &lt;b&gt;корзина&lt;/b&gt;, нужно нажать кнопку &lt;b&gt;Заказ&lt;/b&gt; &amp;ndash; создается документ, который по необходимости редактируется.&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/2_3.png</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Для того, чтобы появилось поле </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Договор</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">, нужно перевыбрать </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Соглашение</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Если используется соглашение, отличное от «ТИПОВОЕ СОГЛАШЕНИЕ Предоплата 100%», то в заказе необходимо указание договора, по которому осуществляется отгрузка и оплата. Если договор находится на согласовании и выбрать его сейчас невозможно, то в комментариях к заказу нужно указать номер и дату правильного договора. После согласования обязательно выбрать верный договор в заказе.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Если с клиентом работаем по соглашению ТИПОВОЕ СОГЛАШЕНИЕ Предоплата 100%, то для бухгалтерии номер и дату реально заключенного договора/либо счета необходимо прописывать в комментариях к заказу.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>В поле Комментарий прописываются условия по договору (оплата, доставка), а также вышеуказанная информация если она есть.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">Закладка Товары заполняется номенклатура, которая будет списываться с остатков склада. В случае использования комплектов здесь указываются комплектующие. Если в отделе есть главные инженеры проектов, то данные о составах комплектов подают они. </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
+    <t>&lt;p&gt;Для того, чтобы появилось поле &lt;b&gt;Договор&lt;/b&gt;, нужно перевыбрать &lt;b&gt;Соглашение&lt;/b&gt;.&lt;br /&gt;Если используется соглашение, отличное от &amp;laquo;ТИПОВОЕ СОГЛАШЕНИЕ Предоплата 100%&amp;raquo;, то в заказе необходимо указание договора, по которому осуществляется отгрузка и оплата. Если договор находится на согласовании и выбрать его сейчас невозможно, то в комментариях к заказу нужно указать номер и дату правильного договора. После согласования обязательно выбрать верный договор в заказе.&lt;br /&gt;Если с клиентом работаем по соглашению &lt;b&gt;ТИПОВОЕ СОГЛАШЕНИЕ Предоплата 100%&lt;/b&gt;, то для бухгалтерии номер и дату реально заключенного договора/либо счета необходимо прописывать в комментариях к заказу.&lt;br /&gt;В поле &lt;b&gt;Комментарий&lt;/b&gt; прописываются условия по договору (оплата, доставка), а также вышеуказанная информация если она есть.&lt;br /&gt;Закладка &lt;b&gt;Товары&lt;/b&gt; заполняется номенклатура, которая будет списываться с остатков склада. В случае использования комплектов здесь указываются &lt;b&gt;комплектующие&lt;/b&gt;. Если в отделе есть главные инженеры проектов, то данные о составах комплектов подают они.&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/2_4.png</t>
   </si>
   <si>
-    <t>В колонке «№ комплекта» указывается, какая комплектующая к какому комплекту относится, а также количество товара, используемое на один комплект.</t>
+    <t>&lt;p&gt;В колонке &amp;laquo;№ комплекта&amp;raquo; указывается, какая комплектующая к какому комплекту относится, а также количество товара, используемое на один комплект.&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/2_5.png</t>
   </si>
   <si>
-    <r>
-      <t>В колонке Действия устанавливается:</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	Резервировать на складе – если товар есть в наличии, ожидается предоплата (см. рисунок ниже, зеленая рамка);</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	Отгрузить – если товар есть в наличии, работаем с клиентом по постоплате (см. рисунок ниже, голубая рамка);</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	К обеспечению + установить галочку в поле «Обособленно» – если товара нет в наличии, изготавливаем или закупаем под клиента (см. рисунок ниже, красные рамки)</t>
-    </r>
+    <t>&lt;p&gt;В колонке &lt;b&gt;Действия&lt;/b&gt; устанавливается:&lt;br /&gt;- &lt;b&gt;&lt;span style="text-decoration: underline;"&gt;Резервировать&lt;/span&gt; на складе&lt;/b&gt; &amp;ndash; если товар есть в наличии, ожидается предоплата (см. рисунок ниже, зеленая рамка);&lt;br /&gt;- &lt;span style="text-decoration: underline;"&gt;&lt;b&gt;Отгрузить&lt;/b&gt; &lt;/span&gt;&amp;ndash; если товар есть в наличии, работаем с клиентом по постоплате (см. рисунок ниже, голубая рамка);&lt;br /&gt;- &lt;span style="text-decoration: underline;"&gt;&lt;b&gt;К обеспечению + установить галочку в поле &amp;laquo;Обособленно&amp;raquo;&lt;/b&gt;&lt;/span&gt; &amp;ndash; если товара нет в наличии, изготавливаем или закупаем под клиента (см. рисунок ниже, красные рамки)&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/2_6.png</t>
   </si>
   <si>
-    <r>
-      <t>В колонке Склад выбирается место отгрузки (возможно выбрать разные склады для разных строк товара). Какие товары на каких складах находятся расписаны в отдельном файле. Если отгрузка производится с завода или от стороннего поставщика (Не «наши заводы», отличные от САЗа, ВАЗа, Прогресса, КСА, Регулятора, Тулаэлектропривода), выбирается склад ТРАНЗИТ.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>Колонки Количество и Цена проставляются в соответствии со спецификацией.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>Если производится работа по комплектам, то необходимо изменить цену основной комплектующей таким образам, чтобы сумма всех комплектующих по комплекту на закладке Товары стала равна сумме комплекта на закладке Товары на печать.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>Колонка Базовая заполняется по данным от главного инженера проекта. Если в КО нет ГИП, то данные вопросы решают сами менеджеры. Перед заполнением колонки Базовая убедитесь, что на закладке Дополнительно в поле Текущий расчетный прайс установлено значение Основной прайс:</t>
-    </r>
+    <t>&lt;p&gt;В колонке &lt;b&gt;Склад&lt;/b&gt; выбирается место отгрузки (возможно выбрать разные склады для разных строк товара). Какие товары на каких складах находятся расписаны в отдельном файле. Если отгрузка производится с завода или от стороннего поставщика (Не &amp;laquo;наши заводы&amp;raquo;, отличные от САЗа, ВАЗа, Прогресса, КСА, Регулятора, Тулаэлектропривода), выбирается склад ТРАНЗИТ.&lt;br /&gt;Колонки &lt;b&gt;Количество и Цена&lt;/b&gt; проставляются в соответствии со спецификацией.&lt;br /&gt;Если производится работа по комплектам, то необходимо изменить цену основной комплектующей таким образам, чтобы сумма всех комплектующих по комплекту на закладке &lt;b&gt;Товары&lt;/b&gt; стала равна сумме комплекта на закладке &lt;b&gt;Товары на печать&lt;/b&gt;.&lt;br /&gt;Колонка &lt;b&gt;Базовая&lt;/b&gt; заполняется по данным от главного инженера проекта. Если в КО нет ГИП, то данные вопросы решают сами менеджеры. Перед заполнением колонки &lt;b&gt;Базовая&lt;/b&gt; убедитесь, что на закладке &lt;b&gt;Дополнительно&lt;/b&gt; в поле &lt;b&gt;Текущий расчетный прайс&lt;/b&gt; установлено значение &lt;span style="text-decoration: underline;"&gt;&lt;b&gt;Основной прайс&lt;/b&gt;&lt;/span&gt;:&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/2_7.png</t>
   </si>
   <si>
-    <t>Обязательно заполняем вкладку Товары на печать путем копирования строк закладки Товары. Если присутствуют комплекты, то копируем строку с основной комплектующей:</t>
+    <t>&lt;p&gt;Обязательно заполняем вкладку &lt;b&gt;Товары на печать&lt;/b&gt; путем копирования строк закладки &lt;b&gt;Товары&lt;/b&gt;. Если присутствуют комплекты, то копируем строку с основной комплектующей:&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/2_8.png</t>
   </si>
   <si>
-    <r>
-      <t>В колонке Наименование указывается наименование комплекта согласно договору/спецификации/счету.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>В колонке Цена – сумма цен по всем комплектующим. Общая сумма по комплекту (на закладке Товары на печать) должна быть равна сумме комплектующих (на закладке Товары). Закладка (наименование, количество, единица измерения, цена, НДС) должна быть заполнена обязательно в соответствии со спецификацией.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>Внимание!!! Обязательно прикладывать подписанную с обеих сторон спецификацию.</t>
-    </r>
+    <t>&lt;p&gt;В колонке &lt;b&gt;Наименование&lt;/b&gt; указывается наименование комплекта согласно договору/спецификации/счету.&lt;br /&gt;В колонке &lt;b&gt;Цена&lt;/b&gt; &amp;ndash; сумма цен по всем комплектующим. Общая сумма по комплекту (на закладке &lt;b&gt;Товары на печать&lt;/b&gt;) должна быть равна сумме комплектующих (на закладке &lt;b&gt;Товары&lt;/b&gt;). Закладка (наименование, количество, единица измерения, цена, НДС) должна быть заполнена обязательно в соответствии со спецификацией.&lt;br /&gt;&lt;b style='color:red'&gt;Внимание!!!&lt;/b&gt; Обязательно прикладывать подписанную с обеих сторон спецификацию.&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/2_9.png</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Внимание!!! </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Обязательно проставлять дату отгрузки в соответствии с контрактными сроками по спецификации (не более 150 дней) в случае превышения контрактного срока более 150 дней необходимо согласования КД.</t>
-    </r>
+    <t>&lt;p&gt;&lt;b style='color: red'&gt;Внимание!!!&lt;/b&gt; Обязательно проставлять дату отгрузки в соответствии с контрактными сроками по спецификации (не более 150 дней) в случае превышения контрактного срока более 150 дней необходимо согласования КД.&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/2_10.png</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Кнопке </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Печать</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> доступны печатные формы документа, в частности, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <i val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-        <u val="single"/>
-      </rPr>
-      <t>Счет покупателю с печатью и подписью:</t>
-    </r>
+    <t>&lt;p&gt;Кнопке &lt;b&gt;Печать&lt;/b&gt; доступны печатные формы документа, в частности, &lt;span style="text-decoration: underline;"&gt;&lt;b&gt;Счет покупателю с печатью и подписью:&lt;/b&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/2_11.png</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Документ можно распечатать (с предварительным просмотром и настройкой печати) или сохранить в файл. </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">В печатную форму счета на оплату подставляется тот банковский счет организации, который был выбран в Договоре, если договора нет, то подставляется основой банковский счет организации. </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>Внимание!!! В печатную форму Счета на оплату подставляется текст комментариев, его нужно редактировать вручную, удаляя информацию для внутреннего использования (например, «раздельная поставка»)!!!</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>Внимание!!! Если сотрудник официально не трудоустроен в Юридическом лице, от которого производит отгрузку, третью подпись с должностью и своим ФИО необходимо удалить из счета на оплату, если сотрудник числится в данном Юр. лице, проверяем наименование должности (поскольку наименование должности, которая выводится на печать автоматически, не совпадает с должностью, указанной в трудовом договоре с сотрудником)</t>
-    </r>
+    <t>&lt;p&gt;Документ можно распечатать (с предварительным просмотром и настройкой печати) или сохранить в файл. &lt;br /&gt;В печатную форму счета на оплату подставляется тот банковский счет организации, который был выбран в &lt;b&gt;Договоре&lt;/b&gt;, если договора нет, то подставляется основой банковский счет организации. &lt;br /&gt;&lt;span style="color: red;"&gt;&lt;b&gt;Внимание!!!&lt;/b&gt;&lt;/span&gt; В печатную форму &lt;b&gt;Счета на оплату&lt;/b&gt; подставляется текст комментариев, его нужно редактировать вручную, удаляя информацию для внутреннего использования (например, &amp;laquo;раздельная поставка&amp;raquo;)!!!&lt;br /&gt;&lt;span style="color: red;"&gt;&lt;b&gt;Внимание!!!&lt;/b&gt;&lt;/span&gt; Если сотрудник официально не трудоустроен в Юридическом лице, от которого производит отгрузку, третью подпись с должностью и своим ФИО необходимо удалить из счета на оплату, если сотрудник числится в данном Юр. лице, проверяем наименование должности (поскольку наименование должности, которая выводится на печать автоматически, не совпадает с должностью, указанной в трудовом договоре с сотрудником)&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/2_12.png</t>
@@ -855,74 +232,19 @@
     <t>ДОГОВОР</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Договор клиента можно создать в карточке </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Партнера</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t xml:space="preserve"> по ссылке </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <i val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Договоры</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>:</t>
-    </r>
+    <t>&lt;p&gt;Договор клиента можно создать в карточке &lt;b&gt;Партнера&lt;/b&gt; по ссылке &lt;b&gt;Договоры&lt;/b&gt;:&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/3_1.png</t>
   </si>
   <si>
-    <r>
-      <t>В полях Номер, Дата, Наименование договора необходимо указывать реальные данные. Не допускается указание произвольных значений.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>Организация и Счет организации – обязательно проверяем, т.к. эти реквизиты попадают в печатную форму документов. Счет организации обязательно выбираем тот, который указан в договоре с заказчиком</t>
-    </r>
+    <t>&lt;p&gt;В полях &lt;b&gt;Номер, Дата, Наименование&lt;/b&gt; договора необходимо указывать реальные данные. Не допускается указание произвольных значений.&lt;br /&gt;&lt;b&gt;Организация и Счет организации&lt;/b&gt; &amp;ndash; обязательно проверяем, т.к. эти реквизиты попадают в печатную форму документов. Счет организации обязательно выбираем тот, который указан в договоре с заказчиком&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/3_2.png</t>
   </si>
   <si>
-    <r>
-      <t>По ссылке Файлы для юристов необходимо прикрепить скан-копию договора.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>Далее договор согласовывается с юристами.</t>
-    </r>
+    <t>&lt;p&gt;По ссылке &lt;b&gt;Файлы&lt;/b&gt; для юристов необходимо прикрепить скан-копию договора.&lt;br /&gt;Далее договор согласовывается с юристами.&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/3_3.png</t>
@@ -931,637 +253,91 @@
     <t>ПРИВЯЗКА ОПЛАТЫ</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Проверить наличие нераспределенных оплат можно в журнале </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Список нераспределенных денежных средств</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> в разделе </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Казначейство</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>:</t>
-    </r>
+    <t>&lt;p&gt;Проверить наличие нераспределенных оплат можно в журнале &lt;b&gt;Список нераспределенных денежных средств&lt;/b&gt; в разделе &lt;b&gt;Казначейство&lt;/b&gt;:&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/4_1.png</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">При необходимости настраивается отбор по </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <i val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-        <u val="single"/>
-      </rPr>
-      <t>периоду</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> и </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <i val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-        <u val="single"/>
-      </rPr>
-      <t>клиенту</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> или другим интересующим реквизитам:</t>
-    </r>
+    <t>&lt;p&gt;При необходимости настраивается отбор по &lt;span style="text-decoration: underline;"&gt;&lt;b&gt;периоду&lt;/b&gt;&lt;/span&gt;&lt;b&gt;&amp;nbsp;&lt;/b&gt;и &lt;span style="text-decoration: underline;"&gt;&lt;b&gt;клиенту&lt;/b&gt; &lt;/span&gt;или другим интересующим реквизитам:&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/4_2.png</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">После того, как </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Поступления безналичных ДС</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> будет загружены в программу, их нужно привязать к заказам. Для этого в документе </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Заказ клиента</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> нужно перейти по кнопке </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Зачет оплаты</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> на закладке </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Основное</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>:</t>
-    </r>
+    <t>&lt;p&gt;После того, как &lt;b&gt;Поступления безналичных ДС&lt;/b&gt; будет загружены в программу, их нужно привязать к заказам. Для этого в документе &lt;b&gt;Заказ клиента&lt;/b&gt; нужно перейти по кнопке &lt;b&gt;Зачет оплаты&lt;/b&gt; на закладке &lt;b&gt;Основное&lt;/b&gt;:&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/4_3.png</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Во вновь открывшемся окне перейти на закладку </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Неиспользованные авансы</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>. Если нужная платежка не отображается, переключиться на режим просмотра документов «</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>По всем договорам клиента»:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t>&lt;p&gt;Во вновь открывшемся окне перейти на закладку &lt;b&gt;Неиспользованные авансы&lt;/b&gt;. Если нужная платежка не отображается, переключиться на режим просмотра документов &amp;laquo;&lt;b&gt;По всем договорам клиента&lt;/b&gt;&amp;raquo;: &lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/4_4.png</t>
   </si>
   <si>
-    <r>
-      <t>Далее выделить нужную платежку и нажать кнопку «</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Установить договор в платежке»</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
+    <t>&lt;p&gt;Далее выделить нужную платежку и нажать кнопку &amp;laquo;&lt;b&gt;Установить договор в платежке&lt;/b&gt;&amp;raquo;: &lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/4_5.png</t>
   </si>
   <si>
-    <r>
-      <t>Важно!</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> Оплата должна быть произведена именно по тому договору/спецификации, который указываются в заказе:</t>
-    </r>
+    <t>&lt;p&gt;&lt;span style="color: red;"&gt;&lt;b&gt;Важно!&lt;/b&gt; &lt;/span&gt;Оплата должна быть произведена именно по тому договору/спецификации, который указываются в заказе:&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/4_6.png</t>
   </si>
   <si>
-    <r>
-      <t>Внимание! Дата Заказа клиента должна быть раньше даты Поступления безналичных ДС. В противоположном случае нужно поменять дату заказа.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>Если появляется сообщение о том, что установить договор по документу можно только с пустым договором, то это значит, что платежка уже привязана частично к заказу с другим договором. Привязка остаточной суммы производится сотрудниками Отдела Товарного Учета.</t>
-    </r>
+    <t>&lt;p&gt;&lt;span style="color: red"&gt;&lt;b&gt;Внимание!&lt;/b&gt;&lt;/span&gt; &lt;b&gt;Дата Заказа клиента&lt;/b&gt; должна быть раньше даты &lt;b&gt;Поступления безналичных ДС&lt;/b&gt;. В противоположном случае нужно поменять дату заказа.&lt;br /&gt;Если появляется сообщение о том, что установить договор по документу можно только с пустым договором, то это значит, что платежка уже привязана частично к заказу с другим договором. Привязка остаточной суммы производится сотрудниками Отдела Товарного Учета.&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/4_7.png</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">После того, как в платежке будет установлен договор, она перемещается на закладку </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Нераспределенные платежи</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>. Нужно нажать кнопку «</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Зачесть платеж»</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">, а затем – </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Выполнить</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>:</t>
-    </r>
+    <t>&lt;p&gt;После того, как в платежке будет установлен договор, она перемещается на закладку &lt;b&gt;Нераспределенные платежи&lt;/b&gt;. Нужно нажать кнопку &amp;laquo;&lt;b&gt;Зачесть платеж&lt;/b&gt;&amp;raquo;, а затем &amp;ndash; &lt;b&gt;Выполнить&lt;/b&gt;:&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/4_8.png</t>
   </si>
   <si>
-    <t>В заказе отобразится сумма и процент привязанной оплаты:</t>
+    <t>&lt;p&gt;В заказе отобразится сумма и процент привязанной оплаты:&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/4_9.png</t>
   </si>
   <si>
-    <r>
-      <t>Внимание!</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> Одна платежка может быть привязана к нескольким заказам. Информация по какому/каким заказам произведена оплата прописана в документе </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Поступление безналичных ДС</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> в поле </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Назначение платежа.</t>
-    </r>
+    <t>&lt;p&gt;&lt;span style="color: red;"&gt;&lt;b&gt;Внимание!&lt;/b&gt;&lt;/span&gt; Одна платежка может быть привязана к нескольким заказам. Информация по какому/каким заказам произведена оплата прописана в документе &lt;b&gt;Поступление безналичных ДС&lt;/b&gt; в поле &lt;b&gt;Назначение платежа&lt;/b&gt;.&lt;/p&gt;</t>
   </si>
   <si>
     <t>СЧЕТ-ФАКТУРА ВЫДАННЫЙ (АВАНС)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Если была внесена предоплата, то менеджер в пятидневный срок обязательно должен оформить документ </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Счет-фактура выданный (аванс)</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t xml:space="preserve">. Создается он на основании документа </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Поступление безналичных ДС (</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t xml:space="preserve">документ расположен в разделе </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Казначейство – Безналичные платежи</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>):</t>
-    </r>
+    <t>&lt;p&gt;Если была внесена предоплата, то менеджер в пятидневный срок обязательно должен оформить документ &lt;b&gt;Счет-фактура выданный (аванс)&lt;/b&gt;. Создается он на основании документа &lt;b&gt;Поступление безналичных ДС&lt;/b&gt; (документ расположен в разделе &lt;b&gt;Казначейство &amp;ndash; Безналичные платежи&lt;/b&gt;):&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/5_1.png</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">На закладке </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Основное</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t xml:space="preserve"> вручную устанавливается </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Номер</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color rgb="C00000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t xml:space="preserve">и </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Дата</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t xml:space="preserve"> (поступления ДС на наш расчетный счет) документа </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>(в случае ТД Энергомашкомплект номер узнавать у бухгалтерии)</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>:</t>
-    </r>
+    <t>&lt;p&gt;На закладке &lt;b&gt;Основное&lt;/b&gt; вручную устанавливается &lt;b&gt;Номер&lt;/b&gt; и &lt;b&gt;Дата&lt;/b&gt; (поступления ДС на наш расчетный счет) документа &lt;b&gt;(в случае ТД Энергомашкомплект номер узнавать у бухгалтерии)&lt;/b&gt;:&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/5_2.png</t>
   </si>
   <si>
-    <r>
-      <t>Далее нужно нажать кнопку «</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Заполнить по платежу»</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t xml:space="preserve">, на закладе </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Авансы</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t xml:space="preserve"> табличная часть должна быть заполнена данными из платежки (основание платежа и полная сумма из платежки в одной строке):</t>
-    </r>
+    <t>&lt;p&gt;Далее нужно нажать кнопку &amp;laquo;&lt;b&gt;Заполнить по платежу&lt;/b&gt;&amp;raquo;, на закладе &lt;b&gt;Авансы&lt;/b&gt; табличная часть должна быть заполнена данными из платежки (основание платежа и полная сумма из платежки в одной строке):&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/5_3.png</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">По кнопке </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Печать</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t xml:space="preserve"> выводится печатная форма документа:</t>
-    </r>
+    <t>&lt;p&gt;По кнопке &lt;b&gt;Печать&lt;/b&gt; выводится печатная форма документа:&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/5_4.png</t>
   </si>
   <si>
-    <r>
-      <t>Внимание!</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <color rgb="FF0000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Грузополучатель</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t xml:space="preserve"> и </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Грузоотправитель</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t xml:space="preserve"> не заполняется! Необходимо проверить правильность заполнения № сч-ф, даты, ИНН/КПП и адреса покупателя. В табличной части должна быть одна строка!</t>
-    </r>
+    <t>&lt;p&gt;&lt;span style="color: red;"&gt;&lt;b&gt;Внимание!&lt;/b&gt;&lt;/span&gt; &lt;b&gt;Грузополучатель&lt;/b&gt; и &lt;b&gt;Грузоотправитель&lt;/b&gt; не заполняется! Необходимо проверить правильность заполнения № сч-ф, даты, ИНН/КПП и адреса покупателя. В табличной части должна быть одна строка!&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/5_5.png</t>
@@ -1570,222 +346,55 @@
     <t>ЗАКАЗ ПОСТАВЩИКУ НА ПРОИЗВОДСТВЕННУЮ ПЛОЩАДКУ</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">На основании </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Заказа клиента</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> создается </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Заказ поставщику</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>.</t>
-    </r>
+    <t>&lt;p&gt;На основании &lt;b&gt;Заказа&lt;/b&gt; клиента создается &lt;b&gt;Заказ поставщику&lt;/b&gt;.&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/6_1.png</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">В закладке Основное заполняется: </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">-	Поставщик/Контрагент (САЗ ЗАО, ИПЦ ЗАО, КСА ЗАО, Регулятор НПО, САЗ ЗАО КОМПЕНСАТОРЫ); </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">-	Организация указывается «СКЛАД»; </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">-	Склад указывается «УПТК-1» или «ТРАНЗИТ»; </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">-	Договор подгружается автоматически; </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	в Комментарии указывается требования к изготовлению продукции.</t>
-    </r>
+    <t>&lt;p&gt;В закладке &lt;b&gt;Основное&lt;/b&gt; заполняется: &lt;br /&gt;- &lt;b&gt;Поставщик/Контрагент&lt;/b&gt; (САЗ ЗАО, ИПЦ ЗАО, КСА ЗАО, Регулятор НПО, САЗ ЗАО КОМПЕНСАТОРЫ); &lt;br /&gt;- &lt;b&gt;Организация&lt;/b&gt; указывается &amp;laquo;СКЛАД&amp;raquo;; &lt;br /&gt;- &lt;b&gt;Склад&lt;/b&gt; указывается &amp;laquo;УПТК-1&amp;raquo; или &amp;laquo;ТРАНЗИТ&amp;raquo;; &lt;br /&gt;- &lt;b&gt;Договор&lt;/b&gt; подгружается автоматически; &lt;br /&gt;- в &lt;b&gt;Комментарии&lt;/b&gt; указывается требования к изготовлению продукции.&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/6_2.png</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">В закладке Товары </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">-	Назначение заполняется автоматически; </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	Комментарий, Цена заполняется на основании бланка для заказа, задачи на расценку, ОЛ.</t>
-    </r>
+    <t>&lt;p&gt;В закладке &lt;b&gt;Товары&lt;/b&gt; &lt;br /&gt;- &lt;b&gt;Назначение&lt;/b&gt; заполняется автоматически; &lt;br /&gt;- &lt;b&gt;Комментарий&lt;/b&gt;, &lt;b&gt;Цена&lt;/b&gt; заполняется на основании бланка для заказа, задачи на расценку, ОЛ.&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/6_3.png</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">В закладке </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Доставка</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> остается неизменным.</t>
-    </r>
+    <t>&lt;p&gt;В закладке &lt;b&gt;Доставка&lt;/b&gt; остается неизменным.&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/6_4.png</t>
   </si>
   <si>
-    <r>
-      <t>В закладке «Дополнительно»:</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">-	Выбираем «Цена включает НДС» (ставим галочку); </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	Налогообложение «Закупка облагается НДС».</t>
-    </r>
+    <t>&lt;p&gt;В закладке &amp;laquo;&lt;b&gt;Дополнительно&lt;/b&gt;&amp;raquo;:&lt;br /&gt;- Выбираем &amp;laquo;&lt;b&gt;Цена включает НДС&lt;/b&gt;&amp;raquo; (ставим галочку); &lt;br /&gt;- Налогообложение &amp;laquo;&lt;b&gt;Закупка облагается НДС&lt;/b&gt;&amp;raquo;.&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/6_5.png</t>
   </si>
   <si>
-    <r>
-      <t>Внимание!</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> Заказ поставщику необходимо провести. Далее нажать кнопку Печать и выбрать нужную производственную площадку. </t>
-    </r>
+    <t>&lt;p&gt;&lt;span style="color: red;"&gt;&lt;b&gt;Внимание!&lt;/b&gt;&lt;/span&gt; Заказ поставщику необходимо провести. Далее нажать кнопку Печать и выбрать нужную производственную площадку. &lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/6_6.png</t>
   </si>
   <si>
-    <r>
-      <t>Внимание! Заказ поставщику подписывается в КД, кроме Заказа поставщику на АО НПО «Регулятор».</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>После подписания Заказа поставщику создается задача в программе «Мотив». Открываем родительскую задачу по проекту, переходим во вкладку Описание, нажимаем «Создать подзадачу».</t>
-    </r>
+    <t>&lt;p&gt;&lt;span style="color: red;"&gt;&lt;b&gt;Внимание!&lt;/b&gt;&lt;/span&gt; Заказ поставщику подписывается в КД, кроме Заказа поставщику на АО НПО &amp;laquo;Регулятор&amp;raquo;.&lt;br /&gt;После подписания Заказа поставщику создается задача в программе &amp;laquo;Мотив&amp;raquo;. Открываем родительскую задачу по проекту, переходим во вкладку Описание, нажимаем &amp;laquo;Создать подзадачу&amp;raquo;.&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/6_7.png</t>
   </si>
   <si>
-    <t>В появившейся новой вкладке заполняем нужные параметры.</t>
+    <t>&lt;p&gt;В появившейся новой вкладке заполняем нужные параметры.&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/6_8.png</t>
   </si>
   <si>
-    <r>
-      <t>Внимание!</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	Для оформления заказа на ЗАО «САЗ» необходимо учитывать возможности изготовления продукции каждого цеха (продукция диаметром до Ду100 (включительно) и продукция свыше Ду100 (не включая) оформляются в два разных заказа поставщику).</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	Для ЗАО «САЗ» необходимо объединять позиции в заказе поставщику с одинаковой номенклатурой, описанием и ценой.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	Для ЗАО «КСА» в закладке «Дополнительно» необходимо заполнять «Приемку представителем заказчика» и «Требования к документации».</t>
-    </r>
+    <t>&lt;p&gt;&lt;span style="color: red;"&gt;&lt;b&gt;Внимание!&lt;/b&gt;&lt;/span&gt;&lt;br /&gt;- Для оформления заказа на &lt;b&gt;ЗАО &amp;laquo;САЗ&amp;raquo;&lt;/b&gt; необходимо учитывать возможности изготовления продукции каждого цеха (продукция диаметром до Ду100 (включительно) и продукция свыше Ду100 (не включая) оформляются в два разных заказа поставщику).&lt;br /&gt;- Для &lt;b&gt;ЗАО &amp;laquo;САЗ&amp;raquo;&lt;/b&gt; необходимо объединять позиции в заказе поставщику с одинаковой номенклатурой, описанием и ценой.&lt;br /&gt;- Для &lt;b&gt;ЗАО &amp;laquo;КСА&amp;raquo;&lt;/b&gt; в закладке &amp;laquo;Дополнительно&amp;raquo; необходимо заполнять &amp;laquo;Приемку представителем заказчика&amp;raquo; и &amp;laquo;Требования к документации&amp;raquo;.&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/6_9.png</t>
@@ -1803,265 +412,43 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>ЛСЗ создается из основного счета, в случае если заказанная продукция будет переделываться создается из «Левого счета».</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">В «Левом счете» в закладке Основное заполняемые параметры идентичны Заказу клиента до поступления продукции под Склад. </t>
-    </r>
+    <t>&lt;p&gt;ЛСЗ создается из основного счета, в случае если заказанная продукция будет переделываться создается из &amp;laquo;Левого счета&amp;raquo;.&lt;br /&gt;В &amp;laquo;Левом счете&amp;raquo; в закладке &lt;b&gt;Основное&lt;/b&gt; заполняемые параметры идентичны &lt;b&gt;Заказу клиента&lt;/b&gt; до поступления продукции под Склад. &lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/7_1.png</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Закладка </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">Товары </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">заполняется номенклатура, которая будет списываться с остатков склада. Колонка </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>№ комплекта</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> не заполняется. В колонке </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Действия</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> устанавливается значение «</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">К обеспечению» </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">и галочка </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>«обособленно»</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <i val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">В колонке </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Склад</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> выбирается место отгрузки. Колонки </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Количество</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> проставляется в соответствии с производственной необходимостью. В колонке </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Базовая</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> устанавливается цена закупки (из коммерческого предложения), в колонке </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Цена</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> устанавливается цена 1С (цена перехода (цена закупки, умноженная на коэффициент)).</t>
-    </r>
+    <t>&lt;p&gt;Закладка &lt;b&gt;Товары&lt;/b&gt; заполняется номенклатура, которая будет списываться с остатков склада. Колонка &lt;b&gt;№ комплекта&lt;/b&gt; не заполняется. В колонке &lt;b&gt;Действия&lt;/b&gt; устанавливается значение &amp;laquo;&lt;b&gt;К обеспечению&lt;/b&gt;&amp;raquo; и галочка &amp;laquo;&lt;b&gt;обособленно&lt;/b&gt;&amp;raquo;. В колонке &lt;b&gt;Склад&lt;/b&gt; выбирается место отгрузки. Колонки &lt;b&gt;Количество&lt;/b&gt; проставляется в соответствии с производственной необходимостью. В колонке &lt;b&gt;Базовая&lt;/b&gt; устанавливается цена закупки (из коммерческого предложения), в колонке &lt;b&gt;Цена&lt;/b&gt; устанавливается цена 1С (цена перехода (цена закупки, умноженная на коэффициент)).&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/7_2.png</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Закладка </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Товары на печать</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> не заполняется.</t>
-    </r>
+    <t>&lt;p&gt;Закладка &lt;b&gt;Товары на печать&lt;/b&gt; не заполняется.&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/7_3.png</t>
   </si>
   <si>
-    <r>
-      <t>Перед согласованием «Левого счета» с коммерческой дирекцией (заместителем коммерческого директора) необходимо убедиться в правильности заполнения счета: номенклатура, количество, цены (базовая, закупки), дату отгрузки и статус «На согласовании». После согласования КД статус изменится на «К выполнению».</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>По кнопке Печать доступны печатные формы документа, в частности, Лист согласования закупки:</t>
-    </r>
+    <t>&lt;p&gt;Перед согласованием &amp;laquo;Левого счета&amp;raquo; с коммерческой дирекцией (заместителем коммерческого директора) необходимо убедиться в правильности заполнения счета: номенклатура, количество, цены (базовая, закупки), дату отгрузки и статус &amp;laquo;На согласовании&amp;raquo;. После согласования КД статус изменится на &amp;laquo;К выполнению&amp;raquo;.&lt;br /&gt;По кнопке &lt;b&gt;Печать&lt;/b&gt; доступны печатные формы документа, в частности, &lt;span style="text-decoration: underline;"&gt;&lt;b&gt;Лист согласования закупки&lt;/b&gt;&lt;/span&gt;:&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/7_4.png</t>
   </si>
   <si>
     <r>
-      <t>Внимание! ЛСЗ подписывается в КД. После подписания ЛСЗ отправляется ответственным за закупку менеджерам на почту. Исключением является заказ в АО «Тулаэлектропривод», оформляется подзадача в системе «Мотив».</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>Внимание! После поступления продукции под склад необходимо изменить Контрагента на производственную площадку (ЗАО «САЗ», ЗАО «КСА», ЗАО «ВАЗ»), где будет происходить доработка продукции и выбрать соглашение «Перемещение на производственную площадку».</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>В случае если КО (коммерческий отдел) самостоятельно закупает продукцию, то оформляется Согласование заказа с КД на основании Счета на оплату, выставленным поставщиком.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>Для оформления Согласования заказа с КД создается «Левый счет». Номенклатура создается самостоятельно через ОТУ.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>На основании «Левого счета» создается Заказ поставщику.</t>
-    </r>
+      <t>&lt;p&gt;&lt;span style="color: red;"&gt;&lt;b&gt;Внимание!&lt;/b&gt;&lt;/span&gt; ЛСЗ подписывается в КД. После подписания ЛСЗ отправляется ответственным за закупку менеджерам на почту. Исключением является заказ в АО &amp;laquo;Тулаэлектропривод&amp;raquo;, оформляется подзадача в системе &amp;laquo;Мотив&amp;raquo;.&lt;/p&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>&lt;p&gt;&lt;span style="color: red;"&gt;&lt;b&gt;Внимание!&lt;/b&gt;&lt;/span&gt; После поступления продукции под склад необходимо изменить Контрагента на производственную площадку (ЗАО &amp;laquo;САЗ&amp;raquo;, ЗАО &amp;laquo;КСА&amp;raquo;, ЗАО &amp;laquo;ВАЗ&amp;raquo;), где будет происходить доработка продукции и выбрать соглашение &amp;laquo;Перемещение на производственную площадку&amp;raquo;.&lt;/p&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;p&gt;В случае если КО (коммерческий отдел) самостоятельно закупает продукцию, то оформляется &lt;b&gt;Согласование&lt;/b&gt; &lt;b&gt;заказа с КД&lt;/b&gt; на основании &lt;b&gt;Счета на оплату&lt;/b&gt;, выставленным поставщиком.&lt;br /&gt;Для оформления &lt;b&gt;Согласования заказа с КД&lt;/b&gt; создается &amp;laquo;&lt;b&gt;Левый счет&lt;/b&gt;&amp;raquo;. Номенклатура создается самостоятельно через ОТУ.&lt;br /&gt;На основании &amp;laquo;&lt;b&gt;Левого счета&lt;/b&gt;&amp;raquo; создается Заказ поставщику.&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/8_1.png</t>
@@ -2079,249 +466,76 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">В закладке Основное заполняется: </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">-	«Поставщик/Контрагент» указываем организацию у кого закупаем; </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">-	«Организация» указываем организацию от кого закупаем; </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">-	«Склад» указывается «УПТК-1» или «ТРАНЗИТ»; </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">-	«Договор» подгружается автоматически; </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	в «Комментарии» указываем счет на оплату.</t>
-    </r>
+    <t>&lt;p&gt;В закладке &lt;b&gt;Основное&lt;/b&gt; заполняется: &lt;br /&gt;- &amp;laquo;&lt;b&gt;Поставщик/Контрагент&lt;/b&gt;&amp;raquo; указываем организацию у кого закупаем; &lt;br /&gt;- &amp;laquo;&lt;b&gt;Организация&lt;/b&gt;&amp;raquo; указываем организацию от кого закупаем; &lt;br /&gt;- &amp;laquo;&lt;b&gt;Склад&lt;/b&gt;&amp;raquo; указывается &amp;laquo;УПТК-1&amp;raquo; или &amp;laquo;ТРАНЗИТ&amp;raquo;; &lt;br /&gt;- &amp;laquo;&lt;b&gt;Договор&lt;/b&gt;&amp;raquo; подгружается автоматически; &lt;br /&gt;- в &amp;laquo;&lt;b&gt;Комментарии&lt;/b&gt;&amp;raquo; указываем счет на оплату.&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/8_2.png</t>
   </si>
   <si>
-    <t xml:space="preserve">Оплата заполняется в соответствии с условиями Счета на оплату/Спецификацией. Дата оплаты проставляется следующим календарным днем на момент подачи в оплату. </t>
+    <t>&lt;p&gt;&lt;b&gt;Оплата&lt;/b&gt; заполняется в соответствии с условиями Счета на оплату/Спецификацией. Дата оплаты проставляется следующим календарным днем на момент подачи в оплату. &lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/8_3.png</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">В закладке Товары </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">-	Назначение заполняется автоматически; </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	Комментарий, Цена заполняется на основании Счета на оплату.</t>
-    </r>
+    <t>&lt;p&gt;В закладке &lt;b&gt;Товары&lt;/b&gt; &lt;br /&gt;- &lt;b&gt;Назначение&lt;/b&gt; заполняется автоматически; &lt;br /&gt;- &lt;b&gt;Комментарий&lt;/b&gt;, &lt;b&gt;Цена&lt;/b&gt; заполняется на основании Счета на оплату.&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/8_4.png</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Кнопке </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Печать</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> доступны печатные формы документа, в частности, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <i val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-        <u val="single"/>
-      </rPr>
-      <t>Согласование заказа с КД.</t>
-    </r>
+    <t>&lt;p&gt;Кнопке &lt;b&gt;Печать&lt;/b&gt; доступны печатные формы документа, в частности, &lt;span style="text-decoration: underline;"&gt;&lt;b&gt;Согласование заказа с КД.&lt;/b&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/8_5.png</t>
   </si>
   <si>
-    <r>
-      <t>Внимание! При подаче согласования заказа с КД прикладывается счет на оплату.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>После того, как Поступления безналичных ДС будут загружены в программу, их нужно привязать к заказу поставщику. Для этого в документе Заказ поставщику нужно перейти по кнопке Зачет оплаты на закладке Основное.</t>
-    </r>
+    <t>&lt;p&gt;&lt;span style="color: red;"&gt;&lt;b&gt;Внимание!&lt;/b&gt;&lt;/span&gt; При подаче согласования заказа с КД прикладывается счет на оплату.&lt;br /&gt;После того, как &lt;b&gt;Поступления безналичных ДС&lt;/b&gt; будут загружены в программу, их нужно привязать к заказу поставщику. Для этого в документе &lt;b&gt;Заказ поставщику&lt;/b&gt; нужно перейти по кнопке &lt;b&gt;Зачет оплаты&lt;/b&gt; на закладке &lt;b&gt;Основное&lt;/b&gt;.&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/8_6.png</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Внимание! </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>После поступления продукции под склад КО необходимо самостоятельно оформить Приобретение товаров и услуг.</t>
-    </r>
+    <t>&lt;p&gt;&lt;span style="color: red;"&gt;&lt;b&gt;Внимание!&lt;/b&gt; &lt;/span&gt;После поступления продукции под склад КО необходимо самостоятельно оформить Приобретение товаров и услуг.&lt;/p&gt;</t>
   </si>
   <si>
     <t>ПРИОБРЕТЕНИЕ ТОВАРОВ И УСЛУГ</t>
   </si>
   <si>
-    <t>Приобретение товаров и услуг создается на основании УПД от поставщика. В программе 1С Приобретение товаров и услуг создается из Заказа поставщику.</t>
+    <t>&lt;p&gt;Приобретение товаров и услуг создается на основании УПД от поставщика. В программе 1С Приобретение товаров и услуг создается из Заказа поставщику.&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/9_1.png</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">В закладке Основное заполняется: </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">■ Дата документа устанавливается реальная дата прихода продукции под склад; </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">■ Установить цену с ТЗР ставим галочку; </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">■ Склад назначения указывается «УПТК-1»; </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>■ Склад ставим кладовщика, у кого хранится продукция.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>Внимание! Закладка Товары заполняется автоматически из Заказа поставщику.</t>
-    </r>
+    <t>&lt;p&gt;В закладке &lt;b&gt;Основное&lt;/b&gt; заполняется: &lt;br /&gt;■ &lt;b&gt;Дата документа&lt;/b&gt; устанавливается реальная дата прихода продукции под склад; &lt;br /&gt;■ &lt;b&gt;Установить цену с ТЗР&lt;/b&gt; ставим галочку; &lt;br /&gt;■ &lt;b&gt;Склад назначения&lt;/b&gt; указывается &amp;laquo;УПТК-1&amp;raquo;; &lt;br /&gt;■ &lt;b&gt;Склад&lt;/b&gt; ставим кладовщика, у кого хранится продукция.&lt;br /&gt;&lt;span style="color: red;"&gt;&lt;b&gt;Внимание!&lt;/b&gt;&lt;/span&gt; Закладка Товары заполняется автоматически из Заказа поставщику.&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/9_2.png</t>
   </si>
   <si>
     <r>
-      <t>Внимание! Необходимо проверить правильность заполнения колонок в закладке Товары с первичными документами от поставщика (УПД): количество, единицы измерения, цену, сумму НДС и сумму с НДС.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>Внимание! В закладке Файл необходимо прикрепить бухгалтерский документ от поставщика.</t>
+      <t>&lt;p&gt;&lt;span style="color: red;"&gt;&lt;b&gt;Внимание!&lt;/b&gt;&lt;/span&gt; Необходимо проверить правильность заполнения колонок в закладке Товары с первичными документами от поставщика (УПД): количество, единицы измерения, цену, сумму НДС и сумму с НДС.&lt;/p&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>&lt;p&gt;&lt;span style="color: red;"&gt;&lt;b&gt;Внимание!&lt;/b&gt;&lt;/span&gt; В закладке Файл необходимо прикрепить бухгалтерский документ от поставщика.&lt;/p&gt;</t>
     </r>
   </si>
   <si>
     <t>/imgs/9_3.png</t>
   </si>
   <si>
-    <r>
-      <t>На основании Приобретения товаров и услуг регистрируется счет-фактура, данные вносятся из УПД от поставщика.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>Внимание! Если поставщик работает без НДС, то счет-фактура не создается.</t>
-    </r>
+    <t>&lt;p&gt;На основании Приобретения товаров и услуг регистрируется счет-фактура, данные вносятся из УПД от поставщика.&lt;br /&gt;&lt;span style="color: red;"&gt;&lt;b&gt;Внимание!&lt;/b&gt;&lt;/span&gt; Если поставщик работает без НДС, то счет-фактура не создается.&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/9_4.png</t>
   </si>
   <si>
-    <r>
-      <t>Внимание!</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <color rgb="FF0000" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Для проведения Приобретения товаров и услуг необходимо позвонить по номеру 2216.</t>
-    </r>
+    <t>&lt;p&gt;&lt;span style="color: red;"&gt;&lt;b&gt;Внимание!&lt;/b&gt;&lt;/span&gt; Для проведения Приобретения товаров и услуг необходимо позвонить по номеру 2216.&lt;/p&gt;</t>
   </si>
   <si>
     <r>
@@ -2336,428 +550,49 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Бухгалтерский документ (Реализация товаров и услуг) создается в том случае, когда поставка комплекта осуществляется частями. Если весь комплект отгружается одновременно см. след. блок.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>Перед созданием бухгалтерского документа нужно в документе Заказ клиента на закладке Дополнительно установить флаг Выписка бухгалтерского документа:</t>
-    </r>
+    <t>&lt;p&gt;&lt;b&gt;Бухгалтерский документ (Реализация товаров и услуг)&lt;/b&gt; создается в том случае, когда поставка комплекта осуществляется частями. &lt;span style="color: red;"&gt;Если весь комплект отгружается одновременно см. след. блок.&lt;/span&gt;&lt;br /&gt;Перед созданием бухгалтерского документа нужно в документе &lt;b&gt;Заказ клиента&lt;/b&gt; на закладке &lt;b&gt;Дополнительно&lt;/b&gt; установить флаг &lt;b&gt;Выписка бухгалтерского документа&lt;/b&gt;:&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/10_1.png</t>
   </si>
   <si>
-    <r>
-      <t>Внимание!</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t xml:space="preserve"> Если бухгалтерский документ создается на весь комплект до того, как заказ ПОЛНОСТЬЮ отгружен, то допоставку остатков по заказу нужно согласовывать с бухгалтерией! Бухгалтерскую реализацию необходимо создавать в один из дней, когда реально уезжал товар.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color rgb="FF0000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t xml:space="preserve">Документ Реализация товаров и услуг создается на основании заказа клиента:	</t>
-    </r>
+    <t>&lt;p&gt;&lt;span style="color: red;"&gt;&lt;b&gt;Внимание!&lt;/b&gt;&lt;/span&gt; Если бухгалтерский документ создается на весь комплект до того, как заказ ПОЛНОСТЬЮ отгружен, то допоставку остатков по заказу нужно согласовывать с бухгалтерией! Бухгалтерскую реализацию необходимо создавать в один из дней, когда реально уезжал товар.&lt;br /&gt;&lt;span style="color: red;"&gt;Документ Реализация товаров и услуг создается на основании заказа клиента:&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/10_2.png</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">В поле </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Комментарий</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> указывать номера и даты документов </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Реализаций товаров и услуг</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>, по которым были реальные отгрузки:</t>
-    </r>
+    <t>&lt;p&gt;В поле &lt;b&gt;Комментарий&lt;/b&gt; указывать номера и даты документов &lt;b&gt;Реализаций товаров и услуг&lt;/b&gt;, по которым были реальные отгрузки:&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/10_3.png</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Закладки </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Товары</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> и </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Товары на печать</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> изначально не заполнены. Нужно перейти на закладку «</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Дополнительно»</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">, установить флаг </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Бухгалтерский документ</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> и нажать ссылку </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Заполнить бухгалтерский документ</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>:</t>
-    </r>
+    <t>&lt;p&gt;Закладки &lt;b&gt;Товары и Товары на печать&lt;/b&gt; изначально не заполнены. Нужно перейти на закладку &amp;laquo;&lt;b&gt;Дополнительно&lt;/b&gt;&amp;raquo;, установить флаг &lt;b&gt;Бухгалтерский документ&lt;/b&gt; и нажать ссылку &lt;b&gt;Заполнить бухгалтерский документ&lt;/b&gt;:&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/10_4.png</t>
   </si>
   <si>
-    <r>
-      <t>Дата</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> документа - дата, когда реально уходила какая-то часть комплекта к клиенту:</t>
-    </r>
+    <t>&lt;p&gt;&lt;b&gt;Дата&lt;/b&gt; документа - дата, когда реально уходила какая-то часть комплекта к клиенту:&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/10_5.png</t>
   </si>
   <si>
-    <r>
-      <t>На закладке Дополнительно по ссылке Реквизиты печати ТОРГ12 заполняется:</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>Документ:</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	Если есть договор, то выбирается из списка договор;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	Если договор в 1С не создается (работа по соглашению ТИПОВОЕ СОГЛАШЕНИЕ Предоплата 100%), то указывается номер и дата спецификации и договора;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t> -	Если договор не заключался совсем, и оплата была по счету, то выбирается Заказ клиента №…, но слова Заказ клиента вручную перебиваются на Счет:</t>
-    </r>
+    <t>&lt;p&gt;На закладке &lt;b&gt;Дополнительно&lt;/b&gt; по ссылке &lt;b&gt;Реквизиты печати ТОРГ12&lt;/b&gt; заполняется:&lt;br /&gt;&lt;b&gt;Документ&lt;/b&gt;:&lt;br /&gt;- Если есть договор, то выбирается из списка договор;&lt;br /&gt;- Если договор в 1С не создается (работа по соглашению ТИПОВОЕ СОГЛАШЕНИЕ Предоплата 100%), то указывается номер и дата спецификации и договора;&lt;br /&gt;&amp;nbsp;- Если договор не заключался совсем, и оплата была по счету, то выбирается Заказ клиента №&amp;hellip;, но слова &lt;span style="text-decoration: underline;"&gt;&lt;b&gt;Заказ клиента&lt;/b&gt;&lt;/span&gt; вручную перебиваются на &lt;span style="text-decoration: underline;"&gt;&lt;b&gt;Счет&lt;/b&gt;&lt;/span&gt;:&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/10_6.png</t>
   </si>
   <si>
-    <r>
-      <t>Внимание!</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> При выгрузке документов в </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Диадок</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> нужно в окошке </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Документ</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> вручную написать </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <i val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-        <u val="single"/>
-      </rPr>
-      <t>Договор № либо Спецификация №… от хх.хх.20хх г. к Договору №</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">, в полях </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Номер</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> и </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Дата</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> указать соответственно номер и дату реального договора, по которому производится работа с клиентом.</t>
-    </r>
+    <t>&lt;p&gt;&lt;span style="color: red;"&gt;&lt;b&gt;Внимание!&lt;/b&gt;&lt;/span&gt; При выгрузке документов в &lt;b&gt;Диадок&lt;/b&gt; нужно в окошке &lt;b&gt;Документ&lt;/b&gt; вручную написать &lt;span style="text-decoration: underline;"&gt;&lt;b&gt;Договор № либо Спецификация №&amp;hellip; от хх.хх.20хх г. к Договору №&lt;/b&gt;&lt;/span&gt;, в полях &lt;b&gt;Номер&lt;/b&gt; и &lt;b&gt;Дата&lt;/b&gt; указать соответственно номер и дату реального договора, по которому производится работа с клиентом.&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/10_7.png</t>
   </si>
   <si>
-    <r>
-      <t>Разделы Покупатели и Продавец заполняются так же, как в спецификации.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>В поле Грузополучатель нужно выбрать контрагента из справочника. Если клиент отсутствует в 1С, то нужно создать новую карточку партнера + контрагента.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>В поле Грузоотправитель указывать:</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	Если отгрузка со склада - УЛТ ООО ОП</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">-	Если отгрузка транзитом с наших заводов - КСА ООО или НПО Регулятор </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	Если от сторонних поставщиков – реквизиты контрагента</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>В поле Счет грузоотправителя внимательно выбираем тот счет, который указан в спецификации. Счет должен быть заполнен обязательно!</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>Раздел Подписи (Руководитель и Главный бухгалтер) поставляются автоматически.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>Если выбран грузоотправитель УЛТ ООО ОП, то</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	Груз отпустил указывается ФИО кладовщика или лица, замещающего его во время отпуска.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	Отпустил (Должность) – указывается ФИО диспетчера или лица, замещающего его во время отпуска.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>Если выбран грузоотправитель, отличный от ОП ООО УЛТ, то поля «Груз отпустил» и «Отпустил (Должность)» нужно оставить пустыми или вручную в поле «Груз отпустил» указать ФИО Руководителя (например, Зиновьев Юрий Дмитриевич), «Отпустил (Должность)» – указать должность Руководителя, например, Генеральный директор.</t>
-    </r>
+    <t>&lt;p&gt;Разделы &lt;b&gt;Покупатели и Продавец&lt;/b&gt; заполняются так же, как в спецификации.&lt;br /&gt;В поле &lt;b&gt;Грузополучатель&lt;/b&gt; нужно выбрать контрагента из справочника. Если клиент отсутствует в 1С, то нужно создать новую карточку партнера + контрагента.&lt;br /&gt;В поле &lt;b&gt;Грузоотправитель&lt;/b&gt; указывать:&lt;br /&gt;- Если отгрузка со склада - УЛТ ООО ОП&lt;br /&gt;- Если отгрузка транзитом с наших заводов - КСА ООО или НПО Регулятор &lt;br /&gt;- Если от сторонних поставщиков &amp;ndash; реквизиты контрагента&lt;br /&gt;В поле &lt;b&gt;Счет грузоотправителя&lt;/b&gt; внимательно выбираем тот счет, который указан в спецификации. Счет должен быть заполнен обязательно!&lt;br /&gt;Раздел &lt;b&gt;Подписи&lt;/b&gt; (Руководитель и Главный бухгалтер) поставляются автоматически.&lt;br /&gt;Если выбран грузоотправитель &lt;b&gt;УЛТ ООО ОП&lt;/b&gt;, то&lt;br /&gt;- &lt;b&gt;Груз отпустил&lt;/b&gt; указывается ФИО кладовщика или лица, замещающего его во время отпуска.&lt;br /&gt;- &lt;b&gt;Отпустил (Должность)&lt;/b&gt; &amp;ndash; указывается ФИО диспетчера или лица, замещающего его во время отпуска.&lt;br /&gt;Если выбран грузоотправитель, отличный от ОП ООО УЛТ, то поля &amp;laquo;Груз отпустил&amp;raquo; и &amp;laquo;Отпустил (Должность)&amp;raquo; нужно оставить пустыми или вручную в поле &amp;laquo;Груз отпустил&amp;raquo; указать ФИО Руководителя (например, Зиновьев Юрий Дмитриевич), &amp;laquo;Отпустил (Должность)&amp;raquo; &amp;ndash; указать должность Руководителя, например, Генеральный директор.&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/10_8.png</t>
@@ -2775,379 +610,55 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Документ </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Реализация товаров и услуг</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> создается на основании документа </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Заказ клиента</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">. В заказе на закладке </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Товары</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> в колонке </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Действия</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> необходимо установить </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-        <u val="single"/>
-      </rPr>
-      <t xml:space="preserve">Отгрузить </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">для тех позиций, которые отгружаются в данный момент. Если отгрузка со склада из наличия, то поле </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-        <u val="single"/>
-      </rPr>
-      <t>Обособленно</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> в этой строке остается пустым, если товар заказан под КО, то в поле </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-        <u val="single"/>
-      </rPr>
-      <t>Обособленно</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> нужно установить галочку. Если товар не был заказан с указанием данного заказа в назначении, то галочку установить нельзя.</t>
-    </r>
+    <t>&lt;p&gt;Документ &lt;b&gt;Реализация товаров и услуг&lt;/b&gt; создается на основании документа &lt;b&gt;Заказ клиента&lt;/b&gt;. В заказе на закладке &lt;b&gt;Товары&lt;/b&gt; в колонке &lt;b&gt;Действия&lt;/b&gt; необходимо установить &lt;span style="text-decoration: underline;"&gt;&lt;b&gt;Отгрузить&lt;/b&gt; &lt;/span&gt;для тех позиций, которые отгружаются в данный момент. Если отгрузка со склада из наличия, то поле &lt;span style="text-decoration: underline;"&gt;&lt;b&gt;Обособленно&lt;/b&gt; &lt;/span&gt;в этой строке остается пустым, если товар заказан под КО, то в поле &lt;span style="text-decoration: underline;"&gt;&lt;b&gt;Обособленно&lt;/b&gt; &lt;/span&gt;нужно установить галочку. Если товар не был заказан с указанием данного заказа в назначении, то галочку установить нельзя.&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/11_1.png</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Далее, после проведения документа, создается </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Реализация товаров и услуг</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>:</t>
-    </r>
+    <t>&lt;p&gt;Далее, после проведения документа, создается &lt;b&gt;Реализация товаров и услуг:&lt;/b&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/11_2.png</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Закладки Товары и Товары на печать заполняются теми товарами, комплектами и комплектующими, которые отмечены в заказе действием Отгрузить/Отгрузить обособленно. </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>На закладке Основное в поле Дата документа нужно указать дату, когда реально уходит товар к клиенту.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">В поле Комментарий прописывается информация для упаковки. Так же в случае раздельной отгрузки необходимо указать номер и дату бухгалтерского документа. </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>В случае раздельной поставки счет-фактуру присваивают только в бухгалтерском документе на весь комплект, складские накладные на фактическое списание частей комплекта должны быть без счет-фактур!</t>
-    </r>
+    <t>&lt;p&gt;Закладки &lt;b&gt;Товары и Товары на печать&lt;/b&gt; заполняются теми товарами, комплектами и комплектующими, которые отмечены в заказе действием Отгрузить/Отгрузить обособленно. &lt;br /&gt;На закладке &lt;b&gt;Основное&lt;/b&gt; в поле &lt;b&gt;Дата&lt;/b&gt; документа нужно указать дату, когда реально уходит товар к клиенту.&lt;br /&gt;В поле &lt;b&gt;Комментарий&lt;/b&gt; прописывается информация для упаковки. Так же в случае раздельной отгрузки необходимо указать номер и дату бухгалтерского документа. &lt;br /&gt;В случае раздельной поставки счет-фактуру присваивают только в бухгалтерском документе на весь комплект, складские накладные на фактическое списание частей комплекта должны быть без счет-фактур!&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/11_3.png</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">На закладке </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Дополнительно</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> по ссылке </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Реквизиты</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>печати</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>ТОРГ12</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> заполняется только в том случае, если сразу создается счет-фактура и печатается пакет документов для клиента (правила заполнения описаны в разделе </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <i val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-        <u val="single"/>
-      </rPr>
-      <t xml:space="preserve">Реализация товаров и услуг с установленным флагом Бухгалтерский документ </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>текущей инструкции). В противоположном случае здесь можно ничего не заполнять.</t>
-    </r>
+    <t>&lt;p&gt;На закладке &lt;b&gt;Дополнительно&lt;/b&gt; по ссылке &lt;b&gt;Реквизиты печати ТОРГ12&lt;/b&gt; заполняется только в том случае, если сразу создается счет-фактура и печатается пакет документов для клиента (правила заполнения описаны в разделе &lt;span style="text-decoration: underline;"&gt;&lt;b&gt;Реализация товаров и услуг с установленным флагом Бухгалтерский документ&lt;/b&gt;&lt;/span&gt; текущей инструкции). В противоположном случае здесь можно ничего не заполнять.&lt;/p&gt;</t>
   </si>
   <si>
     <t>СЧЕТ-ФАКТУРА ВЫДАННЫЙ</t>
   </si>
   <si>
-    <r>
-      <t>Внимание! В случае раздельной отгрузки документ Счет-фактура создается только к бухгалтерскому документу! В случае обычной отгрузки – к каждой реализации!</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">Документ оформляется путем нажатия в документе Реализация товаров и услуг ссылки Оформить счет-фактуру. </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>Внимание! Перед началом работы со счет-фактурой убедитесь в правильности Даты в документе Реализация товаров и услуг!</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>Если нужно оформить документ не текущей датой, а более ранней, то нужно воспользоваться ссылкой Выбрать СФ (бухгалтерия ежедневно создает несколько пустых документов, нужно выбирать один из них для того, чтобы не сбивалась нумерация счет-фактур в течение дня). Если свободных номеров нет, то нужно связаться с бухгалтерией.</t>
-    </r>
+    <t>&lt;p&gt;&lt;span style="color: red"&gt;&lt;b&gt;Внимание!&lt;/b&gt;&lt;/span&gt; В случае раздельной отгрузки документ &lt;b&gt;Счет-фактура&lt;/b&gt; создается только к бухгалтерскому документу! В случае обычной отгрузки &amp;ndash; к каждой реализации!&lt;br /&gt;Документ оформляется путем нажатия в документе &lt;b&gt;Реализация товаров и услуг&lt;/b&gt; ссылки &lt;b&gt;Оформить счет-фактуру&lt;/b&gt;. &lt;br /&gt;&lt;span style="color: red"&gt;&lt;b&gt;Внимание!&lt;/b&gt;&lt;/span&gt; Перед началом работы со счет-фактурой убедитесь в правильности Даты в документе &lt;b&gt;Реализация товаров и услуг&lt;/b&gt;!&lt;br /&gt;Если нужно оформить документ не текущей датой, а более ранней, то нужно воспользоваться ссылкой &lt;b&gt;Выбрать СФ&lt;/b&gt; (бухгалтерия ежедневно создает несколько пустых документов, нужно выбирать один из них для того, чтобы не сбивалась нумерация счет-фактур в течение дня). Если свободных номеров нет, то нужно связаться с бухгалтерией.&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/12_1.png</t>
   </si>
   <si>
-    <r>
-      <t>Дата – дата фактической отгрузки.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>Если был оплачен аванс (и создан счет-фактура выданный (аванс)), то нужно заполнить Платежно-расчетные документы по ссылке Отсутствуют:</t>
-    </r>
+    <t>&lt;p&gt;&lt;b&gt;Дата&lt;/b&gt; &amp;ndash; дата фактической отгрузки.&lt;br /&gt;Если был оплачен аванс (и создан счет-фактура выданный (аванс)), то нужно заполнить &lt;b&gt;Платежно-расчетные документы&lt;/b&gt; по ссылке &lt;b&gt;Отсутствуют&lt;/b&gt;:&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/12_2.png</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">По нажатии кнопки </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Заполнить</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> табличная часть заполняется существующими авансами:</t>
-    </r>
+    <t>&lt;p&gt;По нажатии кнопки &lt;b&gt;Заполнить&lt;/b&gt; табличная часть заполняется существующими авансами:&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/12_3.png</t>
   </si>
   <si>
-    <r>
-      <t>Номер – Номер по банку на закладке Основное в документе Поступление безналичных ДС.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>Дата – поле от: на закладке Основное в документе Поступление безналичных ДС.</t>
-    </r>
+    <t>&lt;p&gt;&lt;b&gt;Номер&lt;/b&gt; &amp;ndash; &lt;b&gt;Номер по банку&lt;/b&gt; на закладке &lt;b&gt;Основное&lt;/b&gt; в документе &lt;b&gt;Поступление безналичных ДС.&lt;/b&gt;&lt;br /&gt;&lt;b&gt;Дата&lt;/b&gt; &amp;ndash; поле &lt;b&gt;от&lt;/b&gt;: на закладке &lt;b&gt;Основное&lt;/b&gt; в документе &lt;b&gt;Поступление безналичных ДС&lt;/b&gt;.&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/12_4.png</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Сумма платежно-расчетного документа – та сумма, которая идет в зачет создаваемой реализации. </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">Правила распределения аванса между заказами и/или реализациями прописаны в договоре. </t>
-    </r>
+    <t>&lt;p&gt;&lt;b&gt;Сумма платежно-расчетного документа&lt;/b&gt; &amp;ndash; та сумма, которая идет в зачет создаваемой реализации. &lt;br /&gt;Правила распределения аванса между заказами и/или реализациями прописаны в договоре. &lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/12_5.png</t>
@@ -3156,785 +667,37 @@
     <t>ТРАНСПОРТНАЯ НАКЛАДНАЯ</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Документ </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Транспортная накладная</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> создается по ссылке </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Оформить ТТН</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> в документе </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Реализация товаров и услуг</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> только тогда, когда производится реальная отгрузка товара:</t>
-    </r>
+    <t>&lt;p&gt;Документ &lt;b&gt;Транспортная накладная&lt;/b&gt; создается по ссылке &lt;b&gt;Оформить ТТН&lt;/b&gt; в документе &lt;b&gt;Реализация товаров и услуг&lt;/b&gt; только тогда, когда производится реальная отгрузка товара:&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/13_1.png</t>
   </si>
   <si>
-    <r>
-      <t>На закладке Основное:</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	Грузополучатель и Грузоотправитель подставляются из документа Реализация товаров и услуг;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	Организация - ОП УЛТ ООО (если отгрузка с УЛТ, если отгрузка транзитом, то ТТН не создается).</t>
-    </r>
+    <t>&lt;p&gt;На закладке &lt;b&gt;Основное&lt;/b&gt;:&lt;br /&gt;- &lt;b&gt;Грузополучатель&lt;/b&gt; и &lt;b&gt;Грузоотправитель&lt;/b&gt; подставляются из документа Реализация товаров и услуг;&lt;br /&gt;- &lt;b&gt;Организация&lt;/b&gt; - ОП УЛТ ООО (если отгрузка с УЛТ, если отгрузка транзитом, то ТТН не создается).&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/13_2.png</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">На закладке </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Товарный раздел</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> выбирается что будет печататься в документах – </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>номера накладных</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> или </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>товарный состав:</t>
-    </r>
+    <t>&lt;p&gt;На закладке &lt;b&gt;Товарный раздел&lt;/b&gt; выбирается что будет печататься в документах &amp;ndash; &lt;b&gt;номера накладных&lt;/b&gt; или &lt;b&gt;товарный состав:&lt;/b&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/13_3.png</t>
   </si>
   <si>
-    <r>
-      <t>На закладке Транспортный раздел указывается:</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	Перевозчик и Счет перевозчика (может быть наша компания или сторонняя)</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	Адрес погрузки - откуда будет забираться товар</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	Адрес доставки – заполняется из документа Реализация товаров и услуг</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	Заказчик-(плательщик) – кто оплачивает перевозку по договору перевозки</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>-	Разделы Водитель и Транспортное средства заполняется если едет отдельная машина (если находит машину транспортный отдел, то данные предоставляют из транспортного отдела, если клиент, то данные вместе с доверенностью предоставляет клиент).</t>
-    </r>
+    <t>&lt;p&gt;На закладке &lt;b&gt;Транспортный раздел&lt;/b&gt; указывается:&lt;br /&gt;- &lt;b&gt;Перевозчик&lt;/b&gt; и &lt;b&gt;Счет перевозчика&lt;/b&gt; (может быть наша компания или сторонняя)&lt;br /&gt;- &lt;b&gt;Адрес погрузки&lt;/b&gt; - откуда будет забираться товар&lt;br /&gt;- &lt;b&gt;Адрес доставки&lt;/b&gt; &amp;ndash; заполняется из документа Реализация товаров и услуг&lt;br /&gt;- &lt;b&gt;Заказчик-(плательщик)&lt;/b&gt; &amp;ndash; кто оплачивает перевозку по договору перевозки&lt;br /&gt;- Разделы &lt;b&gt;Водитель и Транспортное средства&lt;/b&gt; заполняется если едет отдельная машина (если находит машину транспортный отдел, то данные предоставляют из транспортного отдела, если клиент, то данные вместе с доверенностью предоставляет клиент).&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/13_4.png</t>
   </si>
   <si>
-    <r>
-      <t>В печатной форме Вес подтягивается из карточки номенклатуры. При необходимости редактируется вручную.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>После создания всей цепочки документов (Заказ клиента – Реализация товаров и услуг – Счет-фактура – Транспортная накладная) из документа Реализация товаров и услуг печатается пакет документов:</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>1.	Товарная накладная (ТОРГ12) – 2 экз.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>2.	Счет-фактура выданный – 2 экз.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>3.	Товарно-транспортная накладная (1-Т) – 3 экз.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Грузоотправитель = поле Грузоотправитель на закладке Основное</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	по ОКПО – данные из карточки контрагента</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Грузополучатель = поле Грузополучатель на закладке Основное</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	по ОКПО – данные из карточки контрагента</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Плательщик = поле  Плательщик на закладке Основное</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	по ОКПО – данные из карточки контрагента</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Номер – номер документа Товарная накладная</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>•	ТОВАРНЫЙ РАЗДЕЛ I:</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	в табличной части:</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>	Количество – установить вручную общее количество по накладной</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>	Наименование продукции, товара (груза), ТУ, марка, размер, сорт – заполняются номер и дата накладной, указанные на закладке Товарный раздел</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>	Единица измерения – вручную перечислить через запятую все ед измерения</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>	Вид упаковки - вручную установить согласно упаковочному листу;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>	Количество мест – вручную установить согласно упаковочному листу;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>	Масса, т. - автоматически подставляется из поля Масса (брутто) на закладке Товарный раздел). Поле редактируется вручную согласно упаковочному листу</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Всего мест, заполняется суммарным количеством отгруженных товаров в реализации. В печатной форме нужно вручную прописью указать количество упаковок согласно упаковочному листу.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Масса груза (нетто) автоматически подставляется из поля Масса (нетто) на закладке Товарный раздел). Поле редактируется вручную согласно упаковочному листу.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Масса груза (брутто) – автоматически подставляется из поля Масса (брутто) на закладке Товарный раздел). Поле редактируется вручную согласно упаковочному листу.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Отпуск разрешил/Главный (старший) бухгалтер– ФИО и должности подтягиваются из карточки организации, указанной в поле Организация на закладке Основное. Изменить при необходимости (например, на исполняющих обязанности) можно на закладке Товарный раздел.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Отпуск груза произвел – ФИО и должность подтягиваются из соответствующих полей на закладке Товарный раздел</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>•	Раздел II:</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Организация = поле Перевозчик на закладке Транспортный раздел</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Автомобиль = поле Марка на закладке Транспортный раздел</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Государственный № =поле Гос. номер на закладке Транспортный раздел</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Заказчик (плательщик) = поле Заказчик (плательщик) на закладке Транспортный раздел</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Водитель = поле Водитель – ФИО на закладке Транспортный раздел</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Удостоверение № = поля Серия удостоверения + номер на закладке Транспортный раздел</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Лицензионная карточка = поле Вид лицензионной карточки (стандартная/ограниченная) на закладке Транспортный раздел</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Вид перевозки = поле Вид перевозки на закладке Транспортный раздел</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Пункт погрузки = поле Адрес погрузки на закладке Транспортный раздел</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Пункт разгрузки = поле Адрес доставки на закладке Транспортный раздел</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>Если нет информации о водителе и транспортном средстве (доставка осуществляется сторонней компанией), то нужно сделать пометку для базы, чтобы они эту информацию прописали вручную (на листочке/стикере).</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	В табличной части Сведения о грузе</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>	Краткое наименование груза – заполняется автоматически</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>	С грузом следуют документы заполняется автоматически если к реализации, которая указана в ТТН, создан счет-фактура.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>	Вид упаковки и Количество мест заполняется вручную согласно упаковочному листу</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>	Масса брутто - автоматически подставляется из поля Масса (брутто) на закладке Товарный раздел). Поле редактируется вручную согласно упаковочному листу.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Сдал = поля Отпустил + Груз отпустил (должность) на закладке Транспортный раздел</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>4.	Транспортная накладная</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>1. Грузоотправитель = Наименование и юридический адрес партнера, указанного в поле Заказчик (плательщик) на закладке Транспортный раздел (плательщик за транспорт)</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>2. Грузополучатель = Наименование, ИНН, юридический и фактический адрес партнера, указанного в поле Грузополучатель на закладке Транспортный раздел</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">3. Груз </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Отгрузочное наименование груза… - заполняется автоматически</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Количество грузовых мест, маркировка, вид тары и способ упаковки – заполняется не корректно, нужно вручную указать в соответствии с упаковочным листом</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Масса груза брутто в килограммах, масса груза нетто... – заполняется из карточек товара, нужно вручную указать в соответствии с упаковочным листом</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>4.Сопроводительные документы на груз (при наличии)</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Перечень прилагаемых к грузу сертификатов, паспортов качества, удостоверений…- заполняется автоматически</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Реквизиты документа, подтверждающего об отгрузке – номер+дата документов Реализация товаров и услуг, а также Счет-фактур к ним, которые указаны на закладке Товарный раздел</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>5.Указания грузоотправителя по особым условиям перевозки - раздел оставить не заполненным</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>6. Перевозчик (уточнить в транспортном отделе)</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Реквизиты, позволяющие идентифицировать Перевозчика – Наименование, ИНН и юр. адрес организации, указанной в поле Перевозчик на закладке Транспортный раздел</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Реквизиты, позволяющие идентифицировать водителя(ей) – ФИО Водитель на закладке Транспортный раздел. Номер телефона и номер и дату водительского удостоверения нужно внести вручную.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>7. Транспортное средство (уточнить в транспортном отделе)</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Тип, марка, грузоподъемность (в тоннах), вместимость (в кубических метрах) – поля Тип, Марка, Вместимость, Грузоподъемность на закладке Транспортный раздел</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Регистрационный номер транспортного средства – Гос. Номер на закладке Транспортный раздел</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>8. Прием груза</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Реквизиты лица, действующего по поручению… – Наименование, ИНН и фактический адрес организации, указанной в поле Грузоотправитель на закладке Основное. Если ИНН организации, указанной в этом поле равен 6454083390 (организации Армы), то поле печатной формы не заполняется</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Наименование организаций-владельцев объектов инфраструктуры пунктов погрузки и основания беспрепятственного доступа к таким объектам… – Наименование, ИНН и фактический адрес организации, указанной в поле Грузоотправитель на закладке Основное.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">o	Адрес места погрузки – Фактический адрес из карточки организации, указанной в поле Грузоотправитель на закладке Основное </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Количество грузовых мест – заполняется не корректно, нужно указать вручную в соответствии с упаковочным листом</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Тара, упаковка (при наличии) – подставляется автоматически во все печатные формы одинаково</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Подпись, расшифровка подписи лица, осуществившего погрузку… = поля Отпустил + Груз отпустил (должность) на закладке Транспортный раздел</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Подпись, расшифровка подписи водителя, принявшего груз для перевозки = поле ФИО Водитель на закладке Транспортный раздел</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>9. Переадресовка (при наличии) перевозки - раздел оставить не заполненным</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>10. Выдача груза</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Адрес места выгрузки = поле Адрес доставки на закладке Транспортный отдел</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Фактическое состояние груза, тары, упаковки, маркировки, опломбирования – заполняется автоматически</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>o	Подпись, расшифровка подписи водителя, сдавшего груз… = поле ФИО Водитель на закладке Транспортный раздел</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>11. Отметки грузоотправителей, грузополучателей, перевозчиков (при необходимости) - раздел оставить не заполненным</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>12. Стоимость перевозки груза (установленная плата) в рублях (при необходимости) - раздел оставить не заполненным.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>Образцы ТН приведены в Приложении 3.</t>
-    </r>
+    <t>&lt;p&gt;В печатной форме Вес подтягивается из карточки номенклатуры. При необходимости редактируется вручную.&lt;br /&gt;После создания всей цепочки документов (Заказ клиента &amp;ndash; Реализация товаров и услуг &amp;ndash; Счет-фактура &amp;ndash; Транспортная накладная) из документа Реализация товаров и услуг печатается пакет документов:&lt;br /&gt;1. &lt;span style="text-decoration: underline;"&gt;&lt;b&gt;Товарная накладная (ТОРГ12) &amp;ndash; 2 экз.&lt;/b&gt;&lt;/span&gt;&lt;br /&gt;2. &lt;span style="text-decoration: underline;"&gt;&lt;b&gt;Счет-фактура выданный &amp;ndash; 2 экз.&lt;/b&gt;&lt;/span&gt;&lt;br /&gt;3. &lt;span style="text-decoration: underline;"&gt;&lt;b&gt;Товарно-транспортная накладная (1-Т) &amp;ndash; 3 экз.&lt;/b&gt;&lt;/span&gt;&lt;br /&gt;&lt;b&gt;&amp;bull; Грузоотправитель&lt;/b&gt; = поле &lt;b&gt;Грузоотправитель&lt;/b&gt; на закладке &lt;b&gt;Основное&lt;/b&gt;&lt;br /&gt;-&amp;nbsp;&lt;b&gt;по ОКПО&lt;/b&gt; &amp;ndash; данные из карточки контрагента&lt;br /&gt;&amp;bull; &lt;b&gt;Грузополучатель&lt;/b&gt; = поле &lt;b&gt;Грузополучатель&lt;/b&gt; на закладке &lt;b&gt;Основное&lt;/b&gt;&lt;br /&gt;-&amp;nbsp;&lt;b&gt;по ОКПО&lt;/b&gt; &amp;ndash; данные из карточки контрагента&lt;br /&gt;&amp;bull; &lt;b&gt;Плательщик&lt;/b&gt; = поле &lt;b&gt;Плательщик&lt;/b&gt; на закладке &lt;b&gt;Основное&lt;/b&gt;&lt;br /&gt;-&amp;nbsp;&lt;b&gt;по ОКПО&lt;/b&gt; &amp;ndash; данные из карточки контрагента&lt;br /&gt;&amp;bull; &lt;b&gt;Номер&lt;/b&gt; &amp;ndash; номер документа &lt;b&gt;Товарная накладная&lt;/b&gt;&lt;br /&gt;&amp;bull; &lt;b&gt;ТОВАРНЫЙ РАЗДЕЛ I:&lt;/b&gt;&lt;br /&gt;&lt;b&gt;В табличной части:&lt;/b&gt;&lt;br /&gt;-&amp;nbsp;&lt;span style="text-decoration: underline;"&gt;Количество&lt;/span&gt; &amp;ndash; установить &lt;span style="color: red;"&gt;вручную&lt;/span&gt; общее количество по накладной&lt;br /&gt;-&amp;nbsp;&lt;span style="text-decoration: underline;"&gt;Наименование продукции, товара (груза), ТУ, марка, размер, сорт&lt;/span&gt; &amp;ndash; заполняются номер и дата накладной, указанные на закладке &lt;b&gt;Товарный раздел&lt;/b&gt;&lt;br /&gt;-&amp;nbsp;&lt;span style="text-decoration: underline;"&gt;Единица измерения&lt;/span&gt; &amp;ndash; &lt;span style="color: red;"&gt;вручную&lt;/span&gt; перечислить через запятую все ед измерения&lt;br /&gt;-&amp;nbsp;&lt;span style="text-decoration: underline;"&gt;Вид упаковки&lt;/span&gt; - &lt;span style="color: red;"&gt;вручную&lt;/span&gt; установить согласно упаковочному листу;&lt;br /&gt;-&amp;nbsp;&lt;span style="text-decoration: underline;"&gt;Количество мест&lt;/span&gt; &amp;ndash; &lt;span style="color: red;"&gt;вручную&lt;/span&gt; установить согласно упаковочному листу;&lt;br /&gt;-&amp;nbsp;&lt;span style="text-decoration: underline;"&gt;Масса, т.&lt;/span&gt; - автоматически подставляется из поля &lt;b&gt;Масса (брутто)&lt;/b&gt; на закладке &lt;b&gt;Товарный раздел&lt;/b&gt;). Поле редактируется &lt;span style="color: red;"&gt;вручную&lt;/span&gt; согласно упаковочному листу&lt;br /&gt;o &lt;b&gt;Всего мест&lt;/b&gt;, заполняется суммарным количеством отгруженных товаров в реализации. В печатной форме нужно &lt;span style="color: red;"&gt;вручную&lt;/span&gt; прописью указать количество упаковок согласно упаковочному листу.&lt;br /&gt;o &lt;b&gt;Масса груза (нетто)&lt;/b&gt; автоматически подставляется из поля &lt;b&gt;Масса (нетто)&lt;/b&gt; на закладке &lt;b&gt;Товарный раздел&lt;/b&gt;). Поле редактируется &lt;span style="color: red;"&gt;вручную&lt;/span&gt; согласно упаковочному листу.&lt;br /&gt;o &lt;b&gt;Масса груза (брутто)&lt;/b&gt; &amp;ndash; автоматически подставляется из поля Масса (брутто) на закладке &lt;b&gt;Товарный раздел&lt;/b&gt;). Поле редактируется &lt;span style="color: red;"&gt;вручную&lt;/span&gt; согласно упаковочному листу.&lt;br /&gt;o &lt;b&gt;Отпуск разрешил/Главный (старший) бухгалтер&amp;ndash; ФИО и должности&lt;/b&gt; подтягиваются из карточки организации, указанной в поле &lt;b&gt;Организация&lt;/b&gt; на закладке &lt;b&gt;Основное&lt;/b&gt;. Изменить при необходимости (например, на исполняющих обязанности) можно на закладке &lt;b&gt;Товарный раздел&lt;/b&gt;.&lt;br /&gt;o &lt;b&gt;Отпуск груза произвел &amp;ndash; ФИО и должность&lt;/b&gt; подтягиваются из соответствующих полей на закладке &lt;b&gt;Товарный раздел&lt;/b&gt;&lt;br /&gt;&amp;bull; &lt;b&gt;Раздел II:&lt;/b&gt;&lt;br /&gt;o &lt;b&gt;Организация&lt;/b&gt; = поле &lt;b&gt;Перевозчик&lt;/b&gt; на закладке &lt;b&gt;Транспортный раздел&lt;/b&gt;&lt;br /&gt;o &lt;b&gt;Автомобиль&lt;/b&gt; = поле &lt;b&gt;Марка&lt;/b&gt; на закладке &lt;b&gt;Транспортный раздел&lt;/b&gt;&lt;br /&gt;o &lt;b&gt;Государственный №&lt;/b&gt; =поле &lt;b&gt;Гос. номер&lt;/b&gt; на закладке &lt;b&gt;Транспортный раздел&lt;/b&gt;&lt;br /&gt;o &lt;b&gt;Заказчик (плательщик)&lt;/b&gt; = поле &lt;b&gt;Заказчик (плательщик)&lt;/b&gt; на закладке &lt;b&gt;Транспортный раздел&lt;/b&gt;&lt;br /&gt;o &lt;b&gt;Водитель&lt;/b&gt; = поле &lt;b&gt;Водитель&lt;/b&gt; &amp;ndash; &lt;b&gt;ФИО&lt;/b&gt; на закладке &lt;b&gt;Транспортный раздел&lt;/b&gt;&lt;br /&gt;o &lt;b&gt;Удостоверение №&lt;/b&gt; = поля &lt;b&gt;Серия удостоверения + номер&lt;/b&gt; на закладке &lt;b&gt;Транспортный раздел&lt;/b&gt;&lt;br /&gt;o &lt;b&gt;Лицензионная карточка&lt;/b&gt; = поле &lt;b&gt;Вид лицензионной карточки&lt;/b&gt; (стандартная/ограниченная) на закладке &lt;b&gt;Транспортный раздел&lt;/b&gt;&lt;br /&gt;o &lt;b&gt;Вид перевозки&lt;/b&gt; = поле &lt;b&gt;Вид перевозки&lt;/b&gt; на закладке &lt;b&gt;Транспортный&lt;/b&gt; раздел&lt;br /&gt;o &lt;b&gt;Пункт погрузки&lt;/b&gt; = поле &lt;b&gt;Адрес погрузки&lt;/b&gt; на закладке &lt;b&gt;Транспортный&lt;/b&gt; раздел&lt;br /&gt;o &lt;b&gt;Пункт разгрузки&lt;/b&gt; = поле &lt;b&gt;Адрес доставки&lt;/b&gt; на закладке &lt;b&gt;Транспортный&lt;/b&gt; раздел&lt;br /&gt;Если нет информации о водителе и транспортном средстве (доставка осуществляется сторонней компанией), то нужно сделать пометку для базы, чтобы они эту информацию прописали вручную (на листочке/стикере).&lt;br /&gt;o В табличной части &lt;b&gt;Сведения о грузе&lt;/b&gt;&lt;br /&gt;&lt;b&gt;- Краткое наименование груза&lt;/b&gt; &amp;ndash; заполняется автоматически&lt;br /&gt;- &lt;b&gt;С грузом следуют документы&lt;/b&gt; заполняется автоматически &lt;span style="text-decoration: underline;"&gt;если к реализации, которая указана в ТТН, создан счет-фактура&lt;/span&gt;.&lt;br /&gt;- &lt;b&gt;Вид упаковки и Количество мест&lt;/b&gt; заполняется &lt;span style="color: red;"&gt;вручную&lt;/span&gt; согласно упаковочному листу&lt;br /&gt;- &lt;b&gt;Масса брутто&lt;/b&gt; - автоматически подставляется из поля &lt;b&gt;Масса (брутто)&lt;/b&gt; на закладке &lt;b&gt;Товарный раздел&lt;/b&gt;). Поле редактируется &lt;span style="color: red;"&gt;вручную&lt;/span&gt; согласно упаковочному листу.&lt;br /&gt;-&amp;nbsp;&lt;b&gt;Сдал&lt;/b&gt; = поля &lt;b&gt;Отпустил&lt;/b&gt; + &lt;b&gt;Груз отпустил (должность)&lt;/b&gt; на закладке &lt;b&gt;Транспортный&lt;/b&gt; раздел&lt;br /&gt;&lt;span style="text-decoration: underline;"&gt;&lt;b&gt;4. Транспортная накладная&lt;/b&gt;&lt;/span&gt;&lt;br /&gt;&lt;b&gt;1. Грузоотправитель&lt;/b&gt; = &lt;b&gt;Наименование и юридический адрес партнера, указанного в поле Заказчик (плательщик)&lt;/b&gt; на закладке &lt;b&gt;Транспортный раздел&lt;/b&gt; (плательщик за транспорт)&lt;br /&gt;&lt;b&gt;2. Грузополучатель = Наименование, ИНН, юридический и фактический адрес&lt;/b&gt;&amp;nbsp;партнера, указанного в поле &lt;b&gt;Грузополучатель&lt;/b&gt; на закладке &lt;b&gt;Транспортный раздел&lt;/b&gt;&lt;br /&gt;&lt;b&gt;3. Груз&lt;/b&gt; &lt;br /&gt;-&amp;nbsp;&lt;b&gt;Отгрузочное наименование груза&amp;hellip;&lt;/b&gt; - заполняется автоматически&lt;br /&gt;- &lt;b&gt;Количество грузовых мест, маркировка, вид тары и способ упаковки&lt;/b&gt; &amp;ndash; заполняется не корректно, нужно &lt;span style="color: red;"&gt;вручную&lt;/span&gt; указать в соответствии с упаковочным листом&lt;br /&gt;-&amp;nbsp;Масса груза брутто в килограммах, масса груза нетто... &amp;ndash; заполняется из карточек товара, нужно вручную указать в соответствии с упаковочным листом&lt;br /&gt;&lt;b&gt;4.Сопроводительные документы на груз (при наличии)&lt;/b&gt;&lt;br /&gt;-&amp;nbsp;&lt;b&gt;Перечень прилагаемых к грузу сертификатов, паспортов качества, удостоверений&lt;/b&gt;&amp;hellip;- заполняется автоматически&lt;br /&gt;-&amp;nbsp;&lt;b&gt;Реквизиты документа, подтверждающего об отгрузке &amp;ndash; номер+дата&lt;/b&gt; документов &lt;b&gt;Реализация товаров и услуг&lt;/b&gt;, а также &lt;b&gt;Счет-фактур&lt;/b&gt; к ним, которые указаны на закладке &lt;b&gt;Товарный раздел&lt;/b&gt;&lt;br /&gt;&lt;b&gt;5.Указания грузоотправителя по особым условиям перевозки&lt;/b&gt; - раздел оставить не заполненным&lt;br /&gt;&lt;b&gt;6. Перевозчик (уточнить в транспортном отделе)&lt;/b&gt;&lt;br /&gt;-&amp;nbsp;&lt;b&gt;Реквизиты, позволяющие идентифицировать Перевозчика&lt;/b&gt; &amp;ndash; &lt;b&gt;Наименование, ИНН и юр. адрес&lt;/b&gt; организации, указанной в поле &lt;b&gt;Перевозчик&lt;/b&gt; на закладке &lt;b&gt;Транспортный раздел&lt;/b&gt;&lt;br /&gt;-&amp;nbsp;&lt;b&gt;Реквизиты, позволяющие идентифицировать водителя(ей) &amp;ndash; ФИО Водитель&lt;/b&gt; на закладке &lt;b&gt;Транспортный раздел&lt;/b&gt;. &lt;b&gt;Номер телефона и номер и дату водительского удостоверения&lt;/b&gt; нужно внести &lt;span style="color: red;"&gt;вручную&lt;/span&gt;.&lt;br /&gt;&lt;b&gt;7. Транспортное средство (уточнить в транспортном отделе)&lt;/b&gt;&lt;br /&gt;-&amp;nbsp;&lt;b&gt;Тип, марка, грузоподъемность (в тоннах), вместимость (в кубических метрах) &amp;ndash; поля Тип, Марка, Вместимость, Грузоподъемность&lt;/b&gt; на закладке &lt;b&gt;Транспортный раздел&lt;/b&gt;&lt;br /&gt;-&amp;nbsp;&lt;b&gt;Регистрационный номер транспортного средства &amp;ndash; Гос. Номер&lt;/b&gt; на закладке &lt;b&gt;Транспортный раздел&lt;/b&gt;&lt;br /&gt;&lt;b&gt;8. Прием груза&lt;/b&gt;&lt;br /&gt;-&amp;nbsp;&lt;b&gt;Реквизиты лица, действующего по поручению&amp;hellip; &amp;ndash; Наименование, ИНН и фактический адрес&lt;/b&gt;&amp;nbsp;организации, указанной в поле &lt;b&gt;Грузоотправитель&lt;/b&gt; на закладке &lt;b&gt;Основное&lt;/b&gt;. Если ИНН организации, указанной в этом поле равен 6454083390 (организации Армы), то поле печатной формы не заполняется&lt;br /&gt;-&amp;nbsp;&lt;b&gt;Наименование организаций-владельцев объектов инфраструктуры пунктов погрузки и основания беспрепятственного доступа к таким объектам&amp;hellip; &amp;ndash; Наименование, ИНН и фактический адрес&lt;/b&gt;&amp;nbsp;организации, указанной в поле &lt;b&gt;Грузоотправитель&lt;/b&gt; на закладке &lt;b&gt;Основное&lt;/b&gt;.&lt;br /&gt;-&amp;nbsp;&lt;b&gt;Адрес места погрузки &amp;ndash; фактический адрес&lt;/b&gt;&amp;nbsp;из карточки организации, указанной в поле &lt;b&gt;Грузоотправитель&lt;/b&gt; на закладке &lt;b&gt;Основное&lt;/b&gt; &lt;br /&gt;-&amp;nbsp;&lt;b&gt;Количество грузовых мест&lt;/b&gt; &amp;ndash; заполняется не корректно, нужно указать &lt;span style="color: red;"&gt;вручную&lt;/span&gt; в соответствии с упаковочным листом&lt;br /&gt;-&amp;nbsp;&lt;b&gt;Тара, упаковка (при наличии)&lt;/b&gt; &amp;ndash; подставляется автоматически во все печатные формы одинаково&lt;br /&gt;-&amp;nbsp;&lt;b&gt;Подпись, расшифровка подписи лица, осуществившего погрузку&lt;/b&gt;&amp;hellip; = &lt;b&gt;поля Отпустил + Груз отпустил (должность)&lt;/b&gt; на закладке &lt;b&gt;Транспортный раздел&lt;/b&gt;&lt;br /&gt;-&amp;nbsp;&lt;b&gt;Подпись, расшифровка подписи водителя, принявшего груз для перевозки&lt;/b&gt; = поле &lt;b&gt;ФИО Водитель&lt;/b&gt; на закладке &lt;b&gt;Транспортный раздел&lt;/b&gt;&lt;br /&gt;&lt;b&gt;9. Переадресовка (при наличии) перевозки&lt;/b&gt; - раздел оставить не заполненным&lt;br /&gt;&lt;b&gt;10. Выдача груза&lt;/b&gt;&lt;br /&gt;-&amp;nbsp;&lt;b&gt;Адрес места выгрузки&lt;/b&gt; = поле &lt;b&gt;Адрес доставки&lt;/b&gt; на закладке &lt;b&gt;Транспортный отдел&lt;/b&gt;&lt;br /&gt;-&amp;nbsp;&lt;b&gt;Фактическое состояние груза, тары, упаковки, маркировки, опломбирования&lt;/b&gt; &amp;ndash; заполняется автоматически&lt;br /&gt;-&amp;nbsp;&lt;b&gt;Подпись, расшифровка подписи водителя, сдавшего груз&lt;/b&gt;&amp;hellip; = поле &lt;b&gt;ФИО&lt;/b&gt; Водитель на закладке &lt;b&gt;Транспортный раздел&lt;/b&gt;&lt;br /&gt;&lt;b&gt;11. Отметки грузоотправителей, грузополучателей, перевозчиков (при необходимости)&lt;/b&gt; - раздел оставить не заполненным&lt;br /&gt;&lt;b&gt;12. Стоимость перевозки груза (установленная плата) в рублях (при необходимости)&lt;/b&gt; - раздел оставить не заполненным.&lt;br /&gt;Образцы ТН приведены в Приложении 3.&lt;/p&gt;</t>
   </si>
   <si>
     <t>ЗАЯВКА В ПРОГРАММЕ «МОТИВ» НА АВТОТРАНСПОРТ</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">В программе </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>«Мотив»</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> заходим в закладку документы, выбираем «</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Создать документ»</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">. В </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>карточке документа</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> выбираем </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Шаблон автотранспорт (заявка на перевозку груза автотранспортом)</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> и заполняем параметры, необходимые для поиска автотранспорта. Ориентировочная дата оплаты клиентом транспортных расходов проставляется через неделю на момент заполнения заявки.</t>
-    </r>
+    <t>&lt;p&gt;В программе &amp;laquo;&lt;b&gt;Мотив&lt;/b&gt;&amp;raquo; заходим в закладку документы, выбираем &amp;laquo;&lt;b&gt;Создать документ&lt;/b&gt;&amp;raquo;. В &lt;b&gt;карточке документа&lt;/b&gt; выбираем &lt;b&gt;Шаблон автотранспорт (заявка на перевозку груза автотранспортом)&lt;/b&gt; и заполняем параметры, необходимые для поиска автотранспорта. Ориентировочная дата оплаты клиентом транспортных расходов проставляется через неделю на момент заполнения заявки.&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/14_1.png</t>
@@ -3943,105 +706,25 @@
     <t>ЗАЯВКА НА ВОЗВРАТ</t>
   </si>
   <si>
-    <r>
-      <t>Заявки на возврат</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> могут быть оформлены на основании документа </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Реализация товаров и услуг</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> и расположены в списке документов в разделе </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <i val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Продажи – Заявки на возврат товаров от клиента.</t>
-    </r>
+    <t>&lt;p&gt;&lt;b&gt;Заявки на возврат&lt;/b&gt; могут быть оформлены на основании документа &lt;b&gt;Реализация товаров и услуг&lt;/b&gt; и расположены в списке документов в разделе &lt;b&gt;Продажи &amp;ndash; Заявки на возврат товаров от клиента&lt;/b&gt;.&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/15_1.png</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Менеджер создает Заявку на возврат в статусе На согласовании и отправляет на согласование заместителю коммерческого директора. В обсуждении к документу нужно указать номер информационной задачи в мотиве. После установки статуса К возврату ответственным лицом документ опять становится доступным для редактирования менеджеру. </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>На закладке Основное выбирается Склад, на который будет оформлен возврат:</t>
-    </r>
+    <t>&lt;p&gt;Менеджер создает &lt;b&gt;Заявку на возврат&lt;/b&gt; в статусе &lt;b&gt;На согласовании&lt;/b&gt; и отправляет на согласование заместителю коммерческого директора. В обсуждении к документу нужно указать номер информационной задачи в мотиве. После установки статуса &lt;b&gt;К возврату&lt;/b&gt; ответственным лицом документ опять становится доступным для редактирования менеджеру. &lt;br /&gt;На закладке &lt;b&gt;Основное&lt;/b&gt; выбирается &lt;b&gt;Склад&lt;/b&gt;, на который будет оформлен возврат:&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/15_2.png</t>
   </si>
   <si>
-    <r>
-      <t>При оформлении заявки на возврат товаров доступны Способы компенсации:</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>■ Вернуть денежные средства. Денежные средства клиенту возвращаются. Для отражения возврата денежных средств оформляются платежные документы.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>■ Оставить в качестве аванса. Денежные средства клиенту не возвращаются. После оформления возврата товаров денежные средства могут быть зачтены в качестве аванса по другой операции (по заказу клиента).</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">■ Заменить товары. Если необходимо оформить замену товаров, то дополнительно заполняется информация о товарах, которые будут отгружены покупателю в качестве замены возвращаемых товаров. Эта информация заполняется на закладке Заменяющие товары. Если в качестве замены должен быть отгружен точно такой же товар, то для заполнения списка товаров можно использовать кнопку Заполнить возвращаемыми товарами. </t>
-    </r>
+    <t>&lt;p&gt;При оформлении заявки на возврат товаров доступны &lt;b&gt;Способы компенсации:&lt;/b&gt;&lt;br /&gt;■ &lt;b&gt;Вернуть денежные средства&lt;/b&gt;. Денежные средства клиенту возвращаются. Для отражения возврата денежных средств оформляются платежные документы.&lt;br /&gt;■ &lt;b&gt;Оставить в качестве аванса.&lt;/b&gt; Денежные средства клиенту не возвращаются. После оформления возврата товаров денежные средства могут быть зачтены в качестве аванса по другой операции (по заказу клиента).&lt;br /&gt;■ &lt;b&gt;Заменить товары&lt;/b&gt;. Если необходимо оформить замену товаров, то дополнительно заполняется информация о товарах, которые будут отгружены покупателю в качестве замены возвращаемых товаров. Эта информация заполняется на закладке &lt;b&gt;Заменяющие товары&lt;/b&gt;. Если в качестве замены должен быть отгружен точно такой же товар, то для заполнения списка товаров можно использовать кнопку &lt;b&gt;Заполнить возвращаемыми товарами&lt;/b&gt;. &lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/15_3.png</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Закладка Возвращаемые товары заполняется товаром по документу основанию (из реализации товаров и услуг, на основании которой была создана заявка на возврат). Состав и количество правится вручную. </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>Внимание!!! Поле Назначение, если оно заполнено, необходимо очистить!</t>
-    </r>
+    <t>&lt;p&gt;Закладка &lt;b&gt;Возвращаемые товары&lt;/b&gt; заполняется товаром по документу основанию (из реализации товаров и услуг, на основании которой была создана заявка на возврат). Состав и количество правится вручную. &lt;br /&gt;&lt;b&gt;&lt;span style="color: red;"&gt;Внимание!!!&lt;/span&gt;&lt;/b&gt; Поле &lt;b&gt;Назначение&lt;/b&gt;, если оно заполнено, необходимо очистить!&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/15_4.png</t>
@@ -4059,24 +742,13 @@
     </r>
   </si>
   <si>
-    <t>Для оформления возврата товаров по Заявке на возврат необходимо получить согласование у заместителя коммерческого директора (установлен статус К возврату). Документ Возврат товаров от клиента создается на основании Заявки на возврат и заполняется автоматически:</t>
+    <t>&lt;p&gt;Для оформления возврата товаров по &lt;b&gt;Заявке на возврат&lt;/b&gt; необходимо получить согласование у заместителя коммерческого директора (установлен статус &lt;b&gt;К возврату&lt;/b&gt;). Документ &lt;b&gt;Возврат товаров от клиента&lt;/b&gt; создается на основании &lt;b&gt;Заявки на возврат&lt;/b&gt; и заполняется автоматически:&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/16_1.png</t>
   </si>
   <si>
-    <r>
-      <t>Дата документа</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> – реальная дата, когда товар поступил на склад</t>
-    </r>
+    <t>&lt;p&gt;&lt;b&gt;Дата документа&lt;/b&gt; &amp;ndash; реальная дата, когда товар поступил на склад&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/16_2.png</t>
@@ -4094,68 +766,19 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Замена товаров оформляется на основании Заявки на возврат. Для оформления замены товаров необходимо в заявке на возврат установить статус К выполнению.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>На закладке Заменяющие товары указать вариант обеспечения (Действие) - Отгрузить.</t>
-    </r>
+    <t>&lt;p&gt;Замена товаров оформляется на основании Заявки на возврат. Для оформления замены товаров необходимо в заявке на возврат установить статус &lt;b&gt;К выполнению&lt;/b&gt;.&lt;br /&gt;На закладке &lt;b&gt;Заменяющие товары&lt;/b&gt; указать вариант &lt;b&gt;обеспечения (Действие) - Отгрузить.&lt;/b&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/17_1.png</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Отгрузка заменяемых товаров осуществляется оформлением документа </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <i val="true"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Реализация товаров и услуг</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>. Документ заполняется автоматически данными из заявки:</t>
-    </r>
+    <t>&lt;p&gt;Отгрузка заменяемых товаров осуществляется оформлением документа &lt;b&gt;Реализация товаров и услуг&lt;/b&gt;. Документ заполняется автоматически данными из заявки:&lt;/p&gt;</t>
   </si>
   <si>
     <t>/imgs/17_2.png</t>
   </si>
   <si>
-    <r>
-      <t>Внимание!!!</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <color rgb="FF0000" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Если оформляется неофициальный возврат (договоренность по телефону), то Счет-фактура к этой реализации не создается.</t>
-    </r>
+    <t>&lt;p&gt;&lt;span style="color: red;"&gt;Внимание!!!&lt;/span&gt; Если оформляется неофициальный возврат (договоренность по телефону), то Счет-фактура к этой реализации не создается.&lt;/p&gt;</t>
   </si>
   <si>
     <r>
@@ -7575,7 +4198,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" wrapText="true"/>
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="center"/>
@@ -7872,1141 +4495,1143 @@
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="n"/>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="C2" s="9" t="n"/>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="3">
       <c r="A3" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customHeight="true" hidden="false" ht="182.228576660156" outlineLevel="0" r="4">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row ht="281.399993896484" outlineLevel="0" r="4">
-      <c r="A4" s="7" t="s">
-        <v>4</v>
-      </c>
       <c r="B4" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row ht="46.7999992370605" outlineLevel="0" r="5">
       <c r="A5" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row ht="187.199996948242" outlineLevel="0" r="6">
       <c r="A6" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row ht="62.4000015258789" outlineLevel="0" r="7">
       <c r="A7" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="8">
       <c r="A8" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="9" t="n"/>
     </row>
     <row ht="63" outlineLevel="0" r="9">
       <c r="A9" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row ht="31.2000007629395" outlineLevel="0" r="10">
       <c r="A10" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row ht="156" outlineLevel="0" r="11">
       <c r="A11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row ht="17.3999996185303" outlineLevel="0" r="12">
       <c r="A12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="156" outlineLevel="0" r="13">
       <c r="A13" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row ht="31.2000007629395" outlineLevel="0" r="14">
       <c r="A14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row ht="78" outlineLevel="0" r="15">
       <c r="A15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row ht="140.399993896484" outlineLevel="0" r="16">
       <c r="A16" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row ht="31.2000007629395" outlineLevel="0" r="17">
       <c r="A17" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row ht="78" outlineLevel="0" r="18">
       <c r="A18" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row ht="31.2000007629395" outlineLevel="0" r="19">
       <c r="A19" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row ht="17.3999996185303" outlineLevel="0" r="20">
       <c r="A20" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row ht="140.399993896484" outlineLevel="0" r="21">
       <c r="A21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row ht="17.3999996185303" outlineLevel="0" r="22">
       <c r="A22" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row ht="46.7999992370605" outlineLevel="0" r="23">
       <c r="A23" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row ht="31.2000007629395" outlineLevel="0" r="24">
       <c r="A24" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row ht="17.3999996185303" outlineLevel="0" r="25">
       <c r="A25" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row ht="17.3999996185303" outlineLevel="0" r="26">
       <c r="A26" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row ht="31.2000007629395" outlineLevel="0" r="27">
       <c r="A27" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row ht="31.2000007629395" outlineLevel="0" r="28">
       <c r="A28" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row ht="17.3999996185303" outlineLevel="0" r="29">
       <c r="A29" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row ht="17.3999996185303" outlineLevel="0" r="30">
       <c r="A30" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row ht="62.4000015258789" outlineLevel="0" r="31">
       <c r="A31" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row ht="31.2000007629395" outlineLevel="0" r="32">
       <c r="A32" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row ht="17.3999996185303" outlineLevel="0" r="33">
       <c r="A33" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row ht="31.2000007629395" outlineLevel="0" r="34">
       <c r="A34" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="9" t="n"/>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="35">
       <c r="A35" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="36">
       <c r="A36" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="37">
       <c r="A37" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="38">
       <c r="A38" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="39">
       <c r="A39" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="40">
       <c r="A40" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="41">
       <c r="A41" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="42">
       <c r="A42" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="43">
       <c r="A43" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="44">
       <c r="A44" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="45">
       <c r="A45" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="46">
       <c r="A46" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="47">
       <c r="A47" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="48">
       <c r="A48" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="49">
       <c r="A49" s="22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="50">
       <c r="A50" s="22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="51">
       <c r="A51" s="22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="52">
       <c r="A52" s="22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="53">
       <c r="A53" s="22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C53" s="9" t="n"/>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="54">
       <c r="A54" s="22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="55">
       <c r="A55" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="56">
       <c r="A56" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="57">
       <c r="A57" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="58">
       <c r="A58" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="59">
       <c r="A59" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="60">
       <c r="A60" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C60" s="9" t="n"/>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="61">
       <c r="A61" s="17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row ht="93.5999984741211" outlineLevel="0" r="62">
       <c r="A62" s="17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row ht="62.4000015258789" outlineLevel="0" r="63">
       <c r="A63" s="17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="64">
       <c r="A64" s="17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="65">
       <c r="A65" s="17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C65" s="9" t="n"/>
     </row>
     <row ht="87" outlineLevel="0" r="66">
       <c r="A66" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row ht="87" outlineLevel="0" r="67">
       <c r="A67" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row ht="87" outlineLevel="0" r="68">
       <c r="A68" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row ht="87" outlineLevel="0" r="69">
       <c r="A69" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row ht="87" outlineLevel="0" r="70">
       <c r="A70" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row ht="109.199996948242" outlineLevel="0" r="71">
       <c r="A71" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row ht="87" outlineLevel="0" r="72">
       <c r="A72" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row ht="234" outlineLevel="0" r="73">
       <c r="A73" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row ht="62.4000015258789" outlineLevel="0" r="74">
       <c r="A74" s="22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row ht="52.2000007629395" outlineLevel="0" r="75">
       <c r="A75" s="22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row ht="109.199996948242" outlineLevel="0" r="76">
       <c r="A76" s="22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row ht="52.2000007629395" outlineLevel="0" r="77">
       <c r="A77" s="22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C77" s="9" t="n"/>
     </row>
     <row ht="109.199996948242" outlineLevel="0" r="78">
       <c r="A78" s="17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row ht="46.7999992370605" outlineLevel="0" r="79">
       <c r="A79" s="17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row ht="17.3999996185303" outlineLevel="0" r="80">
       <c r="A80" s="17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row ht="31.2000007629395" outlineLevel="0" r="81">
       <c r="A81" s="17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row ht="31.2000007629395" outlineLevel="0" r="82">
       <c r="A82" s="17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="83">
       <c r="A83" s="17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row ht="46.7999992370605" outlineLevel="0" r="84">
       <c r="A84" s="17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="85">
       <c r="A85" s="17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row ht="109.199996948242" outlineLevel="0" r="86">
       <c r="A86" s="17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row ht="409" outlineLevel="0" r="87">
       <c r="A87" s="17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C87" s="9" t="n"/>
     </row>
     <row ht="52.2000007629395" outlineLevel="0" r="88">
       <c r="A88" s="17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row ht="31.7999992370605" outlineLevel="0" r="89">
       <c r="A89" s="17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row ht="62.4000015258789" outlineLevel="0" r="90">
       <c r="A90" s="17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row ht="140.399993896484" outlineLevel="0" r="91">
       <c r="A91" s="17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row ht="46.7999992370605" outlineLevel="0" r="92">
       <c r="A92" s="17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="93">
       <c r="A93" s="22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="94">
       <c r="A94" s="22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row ht="52.2000007629395" outlineLevel="0" r="95">
       <c r="A95" s="22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row ht="52.2000007629395" outlineLevel="0" r="96">
       <c r="A96" s="22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row ht="52.2000007629395" outlineLevel="0" r="97">
       <c r="A97" s="22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C97" s="9" t="n"/>
     </row>
     <row outlineLevel="0" r="98">
       <c r="A98" s="26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C98" s="3" t="n"/>
     </row>
     <row outlineLevel="0" r="99">
       <c r="A99" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row outlineLevel="0" r="100">
       <c r="A100" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row outlineLevel="0" r="101">
       <c r="A101" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row outlineLevel="0" r="102">
       <c r="A102" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row outlineLevel="0" r="103">
       <c r="A103" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row outlineLevel="0" r="104">
       <c r="A104" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row outlineLevel="0" r="105">
       <c r="A105" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row outlineLevel="0" r="106">
       <c r="A106" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row outlineLevel="0" r="107">
       <c r="A107" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row outlineLevel="0" r="108">
       <c r="A108" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row outlineLevel="0" r="109">
       <c r="A109" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row outlineLevel="0" r="110">
       <c r="A110" s="27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C110" s="29" t="n"/>
     </row>

--- a/list.xlsx
+++ b/list.xlsx
@@ -6,19 +6,19 @@
     <sheet name="all" r:id="rId1" sheetId="1" state="visible"/>
   </sheets>
   <definedNames>
+    <definedName hidden="false" localSheetId="0" name="_Toc153527131">'all'!$A$89</definedName>
+    <definedName hidden="false" localSheetId="0" name="_Toc158295177">'all'!$A$40</definedName>
     <definedName hidden="false" localSheetId="0" name="_Toc153527125">'all'!$A$66</definedName>
+    <definedName hidden="false" localSheetId="0" name="_Toc152235560">'all'!$A$49</definedName>
+    <definedName hidden="false" localSheetId="0" name="_Toc158295181">'all'!$A$61</definedName>
+    <definedName hidden="false" localSheetId="0" name="_Toc153527119">'all'!$A$35</definedName>
+    <definedName hidden="false" localSheetId="0" name="_Toc153527128">'all'!$A$78</definedName>
     <definedName hidden="false" localSheetId="0" name="_Toc158295173">'all'!$A$10</definedName>
-    <definedName hidden="false" localSheetId="0" name="_Toc153527128">'all'!$A$78</definedName>
-    <definedName hidden="false" localSheetId="0" name="_Toc153527129">'all'!$A$83</definedName>
     <definedName hidden="false" localSheetId="0" name="_Toc158295175">'all'!$A$25</definedName>
-    <definedName hidden="false" localSheetId="0" name="_Toc153527119">'all'!$A$35</definedName>
-    <definedName hidden="false" localSheetId="0" name="_Toc152235560">'all'!$A$49</definedName>
-    <definedName hidden="false" localSheetId="0" name="_Toc158295177">'all'!$A$40</definedName>
+    <definedName hidden="false" localSheetId="0" name="_Toc151731930">'all'!$A$88</definedName>
     <definedName hidden="false" localSheetId="0" name="_Toc158295172">'all'!$A$3</definedName>
     <definedName hidden="false" localSheetId="0" name="_Toc153527117">'all'!$A$22</definedName>
-    <definedName hidden="false" localSheetId="0" name="_Toc153527131">'all'!$A$89</definedName>
-    <definedName hidden="false" localSheetId="0" name="_Toc158295181">'all'!$A$61</definedName>
-    <definedName hidden="false" localSheetId="0" name="_Toc151731930">'all'!$A$88</definedName>
+    <definedName hidden="false" localSheetId="0" name="_Toc153527129">'all'!$A$83</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -38,9 +38,6 @@
     <t>Поиск</t>
   </si>
   <si>
-    <t>Для поиска воспользуйтесь меню сверху</t>
-  </si>
-  <si>
     <t>СОЗДАНИЕ ПАРТНЕРА И КОНТРАГЕНТА</t>
   </si>
   <si>
@@ -546,7 +543,7 @@
 </t>
     </r>
     <r>
-      <t>Реализация товаров и услуг с установленным флагом Бухгалтерский документ</t>
+      <t>(Реализация товаров и услуг с установленным флагом Бухгалтерский документ)</t>
     </r>
   </si>
   <si>
@@ -606,7 +603,7 @@
 </t>
     </r>
     <r>
-      <t>Одновременная отгрузка</t>
+      <t>(Одновременная отгрузка)</t>
     </r>
   </si>
   <si>
@@ -628,7 +625,7 @@
     <t>/imgs/11_3.png</t>
   </si>
   <si>
-    <t>&lt;p&gt;На закладке &lt;b&gt;Дополнительно&lt;/b&gt; по ссылке &lt;b&gt;Реквизиты печати ТОРГ12&lt;/b&gt; заполняется только в том случае, если сразу создается счет-фактура и печатается пакет документов для клиента (правила заполнения описаны в разделе &lt;span style="text-decoration: underline;"&gt;&lt;b&gt;Реализация товаров и услуг с установленным флагом Бухгалтерский документ&lt;/b&gt;&lt;/span&gt; текущей инструкции). В противоположном случае здесь можно ничего не заполнять.&lt;/p&gt;</t>
+    <t>&lt;p&gt;На закладке &lt;b&gt;Дополнительно&lt;/b&gt; по ссылке &lt;b&gt;Реквизиты печати ТОРГ12&lt;/b&gt; заполняется только в том случае, если сразу создается счет-фактура и печатается пакет документов для клиента (правила заполнения описаны в разделе &lt;span style="text-decoration: underline;"&gt;&lt;b&gt;(Реализация товаров и услуг с установленным флагом Бухгалтерский документ)&lt;/b&gt;&lt;/span&gt; текущей инструкции). В противоположном случае здесь можно ничего не заполнять.&lt;/p&gt;</t>
   </si>
   <si>
     <t>СЧЕТ-ФАКТУРА ВЫДАННЫЙ</t>
@@ -738,7 +735,7 @@
 </t>
     </r>
     <r>
-      <t>Возврат товаров от клиента</t>
+      <t>(Возврат товаров от клиента)</t>
     </r>
   </si>
   <si>
@@ -762,7 +759,7 @@
 </t>
     </r>
     <r>
-      <t>Реализация товаров и услуг (на замену)</t>
+      <t>(Реализация товаров и услуг (на замену))</t>
     </r>
   </si>
   <si>
@@ -782,6 +779,36 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t>СО</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t>КРАЩЕНИЯ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;p&gt;&lt;b&gt;АО -&lt;/b&gt; Акционерное общество&lt;br /&gt;&lt;b&gt;АРМА&amp;nbsp;-&lt;/b&gt; ООО &amp;laquo;АРМА&amp;raquo; (подразделение ЭМК)&lt;br /&gt;&lt;b&gt;ВАЗ&amp;nbsp;-&lt;/b&gt; ЗАО &amp;laquo;Волгоградский арматурный завод&amp;raquo; (производственная площадка ЭМК)&lt;br /&gt;&lt;b&gt;ДС&amp;nbsp;-&lt;/b&gt; Денежные средства&lt;br /&gt;&lt;b&gt;ГИП&amp;nbsp;-&lt;/b&gt; Главный инженер проекта&lt;br /&gt;&lt;b&gt;ЗАО&amp;nbsp;-&lt;/b&gt; Закрытое акционерное общество&lt;br /&gt;&lt;b&gt;ИНН&amp;nbsp;-&lt;/b&gt; Индивидуальный номер налогоплательщика&lt;br /&gt;&lt;b&gt;ИП&amp;nbsp;-&lt;/b&gt; Индивидуальный предприниматель&lt;br /&gt;&lt;b&gt;ИПЦ&amp;nbsp;-&amp;nbsp;&lt;/b&gt;АО "Инженерно-промышленный центр" (производственная площадка ЭМК)&lt;br /&gt;&lt;b&gt;ЕГРЮЛ/ЕГРИП&amp;nbsp;-&lt;/b&gt; Единый государственный реестр юридических лиц/Единый государственный реестр индивидуальных предпринимателей&lt;br /&gt;&lt;b&gt;КД -&lt;/b&gt; Коммерческая дирекция (подразделение ЭМК)&lt;br /&gt;&lt;b&gt;КО&amp;nbsp;-&lt;/b&gt; Коммерческий отдел (подразделение ЭМК)&lt;br /&gt;&lt;b&gt;КПП&amp;nbsp;-&lt;/b&gt; Код причины постановки&lt;br /&gt;&lt;b&gt;САЗ&amp;nbsp;-&lt;/b&gt; ЗАО &amp;laquo;Саратовский арматурный завод&amp;raquo; (производственная площадка ЭМК)&lt;br /&gt;&lt;b&gt;КСА&amp;nbsp;-&lt;/b&gt; ЗАО &amp;laquo;Курганспецарматура&amp;raquo; (производственная площадка ЭМК)&lt;br /&gt;&lt;b&gt;НДС&amp;nbsp;-&lt;/b&gt; Налог на добавленную стоимость&lt;br /&gt;&lt;b&gt;ООО&amp;nbsp;-&lt;/b&gt; Общество с ограниченной ответственностью&lt;br /&gt;&lt;b&gt;ОКПО&amp;nbsp;-&lt;/b&gt; Общероссийский классификатор предприятий и организаций&lt;br /&gt;&lt;b&gt;ОЛ&amp;nbsp;-&lt;/b&gt; Опросный лист&lt;br /&gt;&lt;b&gt;ОП&amp;nbsp;-&lt;/b&gt; Обособленное подразделение&lt;br /&gt;&lt;b&gt;Регулятор&amp;nbsp;-&lt;/b&gt; АО НПО &amp;laquo;Регулятор&amp;raquo; (производственная площадка ЭМК)&lt;br /&gt;&lt;b&gt;ЛСЗ&amp;nbsp;-&lt;/b&gt; Лист согласования закупки&lt;br /&gt;&lt;b&gt;ТЗР&amp;nbsp;-&lt;/b&gt; Транспортно-заготовительные расходы&lt;br /&gt;&lt;b&gt;Техно-сфера&amp;nbsp;-&lt;/b&gt; ООО &amp;laquo;Техно-сфера&amp;raquo; (производственная площадка ЭМК)&lt;br /&gt;&lt;b&gt;Техпромарма&amp;nbsp;-&lt;/b&gt; ООО &amp;laquo;Техпромарма&amp;raquo; (производственная площадка ЭМК)&lt;br /&gt;&lt;b&gt;ТН&amp;nbsp;-&lt;/b&gt; Транспортная накладная&lt;br /&gt;&lt;b&gt;ТТН&amp;nbsp;-&lt;/b&gt; Товарно-транспортная накладная&lt;br /&gt;&lt;b&gt;Тулаэлектропривод (ТЭП)&amp;nbsp;-&lt;/b&gt; АО &amp;laquo;Тулаэлектропривод&amp;raquo; (производственная площадка ЭМК)&lt;br /&gt;&lt;b&gt;УПД&amp;nbsp;-&lt;/b&gt; Универсальный передаточный документ&lt;br /&gt;&lt;b&gt;ЭМК&amp;nbsp;-&lt;/b&gt; Энергомашкомплект&lt;br /&gt;&lt;b&gt;УЛТ&amp;nbsp;-&lt;/b&gt; ООО &amp;laquo;Универсальный логистический терминал&amp;raquo;&lt;/p&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">ПРИЛОЖЕНИЕ 1. </t>
     </r>
     <r>
@@ -790,139 +817,7 @@
   </si>
   <si>
     <r>
-      <t>&lt;style&gt;</t>
-    </r>
-    <r>
-      <t>table.iksweb{</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">	width: 100%;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">	border-collapse:collapse;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">	border-spacing:0;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">	height: auto;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>}</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>table.iksweb,table.iksweb td, table.iksweb th {</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">	border: 1px solid #595959;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>}</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>table.iksweb td,table.iksweb th {</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">	padding: 3px;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">	width: 30px;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">	height: 35px;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>}</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>table.iksweb th {</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">	background: #347c99; </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">	color: #fff; </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">	font-weight: normal;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>}</t>
-    </r>
-    <r>
-      <t>&lt;/style&gt;&lt;table class="iksweb"&gt;</t>
+      <t>&lt;table class="iksweb"&gt;</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -985,7 +880,7 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;некорректное оформление фактов хозяйственной жизни организации. Неправильно уплаченные налоги.</t>
+      <t xml:space="preserve">			&lt;td&gt;Некорректное оформление фактов хозяйственной жизни организации. Неправильно уплаченные налоги.</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -1027,7 +922,7 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;некорректное оформление фактов хозяйственной жизни организации. Неправильно уплаченные налоги.</t>
+      <t xml:space="preserve">			&lt;td&gt;Некорректное оформление фактов хозяйственной жизни организации. Неправильно уплаченные налоги.</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -1069,7 +964,7 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;некорректное оформление фактов хозяйственной жизни организации. Неправильно уплаченные налоги.</t>
+      <t xml:space="preserve">			&lt;td&gt;Некорректное оформление фактов хозяйственной жизни организации. Неправильно уплаченные налоги.</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -1111,7 +1006,7 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;некорректное оформление фактов хозяйственной жизни организации. Неправильно уплаченные налоги.</t>
+      <t xml:space="preserve">			&lt;td&gt;Некорректное оформление фактов хозяйственной жизни организации. Неправильно уплаченные налоги.</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -1153,7 +1048,7 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;несвоевременная и неверная привязка оплаты в бухгалтерии. Расхождение в учете с контрагентом. Требования из ФНС. Неправильно уплаченные налоги.</t>
+      <t xml:space="preserve">			&lt;td&gt;Несвоевременная и неверная привязка оплаты в бухгалтерии. Расхождение в учете с контрагентом. Требования из ФНС. Неправильно уплаченные налоги.</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -1195,7 +1090,7 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;при поступлении ДС не на те банковские реквизиты - штрафы со стороны банка, проблемы с расходыванием ДС, отсутствие возможности своевременно загасить кредит, как следствие-начисление дополнительных процентов.</t>
+      <t xml:space="preserve">			&lt;td&gt;При поступлении ДС не на те банковские реквизиты - штрафы со стороны банка, проблемы с расходыванием ДС, отсутствие возможности своевременно загасить кредит, как следствие-начисление дополнительных процентов.</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -1237,7 +1132,7 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;отсутствие подтверждения реальности сделки. Доначисление со стороны ФНС налогов.</t>
+      <t xml:space="preserve">			&lt;td&gt;Отсутствие подтверждения реальности сделки. Доначисление со стороны ФНС налогов.</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -1279,7 +1174,7 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;покупатель не примет документы, задержка оплаты продукции в случае постоплаты, "лишний интерес" со стороны ФНС из-за несоответствия сведений, неправильное отражение информации во внутреннем учете всей организации, неправильно уплаченные налоги.</t>
+      <t xml:space="preserve">			&lt;td&gt;Покупатель не примет документы, задержка оплаты продукции в случае постоплаты, "лишний интерес" со стороны ФНС из-за несоответствия сведений, неправильное отражение информации во внутреннем учете всей организации, неправильно уплаченные налоги.</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -1321,7 +1216,7 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;неправильная привязка в бухгалтерском учете по договорам, расхождения с контрагентами в актах сверки</t>
+      <t xml:space="preserve">			&lt;td&gt;Неправильная привязка в бухгалтерском учете по договорам, расхождения с контрагентами в актах сверки</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -1405,7 +1300,7 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;недостоверность информации в программе, некорректное оформление фактов хозяйственной жизни организации, в случае оформления дубликатов документов будут расхождения с первоначальным вариантом</t>
+      <t xml:space="preserve">			&lt;td&gt;Недостоверность информации в программе, некорректное оформление фактов хозяйственной жизни организации, в случае оформления дубликатов документов будут расхождения с первоначальным вариантом</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -1447,7 +1342,7 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;непредставление документов по запросу ФНС</t>
+      <t xml:space="preserve">			&lt;td&gt;Непредставление документов по запросу ФНС</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -1522,21 +1417,21 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;Наименование документа</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>&lt;/td&gt;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">			&lt;td&gt;Срок сдачи в бухгалтерию</t>
+      <t xml:space="preserve">			&lt;th&gt;Наименование документа</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>&lt;/td&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">			&lt;th&gt;Срок сдачи в бухгалтерию</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -1564,21 +1459,21 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;счет-фактура </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>&lt;/td&gt;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">			&lt;td&gt;в течение 3-х дней с момента отгрузки, приложив ТН и ТТН</t>
+      <t xml:space="preserve">			&lt;td&gt;Счет-фактура </t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>&lt;/td&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">			&lt;td&gt;В течение 3-х дней с момента отгрузки, приложив ТН и ТТН</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -1606,21 +1501,21 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;торг-12</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>&lt;/td&gt;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">			&lt;td&gt;направляются 2 экземпляра на подпись контрагенту (желательно в течение месяца получить подписанный наш экземпляр)</t>
+      <t xml:space="preserve">			&lt;td&gt;Торг-12</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>&lt;/td&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">			&lt;td&gt;Направляются 2 экземпляра на подпись контрагенту (желательно в течение месяца получить подписанный наш экземпляр)</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -1648,21 +1543,21 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;транспортная накладная</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>&lt;/td&gt;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">			&lt;td&gt;в течение 3-х дней с момента отгрузки (1 экземпляр с подписью водителя), с отметкой заказчика вместе с торг-12</t>
+      <t xml:space="preserve">			&lt;td&gt;Транспортная накладная</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>&lt;/td&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">			&lt;td&gt;В течение 3-х дней с момента отгрузки (1 экземпляр с подписью водителя), с отметкой заказчика вместе с торг-12</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -1690,21 +1585,21 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;товарно-транспортная накладная</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>&lt;/td&gt;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">			&lt;td&gt;в течение 3-х дней с момента отгрузки (1 экземпляр с подписью водителя), с отметкой заказчика вместе с торг-12</t>
+      <t xml:space="preserve">			&lt;td&gt;Товарно-транспортная накладная</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>&lt;/td&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">			&lt;td&gt;В течение 3-х дней с момента отгрузки (1 экземпляр с подписью водителя), с отметкой заказчика вместе с торг-12</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -1732,21 +1627,21 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;доверенность</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>&lt;/td&gt;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">			&lt;td&gt;в течение 3-х дней с момента отгрузки, с экземпляром торг-12, которая подписана по доверенности</t>
+      <t xml:space="preserve">			&lt;td&gt;Доверенность</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>&lt;/td&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">			&lt;td&gt;В течение 3-х дней с момента отгрузки, с экземпляром торг-12, которая подписана по доверенности</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -1792,7 +1687,7 @@
         <color theme="1" tint="0"/>
         <sz val="11"/>
       </rPr>
-      <t>СРОКИ ПРЕДОСТАВЛЕНИЯ ПЕРВИЧНЫХ ДОКУМЕНТОВ В БУХГАЛТЕРИЮ (</t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -1844,21 +1739,21 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;Наименование документа</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>&lt;/td&gt;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">			&lt;td&gt;Срок сдачи в бухгалтерию</t>
+      <t xml:space="preserve">			&lt;th&gt;Наименование документа</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>&lt;/td&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">			&lt;th&gt;Срок сдачи в бухгалтерию</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -1886,21 +1781,21 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;счет-фактура </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>&lt;/td&gt;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">			&lt;td&gt;в течение 3-х дней с момента оприходования в УТ с приложением транспортных документов</t>
+      <t xml:space="preserve">			&lt;td&gt;Счет-фактура </t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>&lt;/td&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">			&lt;td&gt;В течение 3-х дней с момента оприходования в УТ с приложением транспортных документов</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -1928,21 +1823,21 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;торг-12</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>&lt;/td&gt;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">			&lt;td&gt;направляются 2 экземпляра на подпись контрагенту (желательно в течение месяца получить подписанный наш экземпляр)</t>
+      <t xml:space="preserve">			&lt;td&gt;Торг-12</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>&lt;/td&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">			&lt;td&gt;Направляются 2 экземпляра на подпись контрагенту (желательно в течение месяца получить подписанный наш экземпляр)</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -1970,21 +1865,21 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;транспортные документы (например, экспедиторская расписка ДЛ, ТН, оформленная КСА или Регулятором)</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>&lt;/td&gt;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">			&lt;td&gt;в течение 3-х дней с момента оприходования в УТ, приложив к сч-ф</t>
+      <t xml:space="preserve">			&lt;td&gt;Транспортные документы (например, экспедиторская расписка ДЛ, ТН, оформленная КСА или Регулятором)</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>&lt;/td&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">			&lt;td&gt;В течение 3-х дней с момента оприходования в УТ, приложив к сч-ф</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -2030,7 +1925,7 @@
         <color theme="1" tint="0"/>
         <sz val="11"/>
       </rPr>
-      <t>СРОКИ ПРЕДОСТАВЛЕНИЯ ПЕРВИЧНЫХ ДОКУМЕНТОВ В БУХГАЛТЕРИЮ (</t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -2088,21 +1983,21 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;Наименование документа</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>&lt;/td&gt;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">			&lt;td&gt;Срок сдачи в бухгалтерию</t>
+      <t xml:space="preserve">			&lt;th&gt;Наименование документа</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>&lt;/td&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">			&lt;th&gt;Срок сдачи в бухгалтерию</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -2130,21 +2025,21 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;счет-фактура </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>&lt;/td&gt;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">			&lt;td&gt;направлять на проверку за день до отгрузки или в день отгрузки с помощью ответственного менеджера в центральном офисе, оригиналы предоставить как в п. 1</t>
+      <t xml:space="preserve">			&lt;td&gt;Счет-фактура </t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>&lt;/td&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">			&lt;td&gt;Направлять на проверку за день до отгрузки или в день отгрузки с помощью ответственного менеджера в центральном офисе, оригиналы предоставить как в п. 1</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -2172,21 +2067,21 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;торг-12</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>&lt;/td&gt;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">			&lt;td&gt;направлять на проверку за день до отгрузки или в день отгрузки с помощью ответственного менеджера в центральном офисе, оригиналы предоставить как в п. 2</t>
+      <t xml:space="preserve">			&lt;td&gt;Торг-12</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>&lt;/td&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">			&lt;td&gt;Направлять на проверку за день до отгрузки или в день отгрузки с помощью ответственного менеджера в центральном офисе, оригиналы предоставить как в п. 2</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -2214,21 +2109,21 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;транспортная накладная</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>&lt;/td&gt;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">			&lt;td&gt;направлять на проверку за день до отгрузки или в день отгрузки с помощью ответственного менеджера в центральном офисе, оригиналы предоставить как в п. 3</t>
+      <t xml:space="preserve">			&lt;td&gt;Транспортная накладная</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>&lt;/td&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">			&lt;td&gt;Направлять на проверку за день до отгрузки или в день отгрузки с помощью ответственного менеджера в центральном офисе, оригиналы предоставить как в п. 3</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -2256,21 +2151,21 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;товарно-транспортная накладная</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>&lt;/td&gt;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">			&lt;td&gt;направлять на проверку за день до отгрузки или в день отгрузки с помощью ответственного менеджера в центральном офисе, оригиналы предоставить как в п. 4</t>
+      <t xml:space="preserve">			&lt;td&gt;Товарно-транспортная накладная</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>&lt;/td&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">			&lt;td&gt;Направлять на проверку за день до отгрузки или в день отгрузки с помощью ответственного менеджера в центральном офисе, оригиналы предоставить как в п. 4</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -2298,21 +2193,21 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;доверенность</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>&lt;/td&gt;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">			&lt;td&gt;в течение 3-х дней с момента отгрузки, с экземпляром торг-12, которая подписана по доверенности</t>
+      <t xml:space="preserve">			&lt;td&gt;Доверенность</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>&lt;/td&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">			&lt;td&gt;В течение 3-х дней с момента отгрузки, с экземпляром торг-12, которая подписана по доверенности</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -2358,7 +2253,7 @@
         <color theme="1" tint="0"/>
         <sz val="11"/>
       </rPr>
-      <t>СРОКИ ПРЕДОСТАВЛЕНИЯ ПЕРВИЧНЫХ ДОКУМЕНТОВ В БУХГАЛТЕРИЮ (</t>
+      <t xml:space="preserve"> (</t>
     </r>
     <r>
       <rPr>
@@ -2406,21 +2301,21 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;Наименование документа</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>&lt;/td&gt;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">			&lt;td&gt;Срок сдачи в бухгалтерию</t>
+      <t xml:space="preserve">			&lt;th&gt;Наименование документа</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>&lt;/td&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">			&lt;th&gt;Срок сдачи в бухгалтерию</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -2448,21 +2343,21 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;счет-фактура </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>&lt;/td&gt;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">			&lt;td&gt;направляются 2 экземпляра на подпись контрагенту (желательно в течение месяца получить подписанный наш экземпляр)</t>
+      <t xml:space="preserve">			&lt;td&gt;Счет-фактура </t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>&lt;/td&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">			&lt;td&gt;Направляются 2 экземпляра на подпись контрагенту (желательно в течение месяца получить подписанный наш экземпляр)</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -2490,21 +2385,21 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;торг-12</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>&lt;/td&gt;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">			&lt;td&gt;направлять на проверку за день до отгрузки или в день отгрузки с помощью ответственного менеджера в центральном офисе, оригиналы предоставить как в п. 2</t>
+      <t xml:space="preserve">			&lt;td&gt;Торг-12</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>&lt;/td&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">			&lt;td&gt;Направлять на проверку за день до отгрузки или в день отгрузки с помощью ответственного менеджера в центральном офисе, оригиналы предоставить как в п. 2</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -2532,21 +2427,21 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;транспортная накладная</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>&lt;/td&gt;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">			&lt;td&gt;сканы транспортных после отгрузки направить на почту ответственного менеджера в центральном офисе и ответственному бухгалтеру, оригиналы передать в Саратов до 20 числа месяца, следующего за месяцем отгрузки</t>
+      <t xml:space="preserve">			&lt;td&gt;Транспортная накладная</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>&lt;/td&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">			&lt;td&gt;Сканы транспортных после отгрузки направить на почту ответственного менеджера в центральном офисе и ответственному бухгалтеру, оригиналы передать в Саратов до 20 числа месяца, следующего за месяцем отгрузки</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -2574,21 +2469,21 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;товарно-транспортная накладная</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>&lt;/td&gt;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">			&lt;td&gt;сканы транспортных после отгрузки направить на почту ответственного менеджера в центральном офисе и ответственному бухгалтеру, оригиналы передать в Саратов до 20 числа месяца, следующего за месяцем отгрузки</t>
+      <t xml:space="preserve">			&lt;td&gt;Товарно-транспортная накладная</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>&lt;/td&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">			&lt;td&gt;Сканы транспортных после отгрузки направить на почту ответственного менеджера в центральном офисе и ответственному бухгалтеру, оригиналы передать в Саратов до 20 числа месяца, следующего за месяцем отгрузки</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -2616,21 +2511,21 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;доверенность</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>&lt;/td&gt;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">			&lt;td&gt;оригинал передать в Саратов до 20 числа месяца, следующего за месяцем отгрузки, с экземпляром торг-12, которая подписана по доверенности</t>
+      <t xml:space="preserve">			&lt;td&gt;Доверенность</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>&lt;/td&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">			&lt;td&gt;Оригинал передать в Саратов до 20 числа месяца, следующего за месяцем отгрузки, с экземпляром торг-12, которая подписана по доверенности</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -2676,7 +2571,7 @@
         <color theme="1" tint="0"/>
         <sz val="11"/>
       </rPr>
-      <t>СРОКИ ПРЕДОСТАВЛЕНИЯ ПЕРВИЧНЫХ ДОКУМЕНТОВ В БУХГАЛТЕРИЮ (П</t>
+      <t xml:space="preserve"> (П</t>
     </r>
     <r>
       <rPr>
@@ -2716,21 +2611,21 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;Наименование документа</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>&lt;/td&gt;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">			&lt;td&gt;Срок сдачи в бухгалтерию</t>
+      <t xml:space="preserve">			&lt;th&gt;Наименование документа</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>&lt;/td&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">			&lt;th&gt;Срок сдачи в бухгалтерию</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -2758,21 +2653,21 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;счет-фактура и торг-12/УПД и транспортные документы к ним (Товары)</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>&lt;/td&gt;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">			&lt;td&gt;сканы документов обязательно прикреплять при оприходовании продукции в УТ, оригиналы предоставлять                                                                         за 1 кв. (январь-март) - не позднее 20 апреля текущего года                                                                                                                                                                           за 2 кв. (апрель-июнь) - не позднее 20 июля текущего года                                                                                                                                                                                         за 3 кв. (июль-сентябрь) - не позднее 20 октября текущего года                                                                                                                                                                                   за 4 кв. (октябрь-декабрь) - не позднее 20 января следующего года</t>
+      <t xml:space="preserve">			&lt;td&gt;Счет-фактура и торг-12/УПД и транспортные документы к ним (Товары)</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>&lt;/td&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">			&lt;td&gt;Сканы документов обязательно прикреплять при оприходовании продукции в УТ, оригиналы предоставлять                                                                         за 1 кв. (январь-март) - не позднее 20 апреля текущего года                                                                                                                                                                           за 2 кв. (апрель-июнь) - не позднее 20 июля текущего года                                                                                                                                                                                         за 3 кв. (июль-сентябрь) - не позднее 20 октября текущего года                                                                                                                                                                                   за 4 кв. (октябрь-декабрь) - не позднее 20 января следующего года</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -2800,21 +2695,21 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;счет-фактура и акт выполненных работ или оказанных услуг /УПД (Услуги)</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>&lt;/td&gt;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">			&lt;td&gt;сканы направить на почту ответственного бухгалтера в течение 5 дней с даты оказания услуги, оригиналы предоставлять                                                                         за 1 кв. (январь-март) - не позднее 20 апреля текущего года                                                                                                                                                                           за 2 кв. (апрель-июнь) - не позднее 20 июля текущего года                                                                                                                                                                                         за 3 кв. (июль-сентябрь) - не позднее 20 октября текущего года                                                                                                                                                                                   за 4 кв. (октябрь-декабрь) - не позднее 20 января следующего года</t>
+      <t xml:space="preserve">			&lt;td&gt;Счет-фактура и акт выполненных работ или оказанных услуг /УПД (Услуги)</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>&lt;/td&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">			&lt;td&gt;Сканы направить на почту ответственного бухгалтера в течение 5 дней с даты оказания услуги, оригиналы предоставлять                                                                         за 1 кв. (январь-март) - не позднее 20 апреля текущего года                                                                                                                                                                           за 2 кв. (апрель-июнь) - не позднее 20 июля текущего года                                                                                                                                                                                         за 3 кв. (июль-сентябрь) - не позднее 20 октября текущего года                                                                                                                                                                                   за 4 кв. (октябрь-декабрь) - не позднее 20 января следующего года</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -2860,7 +2755,7 @@
         <color theme="1" tint="0"/>
         <sz val="11"/>
       </rPr>
-      <t>СРОКИ ПРЕДОСТАВЛЕНИЯ ПЕРВИЧНЫХ ДОКУМЕНТОВ В БУХГАЛТЕРИЮ (</t>
+      <t xml:space="preserve"> (</t>
     </r>
     <r>
       <rPr>
@@ -2918,21 +2813,21 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;Наименование документа</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>&lt;/td&gt;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">			&lt;td&gt;Срок сдачи в бухгалтерию</t>
+      <t xml:space="preserve">			&lt;th&gt;Наименование документа</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>&lt;/td&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">			&lt;th&gt;Срок сдачи в бухгалтерию</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -2974,7 +2869,7 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;в течение 5 дней с момента получения аванса (номерок запросить у бухгалтерии)</t>
+      <t xml:space="preserve">			&lt;td&gt;В течение 5 дней с момента получения аванса (номерок запросить у бухгалтерии)</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -3020,7 +2915,7 @@
         <color theme="1" tint="0"/>
         <sz val="11"/>
       </rPr>
-      <t xml:space="preserve">СРОКИ ПРЕДОСТАВЛЕНИЯ ПЕРВИЧНЫХ ДОКУМЕНТОВ В БУХГАЛТЕРИЮ </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -3082,21 +2977,21 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;Наименование документа</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>&lt;/td&gt;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">			&lt;td&gt;Срок сдачи в бухгалтерию</t>
+      <t xml:space="preserve">			&lt;th&gt;Наименование документа</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>&lt;/td&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">			&lt;th&gt;Срок сдачи в бухгалтерию</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -3138,7 +3033,7 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;при получении подобных документов  от заказчиков завести задачу в мотиве, направить скан в бухгалтерию, оригиналы                                                                                                                                                                                                                               за 1 кв. (январь-март) - не позднее 20 апреля текущего года                                                                                                                                                                           за 2 кв. (апрель-июнь) - не позднее 20 июля текущего года                                                                                                                                                                                         за 3 кв. (июль-сентябрь) - не позднее 20 октября текущего года                                                                                                                                                                                   за 4 кв. (октябрь-декабрь) - не позднее 20 января следующего года</t>
+      <t xml:space="preserve">			&lt;td&gt;При получении подобных документов  от заказчиков завести задачу в мотиве, направить скан в бухгалтерию, оригиналы                                                                                                                                                                                                                               за 1 кв. (январь-март) - не позднее 20 апреля текущего года                                                                                                                                                                           за 2 кв. (апрель-июнь) - не позднее 20 июля текущего года                                                                                                                                                                                         за 3 кв. (июль-сентябрь) - не позднее 20 октября текущего года                                                                                                                                                                                   за 4 кв. (октябрь-декабрь) - не позднее 20 января следующего года</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -3177,14 +3072,6 @@
         <sz val="11"/>
       </rPr>
       <t xml:space="preserve">ПРИЛОЖЕНИЕ 2.7. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t xml:space="preserve">СРОКИ ПРЕДОСТАВЛЕНИЯ ПЕРВИЧНЫХ ДОКУМЕНТОВ В БУХГАЛТЕРИЮ </t>
     </r>
     <r>
       <rPr>
@@ -3264,21 +3151,21 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;Наименование документа</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>&lt;/td&gt;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">			&lt;td&gt;Срок сдачи в бухгалтерию</t>
+      <t xml:space="preserve">			&lt;th&gt;Наименование документа</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>&lt;/td&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">			&lt;th&gt;Срок сдачи в бухгалтерию</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -3306,28 +3193,31 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;ежеквартально запрашивать акты сверок с поставщиками и заказчиками, по которым были движения в течение квартала:    </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>за 1 кв. (январь-март) - не позднее 20 апреля текущего года                                                                                                                                                                           за 2 кв. (апрель-июнь) - не позднее 20 июля текущего года                                                                                                                                                                                         за 3 кв. (июль-сентябрь) - не позднее 20 октября текущего года                                                                                                                                                                                   за 4 кв. (октябрь-декабрь) - не позднее 20 января следующего года</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>&lt;/td&gt;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">			&lt;td&gt;при получении подобных документов  от заказчиков завести задачу в мотиве, направить скан в бухгалтерию, оригиналы                                                                                                                                                                                                                               за 1 кв. (январь-март) - не позднее 20 апреля текущего года                                                                                                                                                                           за 2 кв. (апрель-июнь) - не позднее 20 июля текущего года                                                                                                                                                                                         за 3 кв. (июль-сентябрь) - не позднее 20 октября текущего года                                                                                                                                                                                   за 4 кв. (октябрь-декабрь) - не позднее 20 января следующего года</t>
+      <t xml:space="preserve">			&lt;td&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b val="true"/>
+        <i val="true"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Акты сверок</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>&lt;/td&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">			&lt;td&gt;При получении подобных документов  от заказчиков завести задачу в мотиве, направить скан в бухгалтерию, оригиналы                                                                                                                                                                                                                               за 1 кв. (январь-март) - не позднее 20 апреля текущего года                                                                                                                                                                           за 2 кв. (апрель-июнь) - не позднее 20 июля текущего года                                                                                                                                                                                         за 3 кв. (июль-сентябрь) - не позднее 20 октября текущего года                                                                                                                                                                                   за 4 кв. (октябрь-декабрь) - не позднее 20 января следующего года</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -3373,7 +3263,7 @@
         <color theme="1" tint="0"/>
         <sz val="11"/>
       </rPr>
-      <t xml:space="preserve">СРОКИ ПРЕДОСТАВЛЕНИЯ ПЕРВИЧНЫХ ДОКУМЕНТОВ В БУХГАЛТЕРИЮ </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -3449,21 +3339,21 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;Наименование документа</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>&lt;/td&gt;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">			&lt;td&gt;Срок сдачи в бухгалтерию</t>
+      <t xml:space="preserve">			&lt;th&gt;Наименование документа</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>&lt;/td&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">			&lt;th&gt;Срок сдачи в бухгалтерию</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -3505,7 +3395,7 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;в течение 5 дней с момента окончания командировки отчитаться в планово-экономический отдел. Обязательно сохранить и предоставить посадочные талоны!!!</t>
+      <t xml:space="preserve">			&lt;td&gt;В течение 5 дней с момента окончания командировки отчитаться в планово-экономический отдел. Обязательно сохранить и предоставить посадочные талоны!!!</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -3551,7 +3441,7 @@
         <color theme="1" tint="0"/>
         <sz val="11"/>
       </rPr>
-      <t xml:space="preserve">СРОКИ ПРЕДОСТАВЛЕНИЯ ПЕРВИЧНЫХ ДОКУМЕНТОВ В БУХГАЛТЕРИЮ </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -3626,21 +3516,21 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;Наименование документа</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>&lt;/td&gt;</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">			&lt;td&gt;Срок сдачи в бухгалтерию</t>
+      <t xml:space="preserve">			&lt;th&gt;Наименование документа</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t>&lt;/td&gt;</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">			&lt;th&gt;Срок сдачи в бухгалтерию</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -3682,7 +3572,7 @@
 </t>
     </r>
     <r>
-      <t xml:space="preserve">			&lt;td&gt;сканы договоров с поставщиками товаров/услуг отправить на хранение в бухгалтерию, оригиналы сдать до 20 числа месяца, следующего за месяцем заключения договора</t>
+      <t xml:space="preserve">			&lt;td&gt;Сканы договоров с поставщиками товаров/услуг отправить на хранение в бухгалтерию, оригиналы сдать до 20 числа месяца, следующего за месяцем заключения договора</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -3727,313 +3617,95 @@
   </si>
   <si>
     <r>
-      <t>Ниже приведены примеры транспортных и товарно-транспортных накладных для следующих вариантов:</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>За транспорт платим мы, везет УЛТ со склада УЛТ на склад Покупателя.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>Реализация ЗАО САЗ со склада на Песчано-Уметской ул. (транспортировка за счет ЗАО САЗ до склада покупателя).</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>За транспорт платим мы, везет сторонняя ТК со склада УЛТ на склад Покупателя.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>За транспорт платим мы, везет УЛТ со склада УЛТ на терминал ТК в Саратове.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>За транспорт платим мы, везет сторонняя ТК со склада УЛТ до своего терминала в городе Покупателя.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>За транспорт платит покупатель, везет ТК (ДЛ, Байкал, кашалот, ДПД и др.) со склада УЛТ на склад Покупателя.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>За транспорт платит покупатель, везет ТК (ДЛ, Байкал, кашалот, ДПД и др.) со склада УЛТ до терминала ТК в городе заказчика (покупателя).</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>Доставка от УЛТ до склада клиента с привлечением Экспедитора, платим мы.</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>Доставка от УЛТ до склада клиента с привлечением Экспедитора платит Заказчик (покупатель).</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
+      <t>&lt;p&gt;Ниже приведены примеры транспортных и товарно-транспортных накладных для следующих вариантов:&lt;br /&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
         <color theme="1" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>СО</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <t>За транспорт платим мы, везет УЛТ со склада УЛТ на склад Покупателя.&lt;br /&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
         <color theme="1" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>КРАЩЕНИЯ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>АО	Акционерное общество</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>АРМА	ООО «АРМА» (подразделение ЭМК)</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>ВАЗ	ЗАО «Волгоградский арматурный завод» (производственная площадка ЭМК)</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>ДС	Денежные средства</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>ГИП	Главный инженер проекта</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>ЗАО	Закрытое акционерное общество</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>ИНН	Индивидуальный номер налогоплательщика</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>ИП	Индивидуальный предприниматель</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>ИПЦ	АО "Инженерно-промышленный центр" (производственная площадка ЭМК)</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>ЕГРЮЛ/ЕГРИП	Единый государственный реестр юридических лиц/Единый государственный реестр индивидуальных предпринимателей</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>КД	Коммерческая дирекция (подразделение ЭМК)</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>КО	Коммерческий отдел (подразделение ЭМК)</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>КПП	Код причины постановки</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>САЗ	ЗАО «Саратовский арматурный завод» (производственная площадка ЭМК)</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>КСА	ЗАО «Курганспецарматура» (производственная площадка ЭМК)</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>НДС	Налог на добавленную стоимость</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>ООО	Общество с ограниченной ответственностью</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>ОКПО	Общероссийский классификатор предприятий и организаций</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>ОЛ	Опросный лист</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>ОП	Обособленное подразделение</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>Регулятор	АО НПО «Регулятор» (производственная площадка ЭМК)</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>ЛСЗ	Лист согласования закупки</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>ТЗР	Транспортно-заготовительные расходы</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>Техно-сфера	ООО «Техно-сфера» (производственная площадка ЭМК)</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>Техпромарма	ООО «Техпромарма» (производственная площадка ЭМК)</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>ТН	Транспортная накладная</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>ТТН	Товарно-транспортная накладная</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>Тулаэлектропривод (ТЭП)	АО «Тулаэлектропривод» (производственная площадка ЭМК)</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>УПД	Универсальный передаточный документ</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>ЭМК	Энергомашкомплект</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t>УЛТ	ООО «Универсальный логистический терминал»</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <t>Реализация ЗАО САЗ со склада на Песчано-Уметской ул. (транспортировка за счет ЗАО САЗ до склада покупателя).&lt;br /&gt;- За транспорт платим мы, везет сторонняя ТК со склада УЛТ на склад Покупателя.&lt;br /&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color theme="1" tint="0"/>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <t>За транспорт платим мы, везет УЛТ со склада УЛТ на терминал ТК в Саратове.&lt;br /&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color theme="1" tint="0"/>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <t>За транспорт платим мы, везет сторонняя ТК со склада УЛТ до своего терминала в городе Покупателя.&lt;br /&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color theme="1" tint="0"/>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <t>За транспорт платит покупатель, везет ТК (ДЛ, Байкал, кашалот, ДПД и др.) со склада УЛТ на склад Покупателя.&lt;br /&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color theme="1" tint="0"/>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <t>За транспорт платит покупатель, везет ТК (ДЛ, Байкал, кашалот, ДПД и др.) со склада УЛТ до терминала ТК в городе заказчика (покупателя).&lt;br /&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color theme="1" tint="0"/>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <t>Доставка от УЛТ до склада клиента с привлечением Экспедитора, платим мы.&lt;br /&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color theme="1" tint="0"/>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <t>Доставка от УЛТ до склада клиента с привлечением Экспедитора платит Заказчик (покупатель).&lt;/p&gt;</t>
     </r>
   </si>
 </sst>
@@ -4243,17 +3915,17 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="10" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="0" quotePrefix="false">
-      <alignment horizontal="left"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="11" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="0" quotePrefix="false">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4495,1145 +4167,1143 @@
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="B2" s="8" t="n"/>
       <c r="C2" s="9" t="n"/>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="3">
       <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>7</v>
       </c>
     </row>
     <row customHeight="true" hidden="false" ht="182.228576660156" outlineLevel="0" r="4">
       <c r="A4" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row ht="46.7999992370605" outlineLevel="0" r="5">
       <c r="A5" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row ht="187.199996948242" outlineLevel="0" r="6">
       <c r="A6" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row ht="62.4000015258789" outlineLevel="0" r="7">
       <c r="A7" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="8">
       <c r="A8" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="9" t="n"/>
     </row>
     <row ht="63" outlineLevel="0" r="9">
       <c r="A9" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row ht="31.2000007629395" outlineLevel="0" r="10">
       <c r="A10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row ht="156" outlineLevel="0" r="11">
       <c r="A11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row ht="17.3999996185303" outlineLevel="0" r="12">
       <c r="A12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row ht="156" outlineLevel="0" r="13">
       <c r="A13" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row ht="31.2000007629395" outlineLevel="0" r="14">
       <c r="A14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row ht="78" outlineLevel="0" r="15">
       <c r="A15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row ht="140.399993896484" outlineLevel="0" r="16">
       <c r="A16" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row ht="31.2000007629395" outlineLevel="0" r="17">
       <c r="A17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row ht="78" outlineLevel="0" r="18">
       <c r="A18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row ht="31.2000007629395" outlineLevel="0" r="19">
       <c r="A19" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row ht="17.3999996185303" outlineLevel="0" r="20">
       <c r="A20" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row ht="140.399993896484" outlineLevel="0" r="21">
       <c r="A21" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row ht="17.3999996185303" outlineLevel="0" r="22">
       <c r="A22" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="C22" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row ht="46.7999992370605" outlineLevel="0" r="23">
       <c r="A23" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row ht="31.2000007629395" outlineLevel="0" r="24">
       <c r="A24" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row ht="17.3999996185303" outlineLevel="0" r="25">
       <c r="A25" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="C25" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row ht="17.3999996185303" outlineLevel="0" r="26">
       <c r="A26" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row ht="31.2000007629395" outlineLevel="0" r="27">
       <c r="A27" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>57</v>
       </c>
     </row>
     <row ht="31.2000007629395" outlineLevel="0" r="28">
       <c r="A28" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row ht="17.3999996185303" outlineLevel="0" r="29">
       <c r="A29" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row ht="17.3999996185303" outlineLevel="0" r="30">
       <c r="A30" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row ht="62.4000015258789" outlineLevel="0" r="31">
       <c r="A31" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row ht="31.2000007629395" outlineLevel="0" r="32">
       <c r="A32" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row ht="17.3999996185303" outlineLevel="0" r="33">
       <c r="A33" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row ht="31.2000007629395" outlineLevel="0" r="34">
       <c r="A34" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="9" t="n"/>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="35">
       <c r="A35" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="C35" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>73</v>
       </c>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="36">
       <c r="A36" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="37">
       <c r="A37" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B37" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="38">
       <c r="A38" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B38" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>79</v>
       </c>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="39">
       <c r="A39" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>81</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="40">
       <c r="A40" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="C40" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="41">
       <c r="A41" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>86</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="42">
       <c r="A42" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B42" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>88</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="43">
       <c r="A43" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B43" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>90</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="44">
       <c r="A44" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>92</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="45">
       <c r="A45" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B45" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>94</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="46">
       <c r="A46" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B46" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>96</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="47">
       <c r="A47" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B47" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>98</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="48">
       <c r="A48" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B48" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>100</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="49">
       <c r="A49" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="C49" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>103</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="50">
       <c r="A50" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B50" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>105</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="51">
       <c r="A51" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B51" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>107</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="52">
       <c r="A52" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B52" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>109</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="53">
       <c r="A53" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C53" s="9" t="n"/>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="54">
       <c r="A54" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B54" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>112</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="55">
       <c r="A55" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="C55" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>115</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="56">
       <c r="A56" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B56" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>117</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="57">
       <c r="A57" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B57" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>119</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="58">
       <c r="A58" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B58" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>121</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="59">
       <c r="A59" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B59" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>123</v>
       </c>
     </row>
     <row ht="104.400001525879" outlineLevel="0" r="60">
       <c r="A60" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C60" s="9" t="n"/>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="61">
       <c r="A61" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="C61" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>127</v>
       </c>
     </row>
     <row ht="93.5999984741211" outlineLevel="0" r="62">
       <c r="A62" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B62" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>129</v>
       </c>
     </row>
     <row ht="62.4000015258789" outlineLevel="0" r="63">
       <c r="A63" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B63" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>131</v>
       </c>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="64">
       <c r="A64" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B64" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>132</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>133</v>
       </c>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="65">
       <c r="A65" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C65" s="9" t="n"/>
     </row>
     <row ht="87" outlineLevel="0" r="66">
       <c r="A66" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="C66" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>137</v>
       </c>
     </row>
     <row ht="87" outlineLevel="0" r="67">
       <c r="A67" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B67" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>139</v>
       </c>
     </row>
     <row ht="87" outlineLevel="0" r="68">
       <c r="A68" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B68" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>141</v>
       </c>
     </row>
     <row ht="87" outlineLevel="0" r="69">
       <c r="A69" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B69" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>143</v>
       </c>
     </row>
     <row ht="87" outlineLevel="0" r="70">
       <c r="A70" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B70" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>145</v>
       </c>
     </row>
     <row ht="109.199996948242" outlineLevel="0" r="71">
       <c r="A71" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B71" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>147</v>
       </c>
     </row>
     <row ht="87" outlineLevel="0" r="72">
       <c r="A72" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B72" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" s="9" t="s">
         <v>148</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>149</v>
       </c>
     </row>
     <row ht="234" outlineLevel="0" r="73">
       <c r="A73" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B73" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>151</v>
       </c>
     </row>
     <row ht="62.4000015258789" outlineLevel="0" r="74">
       <c r="A74" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="C74" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>154</v>
       </c>
     </row>
     <row ht="52.2000007629395" outlineLevel="0" r="75">
       <c r="A75" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B75" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>155</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>156</v>
       </c>
     </row>
     <row ht="109.199996948242" outlineLevel="0" r="76">
       <c r="A76" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B76" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>157</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>158</v>
       </c>
     </row>
     <row ht="52.2000007629395" outlineLevel="0" r="77">
       <c r="A77" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C77" s="9" t="n"/>
     </row>
     <row ht="109.199996948242" outlineLevel="0" r="78">
       <c r="A78" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B78" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="C78" s="9" t="s">
         <v>161</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>162</v>
       </c>
     </row>
     <row ht="46.7999992370605" outlineLevel="0" r="79">
       <c r="A79" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B79" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>164</v>
       </c>
     </row>
     <row ht="17.3999996185303" outlineLevel="0" r="80">
       <c r="A80" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B80" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80" s="9" t="s">
         <v>165</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>166</v>
       </c>
     </row>
     <row ht="31.2000007629395" outlineLevel="0" r="81">
       <c r="A81" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B81" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>168</v>
       </c>
     </row>
     <row ht="31.2000007629395" outlineLevel="0" r="82">
       <c r="A82" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B82" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" s="9" t="s">
         <v>169</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>170</v>
       </c>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="83">
       <c r="A83" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="C83" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>173</v>
       </c>
     </row>
     <row ht="46.7999992370605" outlineLevel="0" r="84">
       <c r="A84" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B84" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C84" s="9" t="s">
         <v>174</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>175</v>
       </c>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="85">
       <c r="A85" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B85" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>176</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>177</v>
       </c>
     </row>
     <row ht="109.199996948242" outlineLevel="0" r="86">
       <c r="A86" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B86" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>178</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>179</v>
       </c>
     </row>
     <row ht="409" outlineLevel="0" r="87">
       <c r="A87" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C87" s="9" t="n"/>
     </row>
     <row ht="52.2000007629395" outlineLevel="0" r="88">
       <c r="A88" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B88" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="C88" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>183</v>
       </c>
     </row>
     <row ht="31.7999992370605" outlineLevel="0" r="89">
       <c r="A89" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B89" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="B89" s="25" t="s">
+      <c r="C89" s="9" t="s">
         <v>185</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>186</v>
       </c>
     </row>
     <row ht="62.4000015258789" outlineLevel="0" r="90">
       <c r="A90" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B90" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C90" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>188</v>
       </c>
     </row>
     <row ht="140.399993896484" outlineLevel="0" r="91">
       <c r="A91" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B91" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C91" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>190</v>
       </c>
     </row>
     <row ht="46.7999992370605" outlineLevel="0" r="92">
       <c r="A92" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B92" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C92" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>192</v>
       </c>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="93">
       <c r="A93" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="B93" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="C93" s="9" t="s">
         <v>194</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>195</v>
       </c>
     </row>
     <row ht="34.7999992370605" outlineLevel="0" r="94">
       <c r="A94" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B94" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94" s="9" t="s">
         <v>196</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>197</v>
       </c>
     </row>
     <row ht="52.2000007629395" outlineLevel="0" r="95">
       <c r="A95" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B95" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="C95" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>200</v>
       </c>
     </row>
     <row ht="52.2000007629395" outlineLevel="0" r="96">
       <c r="A96" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B96" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C96" s="9" t="s">
         <v>201</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>202</v>
       </c>
     </row>
     <row ht="52.2000007629395" outlineLevel="0" r="97">
       <c r="A97" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C97" s="9" t="n"/>
     </row>
     <row outlineLevel="0" r="98">
       <c r="A98" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B98" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="C98" s="28" t="n"/>
+    </row>
+    <row outlineLevel="0" r="99">
+      <c r="A99" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="C98" s="3" t="n"/>
-    </row>
-    <row outlineLevel="0" r="99">
-      <c r="A99" s="1" t="s">
+      <c r="B99" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>207</v>
-      </c>
+      <c r="C99" s="3" t="n"/>
     </row>
     <row outlineLevel="0" r="100">
       <c r="A100" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row outlineLevel="0" r="101">
       <c r="A101" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row outlineLevel="0" r="102">
       <c r="A102" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row outlineLevel="0" r="103">
       <c r="A103" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row outlineLevel="0" r="104">
       <c r="A104" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row outlineLevel="0" r="105">
       <c r="A105" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row outlineLevel="0" r="106">
       <c r="A106" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row outlineLevel="0" r="107">
       <c r="A107" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row outlineLevel="0" r="108">
       <c r="A108" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
     <row outlineLevel="0" r="109">
       <c r="A109" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B109" s="2" t="s">
+    </row>
+    <row outlineLevel="0" r="110">
+      <c r="A110" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row outlineLevel="0" r="110">
-      <c r="A110" s="27" t="s">
+      <c r="B110" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B110" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="C110" s="29" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.300000011920929" header="0.300000011920929" left="0.700000047683716" right="0.700000047683716" top="0.75"/>
